--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,14 +14,14 @@
     <sheet name="Hubs" sheetId="5" r:id="rId5"/>
     <sheet name="Restrictions" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -32,16 +32,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 in $
@@ -57,16 +57,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 in $ per MJ
@@ -82,16 +82,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 in kg/MJ</t>
@@ -105,7 +105,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -116,16 +116,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 in $
@@ -141,16 +141,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 in $/MJ
@@ -166,20 +166,68 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 in MJ
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mrd. pkm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mrd. tkm</t>
         </r>
       </text>
     </comment>
@@ -190,7 +238,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -201,16 +249,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 in $
@@ -226,20 +274,44 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 in $/MJ
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wert überprüfen</t>
         </r>
       </text>
     </comment>
@@ -250,7 +322,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -261,16 +333,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 in kg</t>
@@ -282,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -326,18 +398,6 @@
     <t>MtG</t>
   </si>
   <si>
-    <t>cr2ref</t>
-  </si>
-  <si>
-    <t>h22mtg</t>
-  </si>
-  <si>
-    <t>ref2gas</t>
-  </si>
-  <si>
-    <t>mtg2gas</t>
-  </si>
-  <si>
     <t>Capex</t>
   </si>
   <si>
@@ -356,45 +416,12 @@
     <t>SubEff0</t>
   </si>
   <si>
-    <t>GasHub</t>
-  </si>
-  <si>
-    <t>KmHub</t>
-  </si>
-  <si>
-    <t>km</t>
-  </si>
-  <si>
-    <t>Gtkm</t>
-  </si>
-  <si>
-    <t>Kilometers</t>
-  </si>
-  <si>
     <t>BM</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t>B2gas</t>
-  </si>
-  <si>
-    <t>gas2km</t>
-  </si>
-  <si>
-    <t>kmtohub</t>
-  </si>
-  <si>
-    <t>hub2sink</t>
-  </si>
-  <si>
-    <t>bm2btg</t>
-  </si>
-  <si>
-    <t>btg2gas</t>
-  </si>
-  <si>
     <t>CO2 Max</t>
   </si>
   <si>
@@ -414,6 +441,135 @@
   </si>
   <si>
     <t>InRatio1</t>
+  </si>
+  <si>
+    <t>pkm</t>
+  </si>
+  <si>
+    <t>tkm</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>BtL</t>
+  </si>
+  <si>
+    <t>BtD</t>
+  </si>
+  <si>
+    <t>MtD</t>
+  </si>
+  <si>
+    <t>1-cr</t>
+  </si>
+  <si>
+    <t>1-bm_1</t>
+  </si>
+  <si>
+    <t>1-bm_2</t>
+  </si>
+  <si>
+    <t>1-h2_1</t>
+  </si>
+  <si>
+    <t>1-h2_2</t>
+  </si>
+  <si>
+    <t>2-cr_gas</t>
+  </si>
+  <si>
+    <t>GasolineHub</t>
+  </si>
+  <si>
+    <t>2-cr_dies</t>
+  </si>
+  <si>
+    <t>DieselHub</t>
+  </si>
+  <si>
+    <t>2-btl</t>
+  </si>
+  <si>
+    <t>2-btd</t>
+  </si>
+  <si>
+    <t>2-h2_1</t>
+  </si>
+  <si>
+    <t>2-h2_2</t>
+  </si>
+  <si>
+    <t>3-gas_PV</t>
+  </si>
+  <si>
+    <t>4-gasPV</t>
+  </si>
+  <si>
+    <t>Prod2</t>
+  </si>
+  <si>
+    <t>SubEff2</t>
+  </si>
+  <si>
+    <t>TruckN1</t>
+  </si>
+  <si>
+    <t>TruckN2</t>
+  </si>
+  <si>
+    <t>3-TrN1</t>
+  </si>
+  <si>
+    <t>3-TrN2</t>
+  </si>
+  <si>
+    <t>4-TrN1</t>
+  </si>
+  <si>
+    <t>4-TrN2</t>
+  </si>
+  <si>
+    <t>PVGas</t>
+  </si>
+  <si>
+    <t>PVDiesel</t>
+  </si>
+  <si>
+    <t>3-dies_PV</t>
+  </si>
+  <si>
+    <t>4-diesPV</t>
+  </si>
+  <si>
+    <t>tkm-N1</t>
+  </si>
+  <si>
+    <t>tkm-N2</t>
+  </si>
+  <si>
+    <t>tkm-N3</t>
+  </si>
+  <si>
+    <t>tkm-SZM</t>
+  </si>
+  <si>
+    <t>TruckN3</t>
+  </si>
+  <si>
+    <t>TruckSZM</t>
+  </si>
+  <si>
+    <t>3-TrN3</t>
+  </si>
+  <si>
+    <t>3-TrSZM</t>
+  </si>
+  <si>
+    <t>4-TrN3</t>
+  </si>
+  <si>
+    <t>4-TrSZM</t>
   </si>
 </sst>
 </file>
@@ -432,14 +588,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -462,11 +618,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -479,9 +636,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -519,7 +676,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -591,7 +748,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -768,10 +925,10 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -787,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -830,16 +987,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -848,24 +1005,24 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>9999999</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -882,13 +1039,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
@@ -902,21 +1059,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -925,10 +1082,78 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>130.30000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>414.5</v>
       </c>
     </row>
   </sheetData>
@@ -939,13 +1164,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -967,36 +1192,36 @@
     <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -1004,8 +1229,14 @@
       <c r="L1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1015,7 +1246,7 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.93</v>
       </c>
       <c r="E2" t="s">
@@ -1028,84 +1259,278 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.84</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.4</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f>1.5/1.9</f>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <f>1.5/1.8</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <f>0.2/2.2</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
         <v>30</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <f>2.7/3.9</f>
+        <v>0.6923076923076924</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <f>5.5/7.8</f>
+        <v>0.70512820512820518</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <f>13.5/8.8</f>
+        <v>1.5340909090909089</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12">
         <v>1</v>
       </c>
     </row>
@@ -1117,15 +1542,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1144,7 +1570,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1158,114 +1584,310 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1278,10 +1900,10 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1291,15 +1913,15 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1313,10 +1935,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1335,19 +1957,20 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>40</v>
+        <f>96-(121*0.0732)</f>
+        <v>87.142799999999994</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="Hubs" sheetId="5" r:id="rId5"/>
     <sheet name="Restrictions" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Autor</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -34,7 +34,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Autor</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -118,7 +118,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -193,7 +193,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Autor</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -251,7 +251,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -276,7 +276,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -301,7 +301,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -322,7 +322,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Autor</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -335,7 +335,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Autor:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -570,6 +570,12 @@
   </si>
   <si>
     <t>4-TrSZM</t>
+  </si>
+  <si>
+    <t>OutMin</t>
+  </si>
+  <si>
+    <t>OutMax</t>
   </si>
 </sst>
 </file>
@@ -618,12 +624,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -636,9 +643,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -676,7 +683,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -748,7 +755,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -928,7 +935,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -1045,7 +1052,7 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
@@ -1164,35 +1171,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1206,37 +1215,43 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1249,26 +1264,32 @@
       <c r="D2" s="1">
         <v>0.93</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>999999</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.33</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.67</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1281,20 +1302,26 @@
       <c r="D3" s="1">
         <v>0.54</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>999999</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1307,20 +1334,26 @@
       <c r="D4" s="1">
         <v>0.54</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>999999</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1333,20 +1366,26 @@
       <c r="D5" s="1">
         <v>0.84</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>999999</v>
+      </c>
+      <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
         <v>31</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1359,20 +1398,26 @@
       <c r="D6" s="1">
         <v>0.84</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>999999</v>
+      </c>
+      <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
         <v>10</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1386,20 +1431,26 @@
         <f>1.5/1.9</f>
         <v>0.78947368421052633</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>999999</v>
+      </c>
+      <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
         <v>29</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1413,20 +1464,26 @@
         <f>1.5/1.8</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>999999</v>
+      </c>
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
         <v>29</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -1440,20 +1497,26 @@
         <f>0.2/2.2</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>999999</v>
+      </c>
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
         <v>30</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1467,20 +1530,26 @@
         <f>2.7/3.9</f>
         <v>0.6923076923076924</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>999999</v>
+      </c>
+      <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
         <v>30</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1494,20 +1563,26 @@
         <f>5.5/7.8</f>
         <v>0.70512820512820518</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>999999</v>
+      </c>
+      <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
         <v>30</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -1521,16 +1596,22 @@
         <f>13.5/8.8</f>
         <v>1.5340909090909089</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>999999</v>
+      </c>
+      <c r="G12" t="s">
         <v>31</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
         <v>30</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>1</v>
       </c>
     </row>
@@ -1548,7 +1629,7 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
@@ -1903,7 +1984,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1960,7 +2041,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/input.xlsx
+++ b/input.xlsx
@@ -355,7 +355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="833">
   <si>
     <t>Name</t>
   </si>
@@ -2848,6 +2848,12 @@
   </si>
   <si>
     <t>Lifetime</t>
+  </si>
+  <si>
+    <t>MaxCO2PlantSize</t>
+  </si>
+  <si>
+    <t>MinCO2PlantSize</t>
   </si>
 </sst>
 </file>
@@ -13220,15 +13226,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -13238,8 +13251,14 @@
       <c r="C1" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>96-(121*0.0732)</f>
         <v>87.142799999999994</v>
@@ -13249,6 +13268,12 @@
       </c>
       <c r="C2">
         <v>20</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -155,31 +155,6 @@
           </rPr>
           <t xml:space="preserve">
 in $/MJ
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-in MJ
 </t>
         </r>
       </text>
@@ -3235,7 +3210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -3353,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3479,7 +3454,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -3328,7 +3328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -13203,8 +13203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="834">
   <si>
     <t>Name</t>
   </si>
@@ -2829,6 +2829,9 @@
   </si>
   <si>
     <t>MinCO2PlantSize</t>
+  </si>
+  <si>
+    <t>old PS</t>
   </si>
 </sst>
 </file>
@@ -3454,7 +3457,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4315,10 +4318,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R167"/>
+  <dimension ref="A1:S167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4329,19 +4332,20 @@
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="46" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" customWidth="1"/>
-    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="46" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="3.140625" customWidth="1"/>
+    <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>74</v>
       </c>
@@ -4366,38 +4370,41 @@
       <c r="H1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>74679</v>
       </c>
@@ -4420,39 +4427,43 @@
         <f t="shared" ref="G2:G65" si="0">F2/10^9</f>
         <v>0.10100000000000001</v>
       </c>
-      <c r="H2" s="5">
-        <f t="shared" ref="H2:H65" si="1">(G2/3.88*34.2*10^9)/(8000*3600)*0.9</f>
+      <c r="H2">
+        <f>I2/1000</f>
+        <v>2.7820554123711348E-2</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" ref="I2:I65" si="1">(G2/3.88*34.2*10^9)/(8000*3600)*0.9</f>
         <v>27.820554123711347</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>95</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>96</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>97</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>51.294178784737198</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>13.4001113756474</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>98</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>100</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>74373</v>
       </c>
@@ -4475,36 +4486,40 @@
         <f t="shared" si="0"/>
         <v>0.221</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="2">I3/1000</f>
+        <v>6.0874677835051558E-2</v>
+      </c>
+      <c r="I3" s="5">
         <f t="shared" si="1"/>
         <v>60.874677835051557</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>95</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>105</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>106</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>51.581963170143801</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>13.977446475568099</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>107</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>108</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>74374</v>
       </c>
@@ -4527,39 +4542,43 @@
         <f t="shared" si="0"/>
         <v>0.42399999999999999</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.11679123711340207</v>
+      </c>
+      <c r="I4" s="5">
         <f t="shared" si="1"/>
         <v>116.79123711340208</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>95</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>113</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>97</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>51.478473409552997</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>13.8893715283799</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>98</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>100</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>74683</v>
       </c>
@@ -4582,36 +4601,40 @@
         <f t="shared" si="0"/>
         <v>0.17599999999999999</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>4.8479381443298969E-2</v>
+      </c>
+      <c r="I5" s="5">
         <f t="shared" si="1"/>
         <v>48.479381443298969</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>95</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>118</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>119</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>51.450436872298702</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>14.112097841254601</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>120</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>108</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>74742</v>
       </c>
@@ -4634,39 +4657,43 @@
         <f t="shared" si="0"/>
         <v>1.1299999999999999</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.31125966494845364</v>
+      </c>
+      <c r="I6" s="5">
         <f t="shared" si="1"/>
         <v>311.25966494845363</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>125</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>126</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>97</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>51.1914252047494</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>12.3560994005555</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>98</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>99</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>100</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>74758</v>
       </c>
@@ -4689,36 +4716,40 @@
         <f t="shared" si="0"/>
         <v>0.20200000000000001</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>5.5641108247422695E-2</v>
+      </c>
+      <c r="I7" s="5">
         <f t="shared" si="1"/>
         <v>55.641108247422693</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>125</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>131</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>97</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>51.464619305976598</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>12.5913417810146</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>132</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>133</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>46982</v>
       </c>
@@ -4741,36 +4772,40 @@
         <f t="shared" si="0"/>
         <v>0.46600000000000003</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.12836018041237116</v>
+      </c>
+      <c r="I8" s="5">
         <f t="shared" si="1"/>
         <v>128.36018041237116</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>125</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>138</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>97</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>51.461614296796697</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>11.717906668617401</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>139</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>140</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>73639</v>
       </c>
@@ -4793,36 +4828,40 @@
         <f t="shared" si="0"/>
         <v>2.04</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.56192010309278362</v>
+      </c>
+      <c r="I9" s="5">
         <f t="shared" si="1"/>
         <v>561.92010309278362</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>125</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>145</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>97</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>51.2896773043148</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>11.9905821539726</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>139</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>140</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>74855</v>
       </c>
@@ -4845,39 +4884,43 @@
         <f t="shared" si="0"/>
         <v>0.44400000000000001</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.12230025773195878</v>
+      </c>
+      <c r="I10" s="5">
         <f t="shared" si="1"/>
         <v>122.30025773195878</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>95</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>148</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>149</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>51.322599854938296</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>12.002098596645499</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>150</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>99</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>151</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>46914</v>
       </c>
@@ -4900,36 +4943,40 @@
         <f t="shared" si="0"/>
         <v>0.41599999999999998</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.1145876288659794</v>
+      </c>
+      <c r="I11" s="5">
         <f t="shared" si="1"/>
         <v>114.5876288659794</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>95</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>154</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>155</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>51.329938987218597</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>11.995801503132499</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>107</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>108</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>110066</v>
       </c>
@@ -4952,39 +4999,43 @@
         <f t="shared" si="0"/>
         <v>0.193</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>5.3162048969072173E-2</v>
+      </c>
+      <c r="I12" s="5">
         <f t="shared" si="1"/>
         <v>53.162048969072174</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>95</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>145</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>97</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>51.290101416072197</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>11.9958026383124</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>150</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>99</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>151</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>46834</v>
       </c>
@@ -5007,39 +5058,43 @@
         <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>4.6826675257731973E-2</v>
+      </c>
+      <c r="I13" s="5">
         <f t="shared" si="1"/>
         <v>46.826675257731971</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>125</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>160</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>161</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>51.400987112374899</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>11.9340106629727</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>98</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>99</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>100</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>46837</v>
       </c>
@@ -5062,36 +5117,40 @@
         <f t="shared" si="0"/>
         <v>0.64300000000000002</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.17711501288659798</v>
+      </c>
+      <c r="I14" s="5">
         <f t="shared" si="1"/>
         <v>177.11501288659798</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>95</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>165</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>166</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>51.816375212631499</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>11.7496465999851</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>167</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>168</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>46949</v>
       </c>
@@ -5114,39 +5173,43 @@
         <f t="shared" si="0"/>
         <v>0.33300000000000002</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>9.1725193298969068E-2</v>
+      </c>
+      <c r="I15" s="5">
         <f t="shared" si="1"/>
         <v>91.725193298969074</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>172</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>173</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>174</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>51.801144115843897</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>11.7506195932938</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>150</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>99</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>151</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>46830</v>
       </c>
@@ -5169,36 +5232,40 @@
         <f t="shared" si="0"/>
         <v>0.10299999999999999</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>2.8371456185567016E-2</v>
+      </c>
+      <c r="I16" s="5">
         <f t="shared" si="1"/>
         <v>28.371456185567016</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>125</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>179</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>166</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>51.695957393098098</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>11.7569547595901</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>180</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>181</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>46897</v>
       </c>
@@ -5221,39 +5288,43 @@
         <f t="shared" si="0"/>
         <v>0.872</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.24019329896907218</v>
+      </c>
+      <c r="I17" s="5">
         <f t="shared" si="1"/>
         <v>240.19329896907217</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>125</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>186</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>187</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>51.270219602169199</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>11.660337780700599</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>167</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>168</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>169</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>46944</v>
       </c>
@@ -5276,36 +5347,40 @@
         <f t="shared" si="0"/>
         <v>0.29899999999999999</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>8.2359858247422674E-2</v>
+      </c>
+      <c r="I18" s="5">
         <f t="shared" si="1"/>
         <v>82.359858247422679</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>95</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>192</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>193</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>51.181555468296999</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>12.019452916434</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>107</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>108</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>46956</v>
       </c>
@@ -5328,39 +5403,43 @@
         <f t="shared" si="0"/>
         <v>0.379</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.10439594072164951</v>
+      </c>
+      <c r="I19" s="5">
         <f t="shared" si="1"/>
         <v>104.39594072164951</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>125</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>197</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>198</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>51.054381557725399</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>12.1181514505625</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>98</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>99</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>100</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>46955</v>
       </c>
@@ -5383,39 +5462,43 @@
         <f t="shared" si="0"/>
         <v>0.17699999999999999</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>4.8754832474226815E-2</v>
+      </c>
+      <c r="I20" s="5">
         <f t="shared" si="1"/>
         <v>48.754832474226816</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>125</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>201</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>198</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>51.026991924447898</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>12.0883403042306</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>180</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>181</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>182</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>46869</v>
       </c>
@@ -5438,36 +5521,40 @@
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>3.3054123711340207E-2</v>
+      </c>
+      <c r="I21" s="5">
         <f t="shared" si="1"/>
         <v>33.054123711340203</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>125</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>206</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>97</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>51.651232675239697</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>12.243387588332</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>207</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>168</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>46945</v>
       </c>
@@ -5490,36 +5577,40 @@
         <f t="shared" si="0"/>
         <v>2.37</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0.65281894329896917</v>
+      </c>
+      <c r="I22" s="5">
         <f t="shared" si="1"/>
         <v>652.8189432989692</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>125</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>212</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>213</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>51.878593369807902</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>12.575128547133501</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>214</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>99</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>46236</v>
       </c>
@@ -5542,36 +5633,40 @@
         <f t="shared" si="0"/>
         <v>0.39800000000000002</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0.10962951030927838</v>
+      </c>
+      <c r="I23" s="5">
         <f t="shared" si="1"/>
         <v>109.62951030927837</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>219</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>220</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>221</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>52.5290382462859</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>13.237915493370901</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>107</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>108</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>110415</v>
       </c>
@@ -5594,36 +5689,40 @@
         <f t="shared" si="0"/>
         <v>0.13800000000000001</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>3.8012242268041251E-2</v>
+      </c>
+      <c r="I24" s="5">
         <f t="shared" si="1"/>
         <v>38.012242268041248</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>95</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>225</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>97</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>52.5276913202364</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>12.359030724397901</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>107</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>108</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>46317</v>
       </c>
@@ -5646,39 +5745,43 @@
         <f t="shared" si="0"/>
         <v>1.48</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.40766752577319593</v>
+      </c>
+      <c r="I25" s="5">
         <f t="shared" si="1"/>
         <v>407.66752577319591</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>125</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>229</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>166</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>52.489069264681298</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>13.8369291710776</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>167</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>168</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>169</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>110413</v>
       </c>
@@ -5701,36 +5804,40 @@
         <f t="shared" si="0"/>
         <v>0.248</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>6.8311855670103089E-2</v>
+      </c>
+      <c r="I26" s="5">
         <f t="shared" si="1"/>
         <v>68.311855670103085</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>231</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>232</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>233</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>52.490654045305099</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>13.8307896044107</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>107</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>108</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>46322</v>
       </c>
@@ -5753,39 +5860,43 @@
         <f t="shared" si="0"/>
         <v>0.22600000000000001</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>6.2251932989690721E-2</v>
+      </c>
+      <c r="I27" s="5">
         <f t="shared" si="1"/>
         <v>62.251932989690722</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>125</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>229</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>235</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>52.486448050105402</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>13.8300469517844</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>167</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>168</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>169</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>46378</v>
       </c>
@@ -5808,36 +5919,40 @@
         <f t="shared" si="0"/>
         <v>0.41799999999999998</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>0.11513853092783505</v>
+      </c>
+      <c r="I28" s="5">
         <f t="shared" si="1"/>
         <v>115.13853092783505</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>240</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>241</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>242</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>52.079298457823199</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>13.5082293309937</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>120</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>108</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>74359</v>
       </c>
@@ -5860,36 +5975,40 @@
         <f t="shared" si="0"/>
         <v>0.33500000000000002</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>9.2276095360824761E-2</v>
+      </c>
+      <c r="I29" s="5">
         <f t="shared" si="1"/>
         <v>92.276095360824755</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>125</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>246</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>247</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>52.181261270441702</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>14.2557528609744</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>132</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>133</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>46328</v>
       </c>
@@ -5912,36 +6031,40 @@
         <f t="shared" si="0"/>
         <v>1.91</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>0.52611146907216511</v>
+      </c>
+      <c r="I30" s="5">
         <f t="shared" si="1"/>
         <v>526.11146907216505</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>125</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>251</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>97</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>52.166140522248902</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>14.6176822369296</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>252</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>253</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>74350</v>
       </c>
@@ -5964,36 +6087,40 @@
         <f t="shared" si="0"/>
         <v>4.0199999999999996</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>1.1073131443298969</v>
+      </c>
+      <c r="I31" s="5">
         <f t="shared" si="1"/>
         <v>1107.3131443298969</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>125</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>258</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>259</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>53.087585291388201</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>14.238121533328099</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>139</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>140</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>57513</v>
       </c>
@@ -6016,36 +6143,40 @@
         <f t="shared" si="0"/>
         <v>0.36499999999999999</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>0.1005396262886598</v>
+      </c>
+      <c r="I32" s="5">
         <f t="shared" si="1"/>
         <v>100.5396262886598</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>261</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>262</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>263</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>53.079099428239097</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>14.3197657762307</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>132</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>133</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>43246</v>
       </c>
@@ -6068,36 +6199,40 @@
         <f t="shared" si="0"/>
         <v>0.153</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>4.2144007731958762E-2</v>
+      </c>
+      <c r="I33" s="5">
         <f t="shared" si="1"/>
         <v>42.144007731958759</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>95</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>267</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>242</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>53.534504413905204</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>9.9429255649444706</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>107</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>108</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>73883</v>
       </c>
@@ -6120,39 +6255,43 @@
         <f t="shared" si="0"/>
         <v>0.17100000000000001</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>4.7102126288659799E-2</v>
+      </c>
+      <c r="I34" s="5">
         <f t="shared" si="1"/>
         <v>47.102126288659797</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>219</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>271</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>272</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>53.517985331910403</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>10.0349698471196</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>273</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>253</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>274</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>43203</v>
       </c>
@@ -6175,36 +6314,40 @@
         <f t="shared" si="0"/>
         <v>0.77</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>0.21209729381443301</v>
+      </c>
+      <c r="I35" s="5">
         <f t="shared" si="1"/>
         <v>212.09729381443302</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>125</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>278</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>279</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>53.477085862413098</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>9.9515818942464396</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>139</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>140</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>54392</v>
       </c>
@@ -6227,36 +6370,40 @@
         <f t="shared" si="0"/>
         <v>0.32200000000000001</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>8.8695231958762902E-2</v>
+      </c>
+      <c r="I36" s="5">
         <f t="shared" si="1"/>
         <v>88.695231958762903</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>282</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>283</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>263</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>53.486590082136203</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>9.9702420341148805</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>139</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>140</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>220711</v>
       </c>
@@ -6279,39 +6426,43 @@
         <f t="shared" si="0"/>
         <v>0.223</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>6.1425579896907223E-2</v>
+      </c>
+      <c r="I37" s="5">
         <f t="shared" si="1"/>
         <v>61.425579896907223</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>125</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>285</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>286</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>53.518694432629403</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>9.9529212725690197</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>98</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>99</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>100</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>43243</v>
       </c>
@@ -6334,36 +6485,40 @@
         <f t="shared" si="0"/>
         <v>0.32300000000000001</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>8.8970682989690741E-2</v>
+      </c>
+      <c r="I38" s="5">
         <f t="shared" si="1"/>
         <v>88.970682989690744</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>95</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>289</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>97</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>53.521166226395202</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>9.9347254971451004</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>107</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>108</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>43205</v>
       </c>
@@ -6386,39 +6541,43 @@
         <f t="shared" si="0"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>6.1976481958762902E-2</v>
+      </c>
+      <c r="I39" s="5">
         <f t="shared" si="1"/>
         <v>61.976481958762903</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>95</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>292</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>166</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>53.512395480537698</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>9.8872098015512808</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>273</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>253</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>274</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>73896</v>
       </c>
@@ -6441,39 +6600,43 @@
         <f t="shared" si="0"/>
         <v>0.59599999999999997</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>0.1641688144329897</v>
+      </c>
+      <c r="I40" s="5">
         <f t="shared" si="1"/>
         <v>164.16881443298971</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>95</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>296</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>297</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>53.632479486695203</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>9.5073096455793902</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>150</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>99</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>151</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>43348</v>
       </c>
@@ -6496,39 +6659,43 @@
         <f t="shared" si="0"/>
         <v>0.41399999999999998</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>0.11403672680412372</v>
+      </c>
+      <c r="I41" s="5">
         <f t="shared" si="1"/>
         <v>114.03672680412372</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>125</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>299</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>166</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>53.644293858703101</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>9.4979364432588191</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>150</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>99</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>151</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>69944</v>
       </c>
@@ -6551,36 +6718,40 @@
         <f t="shared" si="0"/>
         <v>0.48899999999999999</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>0.13469555412371137</v>
+      </c>
+      <c r="I42" s="5">
         <f t="shared" si="1"/>
         <v>134.69555412371136</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>95</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>303</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>304</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>53.532164059482803</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>10.074377703343901</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>107</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>108</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>105004</v>
       </c>
@@ -6603,36 +6774,40 @@
         <f t="shared" si="0"/>
         <v>0.32300000000000001</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>8.8970682989690741E-2</v>
+      </c>
+      <c r="I43" s="5">
         <f t="shared" si="1"/>
         <v>88.970682989690744</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>219</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>308</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>309</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>53.619281669895798</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>10.224542630666599</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>107</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>108</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>104958</v>
       </c>
@@ -6655,36 +6830,40 @@
         <f t="shared" si="0"/>
         <v>0.13100000000000001</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>3.6084085051546401E-2</v>
+      </c>
+      <c r="I44" s="5">
         <f t="shared" si="1"/>
         <v>36.084085051546403</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>231</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>313</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>314</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>54.307325357642902</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>10.111066950361399</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>107</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>108</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>104967</v>
       </c>
@@ -6707,36 +6886,40 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>0.11018041237113406</v>
+      </c>
+      <c r="I45" s="5">
         <f t="shared" si="1"/>
         <v>110.18041237113405</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>95</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>318</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>319</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>54.082960084593601</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>9.9910249758907597</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>107</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>108</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43104</v>
       </c>
@@ -6759,39 +6942,43 @@
         <f t="shared" si="0"/>
         <v>0.187</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>5.1509342783505163E-2</v>
+      </c>
+      <c r="I46" s="5">
         <f t="shared" si="1"/>
         <v>51.509342783505161</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>172</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>323</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>324</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>53.912877499535398</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>9.1579628979056107</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>98</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>99</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>100</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43106</v>
       </c>
@@ -6814,39 +7001,43 @@
         <f t="shared" si="0"/>
         <v>0.16600000000000001</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>4.5724871134020614E-2</v>
+      </c>
+      <c r="I47" s="5">
         <f t="shared" si="1"/>
         <v>45.724871134020617</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>125</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>326</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>319</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>53.901960856324798</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>9.1865960412220407</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>98</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>99</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>100</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>43127</v>
       </c>
@@ -6869,39 +7060,43 @@
         <f t="shared" si="0"/>
         <v>1.17</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>0.322277706185567</v>
+      </c>
+      <c r="I48" s="5">
         <f t="shared" si="1"/>
         <v>322.27770618556701</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>231</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>331</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>332</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>53.8741649175332</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>9.5832685959914503</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>167</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>168</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>169</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>43123</v>
       </c>
@@ -6924,39 +7119,43 @@
         <f t="shared" si="0"/>
         <v>0.85599999999999998</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>0.2357860824742268</v>
+      </c>
+      <c r="I49" s="5">
         <f t="shared" si="1"/>
         <v>235.78608247422682</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>172</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>336</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>337</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>53.9106443443535</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>9.2078709439190103</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>150</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>99</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>151</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>43110</v>
       </c>
@@ -6979,36 +7178,40 @@
         <f t="shared" si="0"/>
         <v>0.97299999999999998</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>0.26801385309278358</v>
+      </c>
+      <c r="I50" s="5">
         <f t="shared" si="1"/>
         <v>268.01385309278356</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>125</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>341</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>342</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>54.160831208766602</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>9.0797744318790397</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>139</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>140</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>70343</v>
       </c>
@@ -7031,36 +7234,40 @@
         <f t="shared" si="0"/>
         <v>1.18</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>0.32503221649484537</v>
+      </c>
+      <c r="I51" s="5">
         <f t="shared" si="1"/>
         <v>325.03221649484539</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>125</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>346</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>347</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>52.956195920197203</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>8.2274223920978393</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>150</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>99</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>43581</v>
       </c>
@@ -7083,36 +7290,40 @@
         <f t="shared" si="0"/>
         <v>0.29699999999999999</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>8.1808956185567008E-2</v>
+      </c>
+      <c r="I52" s="5">
         <f t="shared" si="1"/>
         <v>81.808956185567013</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>172</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>351</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>352</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>53.403055981142501</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>8.1328158702132995</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>132</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>133</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>70297</v>
       </c>
@@ -7135,39 +7346,43 @@
         <f t="shared" si="0"/>
         <v>0.14699999999999999</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>4.0491301546391759E-2</v>
+      </c>
+      <c r="I53" s="5">
         <f t="shared" si="1"/>
         <v>40.49130154639176</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>240</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>356</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>187</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>53.6263046765485</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>8.0704225115173092</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>98</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>99</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="R53" t="s">
         <v>100</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>43366</v>
       </c>
@@ -7190,36 +7405,40 @@
         <f t="shared" si="0"/>
         <v>0.27200000000000002</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>7.4922680412371156E-2</v>
+      </c>
+      <c r="I54" s="5">
         <f t="shared" si="1"/>
         <v>74.92268041237115</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>219</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>360</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>97</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>52.977748722659399</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>7.3623602809325996</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>132</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>133</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>43561</v>
       </c>
@@ -7242,39 +7461,43 @@
         <f t="shared" si="0"/>
         <v>0.127</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>3.4982280927835056E-2</v>
+      </c>
+      <c r="I55" s="5">
         <f t="shared" si="1"/>
         <v>34.982280927835056</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>125</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>364</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>97</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>53.530684365046397</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>8.5467410445113607</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>150</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>99</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>151</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>43735</v>
       </c>
@@ -7297,36 +7520,40 @@
         <f t="shared" si="0"/>
         <v>0.28499999999999998</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>7.8503543814432988E-2</v>
+      </c>
+      <c r="I56" s="5">
         <f t="shared" si="1"/>
         <v>78.503543814432987</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>95</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>368</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>279</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>53.5478948752883</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>8.6180060058053893</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>107</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>108</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>43721</v>
       </c>
@@ -7349,36 +7576,40 @@
         <f t="shared" si="0"/>
         <v>2.92</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>0.80431701030927838</v>
+      </c>
+      <c r="I57" s="5">
         <f t="shared" si="1"/>
         <v>804.31701030927843</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>125</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>372</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>314</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>53.124930440425203</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>8.6867285296002308</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>252</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>253</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>73960</v>
       </c>
@@ -7401,39 +7632,43 @@
         <f t="shared" si="0"/>
         <v>0.54900000000000004</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>0.1512226159793815</v>
+      </c>
+      <c r="I58" s="5">
         <f t="shared" si="1"/>
         <v>151.22261597938149</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>125</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>372</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>314</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>53.124930440425203</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>8.6867285296002308</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>374</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>253</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>375</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>110171</v>
       </c>
@@ -7456,36 +7691,40 @@
         <f t="shared" si="0"/>
         <v>0.26900000000000002</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>7.4096327319587624E-2</v>
+      </c>
+      <c r="I59" s="5">
         <f t="shared" si="1"/>
         <v>74.09632731958763</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>378</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>379</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>380</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>53.124751404933903</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>8.7272131023140407</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>120</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>108</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>43505</v>
       </c>
@@ -7508,39 +7747,43 @@
         <f t="shared" si="0"/>
         <v>0.16500000000000001</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>4.5449420103092789E-2</v>
+      </c>
+      <c r="I60" s="5">
         <f t="shared" si="1"/>
         <v>45.449420103092791</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>125</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>384</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>97</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>52.978367373705403</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>10.5595538731268</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>180</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>181</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>182</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>43407</v>
       </c>
@@ -7563,36 +7806,40 @@
         <f t="shared" si="0"/>
         <v>0.246</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>6.7760953608247437E-2</v>
+      </c>
+      <c r="I61" s="5">
         <f t="shared" si="1"/>
         <v>67.760953608247434</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>95</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>388</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>389</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>52.4108236515819</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>9.8603980079154798</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>107</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>108</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>43479</v>
       </c>
@@ -7615,36 +7862,40 @@
         <f t="shared" si="0"/>
         <v>0.33100000000000002</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>9.1174291237113403E-2</v>
+      </c>
+      <c r="I62" s="5">
         <f t="shared" si="1"/>
         <v>91.174291237113408</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>219</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>393</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>97</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>51.985962565496003</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>9.8207632037041694</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>132</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>133</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>43484</v>
       </c>
@@ -7667,39 +7918,43 @@
         <f t="shared" si="0"/>
         <v>0.121</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>3.3329574742268046E-2</v>
+      </c>
+      <c r="I63" s="5">
         <f t="shared" si="1"/>
         <v>33.329574742268044</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>125</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>397</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>398</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>52.170904915907798</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>9.7950633215402494</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>180</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>181</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>182</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>43306</v>
       </c>
@@ -7722,36 +7977,40 @@
         <f t="shared" si="0"/>
         <v>0.16400000000000001</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>4.5173969072164949E-2</v>
+      </c>
+      <c r="I64" s="5">
         <f t="shared" si="1"/>
         <v>45.173969072164951</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>95</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>402</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>332</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>52.316356455016198</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>10.238186117918801</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>252</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>253</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>43428</v>
       </c>
@@ -7774,39 +8033,43 @@
         <f t="shared" si="0"/>
         <v>0.61699999999999999</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>0.16995328608247423</v>
+      </c>
+      <c r="I65" s="5">
         <f t="shared" si="1"/>
         <v>169.95328608247422</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>125</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>406</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>407</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>52.349831304100199</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>9.8859338711907707</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>167</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>168</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65" t="s">
         <v>169</v>
       </c>
-      <c r="R65" t="s">
+      <c r="S65" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>43455</v>
       </c>
@@ -7826,39 +8089,43 @@
         <v>416000000</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G129" si="2">F66/10^9</f>
+        <f t="shared" ref="G66:G129" si="3">F66/10^9</f>
         <v>0.41599999999999998</v>
       </c>
-      <c r="H66" s="5">
-        <f t="shared" ref="H66:H129" si="3">(G66/3.88*34.2*10^9)/(8000*3600)*0.9</f>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>0.1145876288659794</v>
+      </c>
+      <c r="I66" s="5">
+        <f t="shared" ref="I66:I129" si="4">(G66/3.88*34.2*10^9)/(8000*3600)*0.9</f>
         <v>114.5876288659794</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>172</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>411</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>97</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>52.098869427878</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>9.3883994113938503</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>107</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>108</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>44389</v>
       </c>
@@ -7878,42 +8145,46 @@
         <v>231000000</v>
       </c>
       <c r="G67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23100000000000001</v>
       </c>
-      <c r="H67" s="5">
-        <f t="shared" si="3"/>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="5">I67/1000</f>
+        <v>6.3629188144329912E-2</v>
+      </c>
+      <c r="I67" s="5">
+        <f t="shared" si="4"/>
         <v>63.629188144329916</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>125</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>415</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>279</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>51.698988473224198</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>8.7470409073864008</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>167</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>168</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67" t="s">
         <v>169</v>
       </c>
-      <c r="R67" t="s">
+      <c r="S67" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>44419</v>
       </c>
@@ -7933,39 +8204,43 @@
         <v>258000000</v>
       </c>
       <c r="G68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25800000000000001</v>
       </c>
-      <c r="H68" s="5">
-        <f t="shared" si="3"/>
+      <c r="H68">
+        <f t="shared" si="5"/>
+        <v>7.1066365979381443E-2</v>
+      </c>
+      <c r="I68" s="5">
+        <f t="shared" si="4"/>
         <v>71.066365979381445</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>95</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>419</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>420</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>51.915454926183003</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>8.4000246978093802</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>132</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>133</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>44435</v>
       </c>
@@ -7985,39 +8260,43 @@
         <v>388000000</v>
       </c>
       <c r="G69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38800000000000001</v>
       </c>
-      <c r="H69" s="5">
-        <f t="shared" si="3"/>
+      <c r="H69">
+        <f t="shared" si="5"/>
+        <v>0.10687500000000001</v>
+      </c>
+      <c r="I69" s="5">
+        <f t="shared" si="4"/>
         <v>106.87500000000001</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>95</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>424</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>314</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>52.042568657573199</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>8.6062566081345597</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>107</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>108</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>44820</v>
       </c>
@@ -8037,39 +8316,43 @@
         <v>217000000</v>
       </c>
       <c r="G70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.217</v>
       </c>
-      <c r="H70" s="5">
-        <f t="shared" si="3"/>
+      <c r="H70">
+        <f t="shared" si="5"/>
+        <v>5.9772873711340213E-2</v>
+      </c>
+      <c r="I70" s="5">
+        <f t="shared" si="4"/>
         <v>59.77287371134021</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>125</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>428</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>324</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>50.8189066798328</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>9.0111438573788902</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>429</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>253</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>44882</v>
       </c>
@@ -8089,39 +8372,43 @@
         <v>110000000</v>
       </c>
       <c r="G71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11</v>
       </c>
-      <c r="H71" s="5">
-        <f t="shared" si="3"/>
+      <c r="H71">
+        <f t="shared" si="5"/>
+        <v>3.0299613402061856E-2</v>
+      </c>
+      <c r="I71" s="5">
+        <f t="shared" si="4"/>
         <v>30.299613402061855</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>95</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>434</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>187</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>50.574941180031203</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>8.4892286862910797</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>252</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>253</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="R71" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>45027</v>
       </c>
@@ -8141,39 +8428,43 @@
         <v>196000000</v>
       </c>
       <c r="G72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19600000000000001</v>
       </c>
-      <c r="H72" s="5">
-        <f t="shared" si="3"/>
+      <c r="H72">
+        <f t="shared" si="5"/>
+        <v>5.3988402061855678E-2</v>
+      </c>
+      <c r="I72" s="5">
+        <f t="shared" si="4"/>
         <v>53.98840206185568</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>125</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>438</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>304</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>50.567510560429902</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>9.6816192592900698</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>132</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>133</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>45034</v>
       </c>
@@ -8193,42 +8484,46 @@
         <v>204000000</v>
       </c>
       <c r="G73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20399999999999999</v>
       </c>
-      <c r="H73" s="5">
-        <f t="shared" si="3"/>
+      <c r="H73">
+        <f t="shared" si="5"/>
+        <v>5.619201030927836E-2</v>
+      </c>
+      <c r="I73" s="5">
+        <f t="shared" si="4"/>
         <v>56.192010309278359</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>125</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>442</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>443</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>50.584524444772804</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>9.5095189265472406</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>167</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>168</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
         <v>169</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>189271</v>
       </c>
@@ -8248,39 +8543,43 @@
         <v>295000000</v>
       </c>
       <c r="G74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.29499999999999998</v>
       </c>
-      <c r="H74" s="5">
-        <f t="shared" si="3"/>
+      <c r="H74">
+        <f t="shared" si="5"/>
+        <v>8.1258054123711343E-2</v>
+      </c>
+      <c r="I74" s="5">
+        <f t="shared" si="4"/>
         <v>81.258054123711347</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>95</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>447</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>242</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>50.893299752155798</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>9.9981132715770098</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>107</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>108</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="R74" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>71806</v>
       </c>
@@ -8300,39 +8599,43 @@
         <v>214000000</v>
       </c>
       <c r="G75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.214</v>
       </c>
-      <c r="H75" s="5">
-        <f t="shared" si="3"/>
+      <c r="H75">
+        <f t="shared" si="5"/>
+        <v>5.8946520618556701E-2</v>
+      </c>
+      <c r="I75" s="5">
+        <f t="shared" si="4"/>
         <v>58.946520618556704</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>95</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>447</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>97</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>50.893588796566803</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>9.9958586092397095</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>449</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>168</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="R75" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>71805</v>
       </c>
@@ -8352,39 +8655,43 @@
         <v>282000000</v>
       </c>
       <c r="G76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28199999999999997</v>
       </c>
-      <c r="H76" s="5">
-        <f t="shared" si="3"/>
+      <c r="H76">
+        <f t="shared" si="5"/>
+        <v>7.7677190721649483E-2</v>
+      </c>
+      <c r="I76" s="5">
+        <f t="shared" si="4"/>
         <v>77.677190721649481</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>95</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>454</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>166</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>50.839191445937999</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>9.9808527457531309</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>449</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>168</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="R76" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>73702</v>
       </c>
@@ -8404,39 +8711,43 @@
         <v>142000000</v>
       </c>
       <c r="G77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14199999999999999</v>
       </c>
-      <c r="H77" s="5">
-        <f t="shared" si="3"/>
+      <c r="H77">
+        <f t="shared" si="5"/>
+        <v>3.9114046391752574E-2</v>
+      </c>
+      <c r="I77" s="5">
+        <f t="shared" si="4"/>
         <v>39.114046391752574</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>95</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>458</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>166</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>50.812188264295202</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>9.9772920431167496</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>449</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>168</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="R77" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>110279</v>
       </c>
@@ -8456,39 +8767,43 @@
         <v>374000000</v>
       </c>
       <c r="G78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.374</v>
       </c>
-      <c r="H78" s="5">
-        <f t="shared" si="3"/>
+      <c r="H78">
+        <f t="shared" si="5"/>
+        <v>0.10301868556701033</v>
+      </c>
+      <c r="I78" s="5">
+        <f t="shared" si="4"/>
         <v>103.01868556701032</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>219</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>462</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>463</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>51.3180987716012</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>9.8491974316904702</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>107</v>
       </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
         <v>108</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="R78" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>47048</v>
       </c>
@@ -8508,42 +8823,46 @@
         <v>1020000000</v>
       </c>
       <c r="G79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.02</v>
       </c>
-      <c r="H79" s="5">
-        <f t="shared" si="3"/>
+      <c r="H79">
+        <f t="shared" si="5"/>
+        <v>0.28096005154639181</v>
+      </c>
+      <c r="I79" s="5">
+        <f t="shared" si="4"/>
         <v>280.96005154639181</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>125</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>467</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>468</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>51.362759732841099</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>10.483568267980599</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>167</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>168</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="R79" t="s">
         <v>169</v>
       </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>43283</v>
       </c>
@@ -8563,39 +8882,43 @@
         <v>7430000000</v>
       </c>
       <c r="G80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.43</v>
       </c>
-      <c r="H80" s="5">
-        <f t="shared" si="3"/>
+      <c r="H80">
+        <f t="shared" si="5"/>
+        <v>2.0466011597938145</v>
+      </c>
+      <c r="I80" s="5">
+        <f t="shared" si="4"/>
         <v>2046.6011597938145</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>95</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>472</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>473</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>52.154764924298803</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>10.4030753147256</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>252</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>253</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="R80" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>43257</v>
       </c>
@@ -8615,39 +8938,43 @@
         <v>447000000</v>
       </c>
       <c r="G81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44700000000000001</v>
       </c>
-      <c r="H81" s="5">
-        <f t="shared" si="3"/>
+      <c r="H81">
+        <f t="shared" si="5"/>
+        <v>0.1231266108247423</v>
+      </c>
+      <c r="I81" s="5">
+        <f t="shared" si="4"/>
         <v>123.1266108247423</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>95</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>477</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>337</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>52.170050085929297</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>10.9777511752996</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>107</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
         <v>108</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>43298</v>
       </c>
@@ -8667,42 +8994,46 @@
         <v>336000000</v>
       </c>
       <c r="G82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33600000000000002</v>
       </c>
-      <c r="H82" s="5">
-        <f t="shared" si="3"/>
+      <c r="H82">
+        <f t="shared" si="5"/>
+        <v>9.2551546391752615E-2</v>
+      </c>
+      <c r="I82" s="5">
+        <f t="shared" si="4"/>
         <v>92.551546391752609</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>125</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>481</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>482</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>51.843585147378299</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>10.1908974492968</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>167</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>168</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="R82" t="s">
         <v>169</v>
       </c>
-      <c r="R82" t="s">
+      <c r="S82" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>46988</v>
       </c>
@@ -8722,42 +9053,46 @@
         <v>458000000</v>
       </c>
       <c r="G83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45800000000000002</v>
       </c>
-      <c r="H83" s="5">
-        <f t="shared" si="3"/>
+      <c r="H83">
+        <f t="shared" si="5"/>
+        <v>0.12615657216494847</v>
+      </c>
+      <c r="I83" s="5">
+        <f t="shared" si="4"/>
         <v>126.15657216494847</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>125</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>486</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>149</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>51.770605401066497</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>10.834020408372799</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>167</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>168</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="R83" t="s">
         <v>169</v>
       </c>
-      <c r="R83" t="s">
+      <c r="S83" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>46989</v>
       </c>
@@ -8777,42 +9112,46 @@
         <v>197000000</v>
       </c>
       <c r="G84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19700000000000001</v>
       </c>
-      <c r="H84" s="5">
-        <f t="shared" si="3"/>
+      <c r="H84">
+        <f t="shared" si="5"/>
+        <v>5.4263853092783518E-2</v>
+      </c>
+      <c r="I84" s="5">
+        <f t="shared" si="4"/>
         <v>54.263853092783521</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>125</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>488</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>97</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>51.759997649476396</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>10.7639040421949</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
         <v>167</v>
       </c>
-      <c r="P84" t="s">
+      <c r="Q84" t="s">
         <v>168</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="R84" t="s">
         <v>169</v>
       </c>
-      <c r="R84" t="s">
+      <c r="S84" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>46987</v>
       </c>
@@ -8832,42 +9171,46 @@
         <v>262000000</v>
       </c>
       <c r="G85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26200000000000001</v>
       </c>
-      <c r="H85" s="5">
-        <f t="shared" si="3"/>
+      <c r="H85">
+        <f t="shared" si="5"/>
+        <v>7.2168170103092802E-2</v>
+      </c>
+      <c r="I85" s="5">
+        <f t="shared" si="4"/>
         <v>72.168170103092805</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>125</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>492</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>493</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>51.753007285927197</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>10.827671198259599</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>167</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
         <v>168</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="R85" t="s">
         <v>169</v>
       </c>
-      <c r="R85" t="s">
+      <c r="S85" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>46915</v>
       </c>
@@ -8887,42 +9230,46 @@
         <v>121000000</v>
       </c>
       <c r="G86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.121</v>
       </c>
-      <c r="H86" s="5">
-        <f t="shared" si="3"/>
+      <c r="H86">
+        <f t="shared" si="5"/>
+        <v>3.3329574742268046E-2</v>
+      </c>
+      <c r="I86" s="5">
+        <f t="shared" si="4"/>
         <v>33.329574742268044</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>125</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>497</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>498</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <v>52.074240164089403</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>11.385188940936301</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>180</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>181</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86" t="s">
         <v>182</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>74832</v>
       </c>
@@ -8942,39 +9289,43 @@
         <v>143000000</v>
       </c>
       <c r="G87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14299999999999999</v>
       </c>
-      <c r="H87" s="5">
-        <f t="shared" si="3"/>
+      <c r="H87">
+        <f t="shared" si="5"/>
+        <v>3.9389497422680421E-2</v>
+      </c>
+      <c r="I87" s="5">
+        <f t="shared" si="4"/>
         <v>39.389497422680421</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>231</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>502</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>503</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <v>52.057572158152198</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>11.580779610431501</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>207</v>
       </c>
-      <c r="P87" t="s">
+      <c r="Q87" t="s">
         <v>168</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="R87" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>46986</v>
       </c>
@@ -8994,39 +9345,43 @@
         <v>255000000</v>
       </c>
       <c r="G88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.255</v>
       </c>
-      <c r="H88" s="5">
-        <f t="shared" si="3"/>
+      <c r="H88">
+        <f t="shared" si="5"/>
+        <v>7.0240012886597952E-2</v>
+      </c>
+      <c r="I88" s="5">
+        <f t="shared" si="4"/>
         <v>70.240012886597953</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>95</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>507</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>508</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>52.298529632007302</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>11.6792321844038</v>
       </c>
-      <c r="O88" t="s">
+      <c r="P88" t="s">
         <v>449</v>
       </c>
-      <c r="P88" t="s">
+      <c r="Q88" t="s">
         <v>168</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>46849</v>
       </c>
@@ -9046,39 +9401,43 @@
         <v>119000000</v>
       </c>
       <c r="G89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11899999999999999</v>
       </c>
-      <c r="H89" s="5">
-        <f t="shared" si="3"/>
+      <c r="H89">
+        <f t="shared" si="5"/>
+        <v>3.2778672680412367E-2</v>
+      </c>
+      <c r="I89" s="5">
+        <f t="shared" si="4"/>
         <v>32.77867268041237</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>231</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>512</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>513</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <v>52.274424658412698</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>11.440183092722201</v>
       </c>
-      <c r="O89" t="s">
+      <c r="P89" t="s">
         <v>207</v>
       </c>
-      <c r="P89" t="s">
+      <c r="Q89" t="s">
         <v>168</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="R89" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>46947</v>
       </c>
@@ -9098,42 +9457,46 @@
         <v>196000000</v>
       </c>
       <c r="G90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19600000000000001</v>
       </c>
-      <c r="H90" s="5">
-        <f t="shared" si="3"/>
+      <c r="H90">
+        <f t="shared" si="5"/>
+        <v>5.3988402061855678E-2</v>
+      </c>
+      <c r="I90" s="5">
+        <f t="shared" si="4"/>
         <v>53.98840206185568</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>172</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>517</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>493</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <v>51.889718501090897</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>11.564549152354999</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
         <v>150</v>
       </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
         <v>99</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="R90" t="s">
         <v>151</v>
       </c>
-      <c r="R90" t="s">
+      <c r="S90" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>46977</v>
       </c>
@@ -9153,39 +9516,43 @@
         <v>1950000000</v>
       </c>
       <c r="G91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.95</v>
       </c>
-      <c r="H91" s="5">
-        <f t="shared" si="3"/>
+      <c r="H91">
+        <f t="shared" si="5"/>
+        <v>0.53712951030927847</v>
+      </c>
+      <c r="I91" s="5">
+        <f t="shared" si="4"/>
         <v>537.12951030927843</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>125</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>522</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>97</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>52.690618245051901</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>11.985898328142801</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P91" t="s">
         <v>523</v>
       </c>
-      <c r="P91" t="s">
+      <c r="Q91" t="s">
         <v>133</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="R91" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>43878</v>
       </c>
@@ -9205,39 +9572,43 @@
         <v>391000000</v>
       </c>
       <c r="G92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.39100000000000001</v>
       </c>
-      <c r="H92" s="5">
-        <f t="shared" si="3"/>
+      <c r="H92">
+        <f t="shared" si="5"/>
+        <v>0.10770135309278352</v>
+      </c>
+      <c r="I92" s="5">
+        <f t="shared" si="4"/>
         <v>107.70135309278352</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>95</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>528</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>187</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>51.2256732427172</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>6.8230018785117901</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
         <v>107</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" t="s">
         <v>108</v>
       </c>
-      <c r="Q92" t="s">
+      <c r="R92" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>43784</v>
       </c>
@@ -9257,42 +9628,46 @@
         <v>306000000</v>
       </c>
       <c r="G93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30599999999999999</v>
       </c>
-      <c r="H93" s="5">
-        <f t="shared" si="3"/>
+      <c r="H93">
+        <f t="shared" si="5"/>
+        <v>8.4288015463917523E-2</v>
+      </c>
+      <c r="I93" s="5">
+        <f t="shared" si="4"/>
         <v>84.288015463917517</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>95</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>532</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>533</v>
       </c>
-      <c r="M93">
+      <c r="N93">
         <v>51.148876549974901</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <v>6.7818334370016498</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>273</v>
       </c>
-      <c r="P93" t="s">
+      <c r="Q93" t="s">
         <v>253</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="R93" t="s">
         <v>274</v>
       </c>
-      <c r="R93" t="s">
+      <c r="S93" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>43804</v>
       </c>
@@ -9312,42 +9687,46 @@
         <v>151000000</v>
       </c>
       <c r="G94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.151</v>
       </c>
-      <c r="H94" s="5">
-        <f t="shared" si="3"/>
+      <c r="H94">
+        <f t="shared" si="5"/>
+        <v>4.1593105670103089E-2</v>
+      </c>
+      <c r="I94" s="5">
+        <f t="shared" si="4"/>
         <v>41.593105670103093</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>95</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>532</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>535</v>
       </c>
-      <c r="M94">
+      <c r="N94">
         <v>51.150489726469402</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <v>6.7697156550606001</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>273</v>
       </c>
-      <c r="P94" t="s">
+      <c r="Q94" t="s">
         <v>253</v>
       </c>
-      <c r="Q94" t="s">
+      <c r="R94" t="s">
         <v>274</v>
       </c>
-      <c r="R94" t="s">
+      <c r="S94" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>44199</v>
       </c>
@@ -9367,39 +9746,43 @@
         <v>104000000</v>
       </c>
       <c r="G95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.104</v>
       </c>
-      <c r="H95" s="5">
-        <f t="shared" si="3"/>
+      <c r="H95">
+        <f t="shared" si="5"/>
+        <v>2.8646907216494849E-2</v>
+      </c>
+      <c r="I95" s="5">
+        <f t="shared" si="4"/>
         <v>28.646907216494849</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>125</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>540</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>166</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>51.075230015744197</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>6.8376670305999898</v>
       </c>
-      <c r="O95" t="s">
+      <c r="P95" t="s">
         <v>120</v>
       </c>
-      <c r="P95" t="s">
+      <c r="Q95" t="s">
         <v>108</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="R95" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>43913</v>
       </c>
@@ -9419,42 +9802,46 @@
         <v>261000000</v>
       </c>
       <c r="G96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26100000000000001</v>
       </c>
-      <c r="H96" s="5">
-        <f t="shared" si="3"/>
+      <c r="H96">
+        <f t="shared" si="5"/>
+        <v>7.1892719072164962E-2</v>
+      </c>
+      <c r="I96" s="5">
+        <f t="shared" si="4"/>
         <v>71.892719072164965</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>231</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>544</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>119</v>
       </c>
-      <c r="M96">
+      <c r="N96">
         <v>51.248148796489602</v>
       </c>
-      <c r="N96">
+      <c r="O96">
         <v>7.0419022305934398</v>
       </c>
-      <c r="O96" t="s">
+      <c r="P96" t="s">
         <v>167</v>
       </c>
-      <c r="P96" t="s">
+      <c r="Q96" t="s">
         <v>168</v>
       </c>
-      <c r="Q96" t="s">
+      <c r="R96" t="s">
         <v>169</v>
       </c>
-      <c r="R96" t="s">
+      <c r="S96" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>43794</v>
       </c>
@@ -9474,39 +9861,43 @@
         <v>366000000</v>
       </c>
       <c r="G97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.36599999999999999</v>
       </c>
-      <c r="H97" s="5">
-        <f t="shared" si="3"/>
+      <c r="H97">
+        <f t="shared" si="5"/>
+        <v>0.10081507731958762</v>
+      </c>
+      <c r="I97" s="5">
+        <f t="shared" si="4"/>
         <v>100.81507731958763</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>95</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>547</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>324</v>
       </c>
-      <c r="M97">
+      <c r="N97">
         <v>51.225305484450701</v>
       </c>
-      <c r="N97">
+      <c r="O97">
         <v>7.1428134681541202</v>
       </c>
-      <c r="O97" t="s">
+      <c r="P97" t="s">
         <v>107</v>
       </c>
-      <c r="P97" t="s">
+      <c r="Q97" t="s">
         <v>108</v>
       </c>
-      <c r="Q97" t="s">
+      <c r="R97" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>43842</v>
       </c>
@@ -9526,42 +9917,46 @@
         <v>2040000000</v>
       </c>
       <c r="G98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.04</v>
       </c>
-      <c r="H98" s="5">
-        <f t="shared" si="3"/>
+      <c r="H98">
+        <f t="shared" si="5"/>
+        <v>0.56192010309278362</v>
+      </c>
+      <c r="I98" s="5">
+        <f t="shared" si="4"/>
         <v>561.92010309278362</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>125</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>551</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>97</v>
       </c>
-      <c r="M98">
+      <c r="N98">
         <v>51.280036222747803</v>
       </c>
-      <c r="N98">
+      <c r="O98">
         <v>7.0224928790346599</v>
       </c>
-      <c r="O98" t="s">
+      <c r="P98" t="s">
         <v>167</v>
       </c>
-      <c r="P98" t="s">
+      <c r="Q98" t="s">
         <v>168</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="R98" t="s">
         <v>169</v>
       </c>
-      <c r="R98" t="s">
+      <c r="S98" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>44733</v>
       </c>
@@ -9581,42 +9976,46 @@
         <v>175000000</v>
       </c>
       <c r="G99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="H99" s="5">
-        <f t="shared" si="3"/>
+      <c r="H99">
+        <f t="shared" si="5"/>
+        <v>4.8203930412371136E-2</v>
+      </c>
+      <c r="I99" s="5">
+        <f t="shared" si="4"/>
         <v>48.203930412371136</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>125</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" t="s">
         <v>555</v>
       </c>
-      <c r="L99" t="s">
+      <c r="M99" t="s">
         <v>556</v>
       </c>
-      <c r="M99">
+      <c r="N99">
         <v>51.606590820621598</v>
       </c>
-      <c r="N99">
+      <c r="O99">
         <v>7.5080344543893496</v>
       </c>
-      <c r="O99" t="s">
+      <c r="P99" t="s">
         <v>273</v>
       </c>
-      <c r="P99" t="s">
+      <c r="Q99" t="s">
         <v>253</v>
       </c>
-      <c r="Q99" t="s">
+      <c r="R99" t="s">
         <v>274</v>
       </c>
-      <c r="R99" t="s">
+      <c r="S99" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>44799</v>
       </c>
@@ -9636,39 +10035,43 @@
         <v>210000000</v>
       </c>
       <c r="G100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21</v>
       </c>
-      <c r="H100" s="5">
-        <f t="shared" si="3"/>
+      <c r="H100">
+        <f t="shared" si="5"/>
+        <v>5.784471649484537E-2</v>
+      </c>
+      <c r="I100" s="5">
+        <f t="shared" si="4"/>
         <v>57.844716494845372</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>219</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>560</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>309</v>
       </c>
-      <c r="M100">
+      <c r="N100">
         <v>51.621933920494101</v>
       </c>
-      <c r="N100">
+      <c r="O100">
         <v>7.4691040532013604</v>
       </c>
-      <c r="O100" t="s">
+      <c r="P100" t="s">
         <v>120</v>
       </c>
-      <c r="P100" t="s">
+      <c r="Q100" t="s">
         <v>108</v>
       </c>
-      <c r="Q100" t="s">
+      <c r="R100" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>44746</v>
       </c>
@@ -9688,42 +10091,46 @@
         <v>237000000</v>
       </c>
       <c r="G101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23699999999999999</v>
       </c>
-      <c r="H101" s="5">
-        <f t="shared" si="3"/>
+      <c r="H101">
+        <f t="shared" si="5"/>
+        <v>6.5281894329896908E-2</v>
+      </c>
+      <c r="I101" s="5">
+        <f t="shared" si="4"/>
         <v>65.281894329896915</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>95</v>
       </c>
-      <c r="K101" t="s">
+      <c r="L101" t="s">
         <v>564</v>
       </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
         <v>565</v>
       </c>
-      <c r="M101">
+      <c r="N101">
         <v>51.475520052455103</v>
       </c>
-      <c r="N101">
+      <c r="O101">
         <v>7.1710012768508999</v>
       </c>
-      <c r="O101" t="s">
+      <c r="P101" t="s">
         <v>374</v>
       </c>
-      <c r="P101" t="s">
+      <c r="Q101" t="s">
         <v>253</v>
       </c>
-      <c r="Q101" t="s">
+      <c r="R101" t="s">
         <v>375</v>
       </c>
-      <c r="R101" t="s">
+      <c r="S101" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>43815</v>
       </c>
@@ -9743,39 +10150,43 @@
         <v>619000000</v>
       </c>
       <c r="G102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61899999999999999</v>
       </c>
-      <c r="H102" s="5">
-        <f t="shared" si="3"/>
+      <c r="H102">
+        <f t="shared" si="5"/>
+        <v>0.17050418814432994</v>
+      </c>
+      <c r="I102" s="5">
+        <f t="shared" si="4"/>
         <v>170.50418814432993</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>240</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>569</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
         <v>570</v>
       </c>
-      <c r="M102">
+      <c r="N102">
         <v>51.515430511376699</v>
       </c>
-      <c r="N102">
+      <c r="O102">
         <v>7.0002632482255498</v>
       </c>
-      <c r="O102" t="s">
+      <c r="P102" t="s">
         <v>107</v>
       </c>
-      <c r="P102" t="s">
+      <c r="Q102" t="s">
         <v>108</v>
       </c>
-      <c r="Q102" t="s">
+      <c r="R102" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>43860</v>
       </c>
@@ -9795,42 +10206,46 @@
         <v>268000000</v>
       </c>
       <c r="G103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26800000000000002</v>
       </c>
-      <c r="H103" s="5">
-        <f t="shared" si="3"/>
+      <c r="H103">
+        <f t="shared" si="5"/>
+        <v>7.3820876288659798E-2</v>
+      </c>
+      <c r="I103" s="5">
+        <f t="shared" si="4"/>
         <v>73.820876288659804</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>125</v>
       </c>
-      <c r="K103" t="s">
+      <c r="L103" t="s">
         <v>573</v>
       </c>
-      <c r="L103" t="s">
+      <c r="M103" t="s">
         <v>97</v>
       </c>
-      <c r="M103">
+      <c r="N103">
         <v>51.490049173793203</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <v>6.96816974780881</v>
       </c>
-      <c r="O103" t="s">
+      <c r="P103" t="s">
         <v>273</v>
       </c>
-      <c r="P103" t="s">
+      <c r="Q103" t="s">
         <v>253</v>
       </c>
-      <c r="Q103" t="s">
+      <c r="R103" t="s">
         <v>274</v>
       </c>
-      <c r="R103" t="s">
+      <c r="S103" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>71068</v>
       </c>
@@ -9850,39 +10265,43 @@
         <v>669000000</v>
       </c>
       <c r="G104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66900000000000004</v>
       </c>
-      <c r="H104" s="5">
-        <f t="shared" si="3"/>
+      <c r="H104">
+        <f t="shared" si="5"/>
+        <v>0.18427673969072172</v>
+      </c>
+      <c r="I104" s="5">
+        <f t="shared" si="4"/>
         <v>184.27673969072171</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>95</v>
       </c>
-      <c r="K104" t="s">
+      <c r="L104" t="s">
         <v>577</v>
       </c>
-      <c r="L104" t="s">
+      <c r="M104" t="s">
         <v>233</v>
       </c>
-      <c r="M104">
+      <c r="N104">
         <v>51.556516147920597</v>
       </c>
-      <c r="N104">
+      <c r="O104">
         <v>7.1634255625210796</v>
       </c>
-      <c r="O104" t="s">
+      <c r="P104" t="s">
         <v>107</v>
       </c>
-      <c r="P104" t="s">
+      <c r="Q104" t="s">
         <v>108</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="R104" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>44323</v>
       </c>
@@ -9902,42 +10321,46 @@
         <v>2630000000</v>
       </c>
       <c r="G105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.63</v>
       </c>
-      <c r="H105" s="5">
-        <f t="shared" si="3"/>
+      <c r="H105">
+        <f t="shared" si="5"/>
+        <v>0.72443621134020619</v>
+      </c>
+      <c r="I105" s="5">
+        <f t="shared" si="4"/>
         <v>724.43621134020623</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>125</v>
       </c>
-      <c r="K105" t="s">
+      <c r="L105" t="s">
         <v>581</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>97</v>
       </c>
-      <c r="M105">
+      <c r="N105">
         <v>51.6783861500897</v>
       </c>
-      <c r="N105">
+      <c r="O105">
         <v>7.10303987874825</v>
       </c>
-      <c r="O105" t="s">
+      <c r="P105" t="s">
         <v>98</v>
       </c>
-      <c r="P105" t="s">
+      <c r="Q105" t="s">
         <v>99</v>
       </c>
-      <c r="Q105" t="s">
+      <c r="R105" t="s">
         <v>100</v>
       </c>
-      <c r="R105" t="s">
+      <c r="S105" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>74041</v>
       </c>
@@ -9957,39 +10380,43 @@
         <v>3240000000</v>
       </c>
       <c r="G106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.24</v>
       </c>
-      <c r="H106" s="5">
-        <f t="shared" si="3"/>
+      <c r="H106">
+        <f t="shared" si="5"/>
+        <v>0.89246134020618573</v>
+      </c>
+      <c r="I106" s="5">
+        <f t="shared" si="4"/>
         <v>892.4613402061857</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>95</v>
       </c>
-      <c r="K106" t="s">
+      <c r="L106" t="s">
         <v>585</v>
       </c>
-      <c r="L106" t="s">
+      <c r="M106" t="s">
         <v>314</v>
       </c>
-      <c r="M106">
+      <c r="N106">
         <v>51.596032751296597</v>
       </c>
-      <c r="N106">
+      <c r="O106">
         <v>7.0289085057205503</v>
       </c>
-      <c r="O106" t="s">
+      <c r="P106" t="s">
         <v>139</v>
       </c>
-      <c r="P106" t="s">
+      <c r="Q106" t="s">
         <v>140</v>
       </c>
-      <c r="Q106" t="s">
+      <c r="R106" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>44246</v>
       </c>
@@ -10009,39 +10436,43 @@
         <v>1150000000</v>
       </c>
       <c r="G107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="H107" s="5">
-        <f t="shared" si="3"/>
+      <c r="H107">
+        <f t="shared" si="5"/>
+        <v>0.31676868556701038</v>
+      </c>
+      <c r="I107" s="5">
+        <f t="shared" si="4"/>
         <v>316.76868556701038</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>95</v>
       </c>
-      <c r="K107" t="s">
+      <c r="L107" t="s">
         <v>588</v>
       </c>
-      <c r="L107" t="s">
+      <c r="M107" t="s">
         <v>589</v>
       </c>
-      <c r="M107">
+      <c r="N107">
         <v>51.539606950462897</v>
       </c>
-      <c r="N107">
+      <c r="O107">
         <v>7.0372028437951704</v>
       </c>
-      <c r="O107" t="s">
+      <c r="P107" t="s">
         <v>139</v>
       </c>
-      <c r="P107" t="s">
+      <c r="Q107" t="s">
         <v>140</v>
       </c>
-      <c r="Q107" t="s">
+      <c r="R107" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>44302</v>
       </c>
@@ -10061,39 +10492,43 @@
         <v>237000000</v>
       </c>
       <c r="G108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23699999999999999</v>
       </c>
-      <c r="H108" s="5">
-        <f t="shared" si="3"/>
+      <c r="H108">
+        <f t="shared" si="5"/>
+        <v>6.5281894329896908E-2</v>
+      </c>
+      <c r="I108" s="5">
+        <f t="shared" si="4"/>
         <v>65.281894329896915</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>231</v>
       </c>
-      <c r="K108" t="s">
+      <c r="L108" t="s">
         <v>593</v>
       </c>
-      <c r="L108" t="s">
+      <c r="M108" t="s">
         <v>594</v>
       </c>
-      <c r="M108">
+      <c r="N108">
         <v>51.566233019693797</v>
       </c>
-      <c r="N108">
+      <c r="O108">
         <v>6.9334189678928402</v>
       </c>
-      <c r="O108" t="s">
+      <c r="P108" t="s">
         <v>207</v>
       </c>
-      <c r="P108" t="s">
+      <c r="Q108" t="s">
         <v>168</v>
       </c>
-      <c r="Q108" t="s">
+      <c r="R108" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>43884</v>
       </c>
@@ -10113,39 +10548,43 @@
         <v>699000000</v>
       </c>
       <c r="G109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.69899999999999995</v>
       </c>
-      <c r="H109" s="5">
-        <f t="shared" si="3"/>
+      <c r="H109">
+        <f t="shared" si="5"/>
+        <v>0.19254027061855672</v>
+      </c>
+      <c r="I109" s="5">
+        <f t="shared" si="4"/>
         <v>192.54027061855672</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>95</v>
       </c>
-      <c r="K109" t="s">
+      <c r="L109" t="s">
         <v>598</v>
       </c>
-      <c r="L109" t="s">
+      <c r="M109" t="s">
         <v>599</v>
       </c>
-      <c r="M109">
+      <c r="N109">
         <v>51.484451559785299</v>
       </c>
-      <c r="N109">
+      <c r="O109">
         <v>6.8333538090073098</v>
       </c>
-      <c r="O109" t="s">
+      <c r="P109" t="s">
         <v>107</v>
       </c>
-      <c r="P109" t="s">
+      <c r="Q109" t="s">
         <v>108</v>
       </c>
-      <c r="Q109" t="s">
+      <c r="R109" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>43942</v>
       </c>
@@ -10165,39 +10604,43 @@
         <v>171000000</v>
       </c>
       <c r="G110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17100000000000001</v>
       </c>
-      <c r="H110" s="5">
-        <f t="shared" si="3"/>
+      <c r="H110">
+        <f t="shared" si="5"/>
+        <v>4.7102126288659799E-2</v>
+      </c>
+      <c r="I110" s="5">
+        <f t="shared" si="4"/>
         <v>47.102126288659797</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>125</v>
       </c>
-      <c r="K110" t="s">
+      <c r="L110" t="s">
         <v>602</v>
       </c>
-      <c r="L110" t="s">
+      <c r="M110" t="s">
         <v>242</v>
       </c>
-      <c r="M110">
+      <c r="N110">
         <v>51.525502736517801</v>
       </c>
-      <c r="N110">
+      <c r="O110">
         <v>6.7984479320254199</v>
       </c>
-      <c r="O110" t="s">
+      <c r="P110" t="s">
         <v>98</v>
       </c>
-      <c r="P110" t="s">
+      <c r="Q110" t="s">
         <v>99</v>
       </c>
-      <c r="Q110" t="s">
+      <c r="R110" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>157889</v>
       </c>
@@ -10217,39 +10660,43 @@
         <v>378000000</v>
       </c>
       <c r="G111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.378</v>
       </c>
-      <c r="H111" s="5">
-        <f t="shared" si="3"/>
+      <c r="H111">
+        <f t="shared" si="5"/>
+        <v>0.10412048969072166</v>
+      </c>
+      <c r="I111" s="5">
+        <f t="shared" si="4"/>
         <v>104.12048969072166</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>261</v>
       </c>
-      <c r="K111" t="s">
+      <c r="L111" t="s">
         <v>606</v>
       </c>
-      <c r="L111" t="s">
+      <c r="M111" t="s">
         <v>607</v>
       </c>
-      <c r="M111">
+      <c r="N111">
         <v>51.518231572785702</v>
       </c>
-      <c r="N111">
+      <c r="O111">
         <v>6.9732722257249904</v>
       </c>
-      <c r="O111" t="s">
+      <c r="P111" t="s">
         <v>608</v>
       </c>
-      <c r="P111" t="s">
+      <c r="Q111" t="s">
         <v>140</v>
       </c>
-      <c r="Q111" t="s">
+      <c r="R111" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>43870</v>
       </c>
@@ -10269,42 +10716,46 @@
         <v>158000000</v>
       </c>
       <c r="G112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.158</v>
       </c>
-      <c r="H112" s="5">
-        <f t="shared" si="3"/>
+      <c r="H112">
+        <f t="shared" si="5"/>
+        <v>4.3521262886597946E-2</v>
+      </c>
+      <c r="I112" s="5">
+        <f t="shared" si="4"/>
         <v>43.521262886597945</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>125</v>
       </c>
-      <c r="K112" t="s">
+      <c r="L112" t="s">
         <v>613</v>
       </c>
-      <c r="L112" t="s">
+      <c r="M112" t="s">
         <v>233</v>
       </c>
-      <c r="M112">
+      <c r="N112">
         <v>51.6255360467961</v>
       </c>
-      <c r="N112">
+      <c r="O112">
         <v>6.6154085570687</v>
       </c>
-      <c r="O112" t="s">
+      <c r="P112" t="s">
         <v>273</v>
       </c>
-      <c r="P112" t="s">
+      <c r="Q112" t="s">
         <v>253</v>
       </c>
-      <c r="Q112" t="s">
+      <c r="R112" t="s">
         <v>274</v>
       </c>
-      <c r="R112" t="s">
+      <c r="S112" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>43872</v>
       </c>
@@ -10324,39 +10775,43 @@
         <v>568000000</v>
       </c>
       <c r="G113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56799999999999995</v>
       </c>
-      <c r="H113" s="5">
-        <f t="shared" si="3"/>
+      <c r="H113">
+        <f t="shared" si="5"/>
+        <v>0.1564561855670103</v>
+      </c>
+      <c r="I113" s="5">
+        <f t="shared" si="4"/>
         <v>156.45618556701029</v>
       </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
         <v>125</v>
       </c>
-      <c r="K113" t="s">
+      <c r="L113" t="s">
         <v>617</v>
       </c>
-      <c r="L113" t="s">
+      <c r="M113" t="s">
         <v>618</v>
       </c>
-      <c r="M113">
+      <c r="N113">
         <v>51.422282975055403</v>
       </c>
-      <c r="N113">
+      <c r="O113">
         <v>6.7419912778190003</v>
       </c>
-      <c r="O113" t="s">
+      <c r="P113" t="s">
         <v>252</v>
       </c>
-      <c r="P113" t="s">
+      <c r="Q113" t="s">
         <v>253</v>
       </c>
-      <c r="Q113" t="s">
+      <c r="R113" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>43938</v>
       </c>
@@ -10376,39 +10831,43 @@
         <v>243000000</v>
       </c>
       <c r="G114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24299999999999999</v>
       </c>
-      <c r="H114" s="5">
-        <f t="shared" si="3"/>
+      <c r="H114">
+        <f t="shared" si="5"/>
+        <v>6.6934600515463932E-2</v>
+      </c>
+      <c r="I114" s="5">
+        <f t="shared" si="4"/>
         <v>66.934600515463927</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>95</v>
       </c>
-      <c r="K114" t="s">
+      <c r="L114" t="s">
         <v>621</v>
       </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
         <v>622</v>
       </c>
-      <c r="M114">
+      <c r="N114">
         <v>51.460831804252898</v>
       </c>
-      <c r="N114">
+      <c r="O114">
         <v>6.74917290245173</v>
       </c>
-      <c r="O114" t="s">
+      <c r="P114" t="s">
         <v>252</v>
       </c>
-      <c r="P114" t="s">
+      <c r="Q114" t="s">
         <v>253</v>
       </c>
-      <c r="Q114" t="s">
+      <c r="R114" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>43818</v>
       </c>
@@ -10428,39 +10887,43 @@
         <v>4870000000</v>
       </c>
       <c r="G115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.87</v>
       </c>
-      <c r="H115" s="5">
-        <f t="shared" si="3"/>
+      <c r="H115">
+        <f t="shared" si="5"/>
+        <v>1.3414465206185568</v>
+      </c>
+      <c r="I115" s="5">
+        <f t="shared" si="4"/>
         <v>1341.4465206185569</v>
       </c>
-      <c r="I115" t="s">
+      <c r="J115" t="s">
         <v>95</v>
       </c>
-      <c r="K115" t="s">
+      <c r="L115" t="s">
         <v>625</v>
       </c>
-      <c r="L115" t="s">
+      <c r="M115" t="s">
         <v>626</v>
       </c>
-      <c r="M115">
+      <c r="N115">
         <v>51.503690300069401</v>
       </c>
-      <c r="N115">
+      <c r="O115">
         <v>6.7359074837084698</v>
       </c>
-      <c r="O115" t="s">
+      <c r="P115" t="s">
         <v>252</v>
       </c>
-      <c r="P115" t="s">
+      <c r="Q115" t="s">
         <v>253</v>
       </c>
-      <c r="Q115" t="s">
+      <c r="R115" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>43941</v>
       </c>
@@ -10480,39 +10943,43 @@
         <v>2000000000</v>
       </c>
       <c r="G116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H116" s="5">
-        <f t="shared" si="3"/>
+      <c r="H116">
+        <f t="shared" si="5"/>
+        <v>0.55090206185567026</v>
+      </c>
+      <c r="I116" s="5">
+        <f t="shared" si="4"/>
         <v>550.90206185567024</v>
       </c>
-      <c r="I116" t="s">
+      <c r="J116" t="s">
         <v>95</v>
       </c>
-      <c r="K116" t="s">
+      <c r="L116" t="s">
         <v>628</v>
       </c>
-      <c r="L116" t="s">
+      <c r="M116" t="s">
         <v>626</v>
       </c>
-      <c r="M116">
+      <c r="N116">
         <v>51.500991282168599</v>
       </c>
-      <c r="N116">
+      <c r="O116">
         <v>6.7288798114717201</v>
       </c>
-      <c r="O116" t="s">
+      <c r="P116" t="s">
         <v>608</v>
       </c>
-      <c r="P116" t="s">
+      <c r="Q116" t="s">
         <v>140</v>
       </c>
-      <c r="Q116" t="s">
+      <c r="R116" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>43822</v>
       </c>
@@ -10532,39 +10999,43 @@
         <v>1270000000</v>
       </c>
       <c r="G117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.27</v>
       </c>
-      <c r="H117" s="5">
-        <f t="shared" si="3"/>
+      <c r="H117">
+        <f t="shared" si="5"/>
+        <v>0.34982280927835052</v>
+      </c>
+      <c r="I117" s="5">
+        <f t="shared" si="4"/>
         <v>349.82280927835052</v>
       </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>95</v>
       </c>
-      <c r="K117" t="s">
+      <c r="L117" t="s">
         <v>625</v>
       </c>
-      <c r="L117" t="s">
+      <c r="M117" t="s">
         <v>626</v>
       </c>
-      <c r="M117">
+      <c r="N117">
         <v>51.491250023673899</v>
       </c>
-      <c r="N117">
+      <c r="O117">
         <v>6.7264828416599798</v>
       </c>
-      <c r="O117" t="s">
+      <c r="P117" t="s">
         <v>252</v>
       </c>
-      <c r="P117" t="s">
+      <c r="Q117" t="s">
         <v>253</v>
       </c>
-      <c r="Q117" t="s">
+      <c r="R117" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>43820</v>
       </c>
@@ -10584,39 +11055,43 @@
         <v>949000000</v>
       </c>
       <c r="G118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94899999999999995</v>
       </c>
-      <c r="H118" s="5">
-        <f t="shared" si="3"/>
+      <c r="H118">
+        <f t="shared" si="5"/>
+        <v>0.26140302835051543</v>
+      </c>
+      <c r="I118" s="5">
+        <f t="shared" si="4"/>
         <v>261.40302835051546</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>95</v>
       </c>
-      <c r="K118" t="s">
+      <c r="L118" t="s">
         <v>625</v>
       </c>
-      <c r="L118" t="s">
+      <c r="M118" t="s">
         <v>626</v>
       </c>
-      <c r="M118">
+      <c r="N118">
         <v>51.485516041468301</v>
       </c>
-      <c r="N118">
+      <c r="O118">
         <v>6.7091225511247199</v>
       </c>
-      <c r="O118" t="s">
+      <c r="P118" t="s">
         <v>252</v>
       </c>
-      <c r="P118" t="s">
+      <c r="Q118" t="s">
         <v>253</v>
       </c>
-      <c r="Q118" t="s">
+      <c r="R118" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>43819</v>
       </c>
@@ -10636,39 +11111,43 @@
         <v>489000000</v>
       </c>
       <c r="G119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.48899999999999999</v>
       </c>
-      <c r="H119" s="5">
-        <f t="shared" si="3"/>
+      <c r="H119">
+        <f t="shared" si="5"/>
+        <v>0.13469555412371137</v>
+      </c>
+      <c r="I119" s="5">
+        <f t="shared" si="4"/>
         <v>134.69555412371136</v>
       </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
         <v>95</v>
       </c>
-      <c r="K119" t="s">
+      <c r="L119" t="s">
         <v>625</v>
       </c>
-      <c r="L119" t="s">
+      <c r="M119" t="s">
         <v>626</v>
       </c>
-      <c r="M119">
+      <c r="N119">
         <v>51.4925124264362</v>
       </c>
-      <c r="N119">
+      <c r="O119">
         <v>6.7406106568805297</v>
       </c>
-      <c r="O119" t="s">
+      <c r="P119" t="s">
         <v>252</v>
       </c>
-      <c r="P119" t="s">
+      <c r="Q119" t="s">
         <v>253</v>
       </c>
-      <c r="Q119" t="s">
+      <c r="R119" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>43917</v>
       </c>
@@ -10688,42 +11167,46 @@
         <v>393000000</v>
       </c>
       <c r="G120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.39300000000000002</v>
       </c>
-      <c r="H120" s="5">
-        <f t="shared" si="3"/>
+      <c r="H120">
+        <f t="shared" si="5"/>
+        <v>0.10825225515463918</v>
+      </c>
+      <c r="I120" s="5">
+        <f t="shared" si="4"/>
         <v>108.25225515463919</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>125</v>
       </c>
-      <c r="K120" t="s">
+      <c r="L120" t="s">
         <v>634</v>
       </c>
-      <c r="L120" t="s">
+      <c r="M120" t="s">
         <v>309</v>
       </c>
-      <c r="M120">
+      <c r="N120">
         <v>51.439528486671101</v>
       </c>
-      <c r="N120">
+      <c r="O120">
         <v>6.7052229735461104</v>
       </c>
-      <c r="O120" t="s">
+      <c r="P120" t="s">
         <v>98</v>
       </c>
-      <c r="P120" t="s">
+      <c r="Q120" t="s">
         <v>99</v>
       </c>
-      <c r="Q120" t="s">
+      <c r="R120" t="s">
         <v>100</v>
       </c>
-      <c r="R120" t="s">
+      <c r="S120" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>43779</v>
       </c>
@@ -10743,39 +11226,43 @@
         <v>4830000000</v>
       </c>
       <c r="G121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.83</v>
       </c>
-      <c r="H121" s="5">
-        <f t="shared" si="3"/>
+      <c r="H121">
+        <f t="shared" si="5"/>
+        <v>1.3304284793814432</v>
+      </c>
+      <c r="I121" s="5">
+        <f t="shared" si="4"/>
         <v>1330.4284793814431</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>95</v>
       </c>
-      <c r="K121" t="s">
+      <c r="L121" t="s">
         <v>638</v>
       </c>
-      <c r="L121" t="s">
+      <c r="M121" t="s">
         <v>639</v>
       </c>
-      <c r="M121">
+      <c r="N121">
         <v>51.368231167702803</v>
       </c>
-      <c r="N121">
+      <c r="O121">
         <v>6.7122673320951698</v>
       </c>
-      <c r="O121" t="s">
+      <c r="P121" t="s">
         <v>252</v>
       </c>
-      <c r="P121" t="s">
+      <c r="Q121" t="s">
         <v>253</v>
       </c>
-      <c r="Q121" t="s">
+      <c r="R121" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>43935</v>
       </c>
@@ -10795,39 +11282,43 @@
         <v>181000000</v>
       </c>
       <c r="G122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18099999999999999</v>
       </c>
-      <c r="H122" s="5">
-        <f t="shared" si="3"/>
+      <c r="H122">
+        <f t="shared" si="5"/>
+        <v>4.9856636597938146E-2</v>
+      </c>
+      <c r="I122" s="5">
+        <f t="shared" si="4"/>
         <v>49.856636597938149</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>125</v>
       </c>
-      <c r="K122" t="s">
+      <c r="L122" t="s">
         <v>643</v>
       </c>
-      <c r="L122" t="s">
+      <c r="M122" t="s">
         <v>644</v>
       </c>
-      <c r="M122">
+      <c r="N122">
         <v>51.469692972283497</v>
       </c>
-      <c r="N122">
+      <c r="O122">
         <v>6.64674413437411</v>
       </c>
-      <c r="O122" t="s">
+      <c r="P122" t="s">
         <v>98</v>
       </c>
-      <c r="P122" t="s">
+      <c r="Q122" t="s">
         <v>99</v>
       </c>
-      <c r="Q122" t="s">
+      <c r="R122" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>43895</v>
       </c>
@@ -10847,39 +11338,43 @@
         <v>220000000</v>
       </c>
       <c r="G123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22</v>
       </c>
-      <c r="H123" s="5">
-        <f t="shared" si="3"/>
+      <c r="H123">
+        <f t="shared" si="5"/>
+        <v>6.0599226804123711E-2</v>
+      </c>
+      <c r="I123" s="5">
+        <f t="shared" si="4"/>
         <v>60.59922680412371</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>95</v>
       </c>
-      <c r="K123" t="s">
+      <c r="L123" t="s">
         <v>648</v>
       </c>
-      <c r="L123" t="s">
+      <c r="M123" t="s">
         <v>187</v>
       </c>
-      <c r="M123">
+      <c r="N123">
         <v>51.518884359310398</v>
       </c>
-      <c r="N123">
+      <c r="O123">
         <v>6.5764130737649698</v>
       </c>
-      <c r="O123" t="s">
+      <c r="P123" t="s">
         <v>107</v>
       </c>
-      <c r="P123" t="s">
+      <c r="Q123" t="s">
         <v>108</v>
       </c>
-      <c r="Q123" t="s">
+      <c r="R123" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>43934</v>
       </c>
@@ -10899,39 +11394,43 @@
         <v>806000000</v>
       </c>
       <c r="G124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.80600000000000005</v>
       </c>
-      <c r="H124" s="5">
-        <f t="shared" si="3"/>
+      <c r="H124">
+        <f t="shared" si="5"/>
+        <v>0.22201353092783507</v>
+      </c>
+      <c r="I124" s="5">
+        <f t="shared" si="4"/>
         <v>222.01353092783506</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>219</v>
       </c>
-      <c r="K124" t="s">
+      <c r="L124" t="s">
         <v>652</v>
       </c>
-      <c r="L124" t="s">
+      <c r="M124" t="s">
         <v>653</v>
       </c>
-      <c r="M124">
+      <c r="N124">
         <v>51.564664684331902</v>
       </c>
-      <c r="N124">
+      <c r="O124">
         <v>6.5778890987793996</v>
       </c>
-      <c r="O124" t="s">
+      <c r="P124" t="s">
         <v>150</v>
       </c>
-      <c r="P124" t="s">
+      <c r="Q124" t="s">
         <v>99</v>
       </c>
-      <c r="Q124" t="s">
+      <c r="R124" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>43847</v>
       </c>
@@ -10951,39 +11450,43 @@
         <v>322000000</v>
       </c>
       <c r="G125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32200000000000001</v>
       </c>
-      <c r="H125" s="5">
-        <f t="shared" si="3"/>
+      <c r="H125">
+        <f t="shared" si="5"/>
+        <v>8.8695231958762902E-2</v>
+      </c>
+      <c r="I125" s="5">
+        <f t="shared" si="4"/>
         <v>88.695231958762903</v>
       </c>
-      <c r="I125" t="s">
+      <c r="J125" t="s">
         <v>125</v>
       </c>
-      <c r="K125" t="s">
+      <c r="L125" t="s">
         <v>657</v>
       </c>
-      <c r="L125" t="s">
+      <c r="M125" t="s">
         <v>658</v>
       </c>
-      <c r="M125">
+      <c r="N125">
         <v>51.378906532190697</v>
       </c>
-      <c r="N125">
+      <c r="O125">
         <v>6.6344038166940296</v>
       </c>
-      <c r="O125" t="s">
+      <c r="P125" t="s">
         <v>120</v>
       </c>
-      <c r="P125" t="s">
+      <c r="Q125" t="s">
         <v>108</v>
       </c>
-      <c r="Q125" t="s">
+      <c r="R125" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>43971</v>
       </c>
@@ -11003,42 +11506,46 @@
         <v>189000000</v>
       </c>
       <c r="G126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.189</v>
       </c>
-      <c r="H126" s="5">
-        <f t="shared" si="3"/>
+      <c r="H126">
+        <f t="shared" si="5"/>
+        <v>5.2060244845360829E-2</v>
+      </c>
+      <c r="I126" s="5">
+        <f t="shared" si="4"/>
         <v>52.060244845360828</v>
       </c>
-      <c r="I126" t="s">
+      <c r="J126" t="s">
         <v>125</v>
       </c>
-      <c r="K126" t="s">
+      <c r="L126" t="s">
         <v>660</v>
       </c>
-      <c r="L126" t="s">
+      <c r="M126" t="s">
         <v>380</v>
       </c>
-      <c r="M126">
+      <c r="N126">
         <v>51.368190415310899</v>
       </c>
-      <c r="N126">
+      <c r="O126">
         <v>6.6623845315366097</v>
       </c>
-      <c r="O126" t="s">
+      <c r="P126" t="s">
         <v>150</v>
       </c>
-      <c r="P126" t="s">
+      <c r="Q126" t="s">
         <v>99</v>
       </c>
-      <c r="Q126" t="s">
+      <c r="R126" t="s">
         <v>151</v>
       </c>
-      <c r="R126" t="s">
+      <c r="S126" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>43614</v>
       </c>
@@ -11058,39 +11565,43 @@
         <v>110000000</v>
       </c>
       <c r="G127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11</v>
       </c>
-      <c r="H127" s="5">
-        <f t="shared" si="3"/>
+      <c r="H127">
+        <f t="shared" si="5"/>
+        <v>3.0299613402061856E-2</v>
+      </c>
+      <c r="I127" s="5">
+        <f t="shared" si="4"/>
         <v>30.299613402061855</v>
       </c>
-      <c r="I127" t="s">
+      <c r="J127" t="s">
         <v>125</v>
       </c>
-      <c r="K127" t="s">
+      <c r="L127" t="s">
         <v>664</v>
       </c>
-      <c r="L127" t="s">
+      <c r="M127" t="s">
         <v>665</v>
       </c>
-      <c r="M127">
+      <c r="N127">
         <v>52.274591778929597</v>
       </c>
-      <c r="N127">
+      <c r="O127">
         <v>8.1206237026605095</v>
       </c>
-      <c r="O127" t="s">
+      <c r="P127" t="s">
         <v>132</v>
       </c>
-      <c r="P127" t="s">
+      <c r="Q127" t="s">
         <v>133</v>
       </c>
-      <c r="Q127" t="s">
+      <c r="R127" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>43611</v>
       </c>
@@ -11110,39 +11621,43 @@
         <v>146000000</v>
       </c>
       <c r="G128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14599999999999999</v>
       </c>
-      <c r="H128" s="5">
-        <f t="shared" si="3"/>
+      <c r="H128">
+        <f t="shared" si="5"/>
+        <v>4.0215850515463919E-2</v>
+      </c>
+      <c r="I128" s="5">
+        <f t="shared" si="4"/>
         <v>40.21585051546392</v>
       </c>
-      <c r="I128" t="s">
+      <c r="J128" t="s">
         <v>219</v>
       </c>
-      <c r="K128" t="s">
+      <c r="L128" t="s">
         <v>669</v>
       </c>
-      <c r="L128" t="s">
+      <c r="M128" t="s">
         <v>97</v>
       </c>
-      <c r="M128">
+      <c r="N128">
         <v>52.209144397156301</v>
       </c>
-      <c r="N128">
+      <c r="O128">
         <v>8.0495011070373099</v>
       </c>
-      <c r="O128" t="s">
+      <c r="P128" t="s">
         <v>252</v>
       </c>
-      <c r="P128" t="s">
+      <c r="Q128" t="s">
         <v>253</v>
       </c>
-      <c r="Q128" t="s">
+      <c r="R128" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>44489</v>
       </c>
@@ -11162,39 +11677,43 @@
         <v>108000000</v>
       </c>
       <c r="G129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.108</v>
       </c>
-      <c r="H129" s="5">
-        <f t="shared" si="3"/>
+      <c r="H129">
+        <f t="shared" si="5"/>
+        <v>2.974871134020619E-2</v>
+      </c>
+      <c r="I129" s="5">
+        <f t="shared" si="4"/>
         <v>29.748711340206189</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>261</v>
       </c>
-      <c r="K129" t="s">
+      <c r="L129" t="s">
         <v>673</v>
       </c>
-      <c r="L129" t="s">
+      <c r="M129" t="s">
         <v>674</v>
       </c>
-      <c r="M129">
+      <c r="N129">
         <v>52.287155127529303</v>
       </c>
-      <c r="N129">
+      <c r="O129">
         <v>7.7415451496542396</v>
       </c>
-      <c r="O129" t="s">
+      <c r="P129" t="s">
         <v>449</v>
       </c>
-      <c r="P129" t="s">
+      <c r="Q129" t="s">
         <v>168</v>
       </c>
-      <c r="Q129" t="s">
+      <c r="R129" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>44251</v>
       </c>
@@ -11214,42 +11733,46 @@
         <v>1010000000</v>
       </c>
       <c r="G130">
-        <f t="shared" ref="G130:G167" si="4">F130/10^9</f>
+        <f t="shared" ref="G130:G167" si="6">F130/10^9</f>
         <v>1.01</v>
       </c>
-      <c r="H130" s="5">
-        <f t="shared" ref="H130:H167" si="5">(G130/3.88*34.2*10^9)/(8000*3600)*0.9</f>
+      <c r="H130">
+        <f t="shared" si="5"/>
+        <v>0.27820554123711344</v>
+      </c>
+      <c r="I130" s="5">
+        <f t="shared" ref="I130:I167" si="7">(G130/3.88*34.2*10^9)/(8000*3600)*0.9</f>
         <v>278.20554123711344</v>
       </c>
-      <c r="I130" t="s">
+      <c r="J130" t="s">
         <v>125</v>
       </c>
-      <c r="K130" t="s">
+      <c r="L130" t="s">
         <v>678</v>
       </c>
-      <c r="L130" t="s">
+      <c r="M130" t="s">
         <v>679</v>
       </c>
-      <c r="M130">
+      <c r="N130">
         <v>52.174985890675202</v>
       </c>
-      <c r="N130">
+      <c r="O130">
         <v>7.8878276405479104</v>
       </c>
-      <c r="O130" t="s">
+      <c r="P130" t="s">
         <v>167</v>
       </c>
-      <c r="P130" t="s">
+      <c r="Q130" t="s">
         <v>168</v>
       </c>
-      <c r="Q130" t="s">
+      <c r="R130" t="s">
         <v>169</v>
       </c>
-      <c r="R130" t="s">
+      <c r="S130" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>44252</v>
       </c>
@@ -11269,42 +11792,46 @@
         <v>149000000</v>
       </c>
       <c r="G131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.14899999999999999</v>
       </c>
-      <c r="H131" s="5">
-        <f t="shared" si="5"/>
+      <c r="H131">
+        <f t="shared" ref="H131:H167" si="8">I131/1000</f>
+        <v>4.1042203608247424E-2</v>
+      </c>
+      <c r="I131" s="5">
+        <f t="shared" si="7"/>
         <v>41.042203608247426</v>
       </c>
-      <c r="I131" t="s">
+      <c r="J131" t="s">
         <v>125</v>
       </c>
-      <c r="K131" t="s">
+      <c r="L131" t="s">
         <v>683</v>
       </c>
-      <c r="L131" t="s">
+      <c r="M131" t="s">
         <v>684</v>
       </c>
-      <c r="M131">
+      <c r="N131">
         <v>52.162740627713099</v>
       </c>
-      <c r="N131">
+      <c r="O131">
         <v>7.9690559301535702</v>
       </c>
-      <c r="O131" t="s">
+      <c r="P131" t="s">
         <v>167</v>
       </c>
-      <c r="P131" t="s">
+      <c r="Q131" t="s">
         <v>168</v>
       </c>
-      <c r="Q131" t="s">
+      <c r="R131" t="s">
         <v>169</v>
       </c>
-      <c r="R131" t="s">
+      <c r="S131" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>43600</v>
       </c>
@@ -11324,39 +11851,43 @@
         <v>1140000000</v>
       </c>
       <c r="G132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1399999999999999</v>
       </c>
-      <c r="H132" s="5">
-        <f t="shared" si="5"/>
+      <c r="H132">
+        <f t="shared" si="8"/>
+        <v>0.31401417525773195</v>
+      </c>
+      <c r="I132" s="5">
+        <f t="shared" si="7"/>
         <v>314.01417525773195</v>
       </c>
-      <c r="I132" t="s">
+      <c r="J132" t="s">
         <v>231</v>
       </c>
-      <c r="K132" t="s">
+      <c r="L132" t="s">
         <v>688</v>
       </c>
-      <c r="L132" t="s">
+      <c r="M132" t="s">
         <v>97</v>
       </c>
-      <c r="M132">
+      <c r="N132">
         <v>52.561854280893698</v>
       </c>
-      <c r="N132">
+      <c r="O132">
         <v>7.31181464088802</v>
       </c>
-      <c r="O132" t="s">
+      <c r="P132" t="s">
         <v>139</v>
       </c>
-      <c r="P132" t="s">
+      <c r="Q132" t="s">
         <v>140</v>
       </c>
-      <c r="Q132" t="s">
+      <c r="R132" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>110145</v>
       </c>
@@ -11376,39 +11907,43 @@
         <v>385000000</v>
       </c>
       <c r="G133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.38500000000000001</v>
       </c>
-      <c r="H133" s="5">
-        <f t="shared" si="5"/>
+      <c r="H133">
+        <f t="shared" si="8"/>
+        <v>0.10604864690721651</v>
+      </c>
+      <c r="I133" s="5">
+        <f t="shared" si="7"/>
         <v>106.04864690721651</v>
       </c>
-      <c r="I133" t="s">
+      <c r="J133" t="s">
         <v>95</v>
       </c>
-      <c r="K133" t="s">
+      <c r="L133" t="s">
         <v>692</v>
       </c>
-      <c r="L133" t="s">
+      <c r="M133" t="s">
         <v>304</v>
       </c>
-      <c r="M133">
+      <c r="N133">
         <v>52.643591157646597</v>
       </c>
-      <c r="N133">
+      <c r="O133">
         <v>6.7431930823961803</v>
       </c>
-      <c r="O133" t="s">
+      <c r="P133" t="s">
         <v>107</v>
       </c>
-      <c r="P133" t="s">
+      <c r="Q133" t="s">
         <v>108</v>
       </c>
-      <c r="Q133" t="s">
+      <c r="R133" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>43597</v>
       </c>
@@ -11428,39 +11963,43 @@
         <v>160000000</v>
       </c>
       <c r="G134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
-      <c r="H134" s="5">
-        <f t="shared" si="5"/>
+      <c r="H134">
+        <f t="shared" si="8"/>
+        <v>4.4072164948453611E-2</v>
+      </c>
+      <c r="I134" s="5">
+        <f t="shared" si="7"/>
         <v>44.072164948453612</v>
       </c>
-      <c r="I134" t="s">
+      <c r="J134" t="s">
         <v>95</v>
       </c>
-      <c r="K134" t="s">
+      <c r="L134" t="s">
         <v>695</v>
       </c>
-      <c r="L134" t="s">
+      <c r="M134" t="s">
         <v>696</v>
       </c>
-      <c r="M134">
+      <c r="N134">
         <v>52.619341239770002</v>
       </c>
-      <c r="N134">
+      <c r="O134">
         <v>6.8734482637758703</v>
       </c>
-      <c r="O134" t="s">
+      <c r="P134" t="s">
         <v>120</v>
       </c>
-      <c r="P134" t="s">
+      <c r="Q134" t="s">
         <v>108</v>
       </c>
-      <c r="Q134" t="s">
+      <c r="R134" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>44053</v>
       </c>
@@ -11480,39 +12019,43 @@
         <v>263000000</v>
       </c>
       <c r="G135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.26300000000000001</v>
       </c>
-      <c r="H135" s="5">
-        <f t="shared" si="5"/>
+      <c r="H135">
+        <f t="shared" si="8"/>
+        <v>7.2443621134020628E-2</v>
+      </c>
+      <c r="I135" s="5">
+        <f t="shared" si="7"/>
         <v>72.443621134020631</v>
       </c>
-      <c r="I135" t="s">
+      <c r="J135" t="s">
         <v>240</v>
       </c>
-      <c r="K135" t="s">
+      <c r="L135" t="s">
         <v>700</v>
       </c>
-      <c r="L135" t="s">
+      <c r="M135" t="s">
         <v>701</v>
       </c>
-      <c r="M135">
+      <c r="N135">
         <v>50.945933627858501</v>
       </c>
-      <c r="N135">
+      <c r="O135">
         <v>6.6666520565427003</v>
       </c>
-      <c r="O135" t="s">
+      <c r="P135" t="s">
         <v>150</v>
       </c>
-      <c r="P135" t="s">
+      <c r="Q135" t="s">
         <v>99</v>
       </c>
-      <c r="Q135" t="s">
+      <c r="R135" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>44485</v>
       </c>
@@ -11532,39 +12075,43 @@
         <v>422000000</v>
       </c>
       <c r="G136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.42199999999999999</v>
       </c>
-      <c r="H136" s="5">
-        <f t="shared" si="5"/>
+      <c r="H136">
+        <f t="shared" si="8"/>
+        <v>0.11624033505154641</v>
+      </c>
+      <c r="I136" s="5">
+        <f t="shared" si="7"/>
         <v>116.24033505154641</v>
       </c>
-      <c r="I136" t="s">
+      <c r="J136" t="s">
         <v>125</v>
       </c>
-      <c r="K136" t="s">
+      <c r="L136" t="s">
         <v>704</v>
       </c>
-      <c r="L136" t="s">
+      <c r="M136" t="s">
         <v>166</v>
       </c>
-      <c r="M136">
+      <c r="N136">
         <v>50.9869454451972</v>
       </c>
-      <c r="N136">
+      <c r="O136">
         <v>6.6580548701080904</v>
       </c>
-      <c r="O136" t="s">
+      <c r="P136" t="s">
         <v>705</v>
       </c>
-      <c r="P136" t="s">
+      <c r="Q136" t="s">
         <v>140</v>
       </c>
-      <c r="Q136" t="s">
+      <c r="R136" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>44486</v>
       </c>
@@ -11584,39 +12131,43 @@
         <v>1560000000</v>
       </c>
       <c r="G137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.56</v>
       </c>
-      <c r="H137" s="5">
-        <f t="shared" si="5"/>
+      <c r="H137">
+        <f t="shared" si="8"/>
+        <v>0.42970360824742271</v>
+      </c>
+      <c r="I137" s="5">
+        <f t="shared" si="7"/>
         <v>429.70360824742272</v>
       </c>
-      <c r="I137" t="s">
+      <c r="J137" t="s">
         <v>125</v>
       </c>
-      <c r="K137" t="s">
+      <c r="L137" t="s">
         <v>710</v>
       </c>
-      <c r="L137" t="s">
+      <c r="M137" t="s">
         <v>97</v>
       </c>
-      <c r="M137">
+      <c r="N137">
         <v>50.894246191596203</v>
       </c>
-      <c r="N137">
+      <c r="O137">
         <v>6.7910555927371199</v>
       </c>
-      <c r="O137" t="s">
+      <c r="P137" t="s">
         <v>705</v>
       </c>
-      <c r="P137" t="s">
+      <c r="Q137" t="s">
         <v>140</v>
       </c>
-      <c r="Q137" t="s">
+      <c r="R137" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>44484</v>
       </c>
@@ -11636,39 +12187,43 @@
         <v>1080000000</v>
       </c>
       <c r="G138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.08</v>
       </c>
-      <c r="H138" s="5">
-        <f t="shared" si="5"/>
+      <c r="H138">
+        <f t="shared" si="8"/>
+        <v>0.29748711340206185</v>
+      </c>
+      <c r="I138" s="5">
+        <f t="shared" si="7"/>
         <v>297.48711340206188</v>
       </c>
-      <c r="I138" t="s">
+      <c r="J138" t="s">
         <v>125</v>
       </c>
-      <c r="K138" t="s">
+      <c r="L138" t="s">
         <v>714</v>
       </c>
-      <c r="L138" t="s">
+      <c r="M138" t="s">
         <v>166</v>
       </c>
-      <c r="M138">
+      <c r="N138">
         <v>50.867145039151701</v>
       </c>
-      <c r="N138">
+      <c r="O138">
         <v>6.8360555937152503</v>
       </c>
-      <c r="O138" t="s">
+      <c r="P138" t="s">
         <v>705</v>
       </c>
-      <c r="P138" t="s">
+      <c r="Q138" t="s">
         <v>140</v>
       </c>
-      <c r="Q138" t="s">
+      <c r="R138" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>110204</v>
       </c>
@@ -11688,39 +12243,43 @@
         <v>331000000</v>
       </c>
       <c r="G139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.33100000000000002</v>
       </c>
-      <c r="H139" s="5">
-        <f t="shared" si="5"/>
+      <c r="H139">
+        <f t="shared" si="8"/>
+        <v>9.1174291237113403E-2</v>
+      </c>
+      <c r="I139" s="5">
+        <f t="shared" si="7"/>
         <v>91.174291237113408</v>
       </c>
-      <c r="I139" t="s">
+      <c r="J139" t="s">
         <v>95</v>
       </c>
-      <c r="K139" t="s">
+      <c r="L139" t="s">
         <v>467</v>
       </c>
-      <c r="L139" t="s">
+      <c r="M139" t="s">
         <v>717</v>
       </c>
-      <c r="M139">
+      <c r="N139">
         <v>50.856573789010497</v>
       </c>
-      <c r="N139">
+      <c r="O139">
         <v>6.8436498087509499</v>
       </c>
-      <c r="O139" t="s">
+      <c r="P139" t="s">
         <v>107</v>
       </c>
-      <c r="P139" t="s">
+      <c r="Q139" t="s">
         <v>108</v>
       </c>
-      <c r="Q139" t="s">
+      <c r="R139" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>74009</v>
       </c>
@@ -11740,39 +12299,43 @@
         <v>2290000000</v>
       </c>
       <c r="G140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.29</v>
       </c>
-      <c r="H140" s="5">
-        <f t="shared" si="5"/>
+      <c r="H140">
+        <f t="shared" si="8"/>
+        <v>0.63078286082474233</v>
+      </c>
+      <c r="I140" s="5">
+        <f t="shared" si="7"/>
         <v>630.78286082474233</v>
       </c>
-      <c r="I140" t="s">
+      <c r="J140" t="s">
         <v>95</v>
       </c>
-      <c r="K140" t="s">
+      <c r="L140" t="s">
         <v>721</v>
       </c>
-      <c r="L140" t="s">
+      <c r="M140" t="s">
         <v>513</v>
       </c>
-      <c r="M140">
+      <c r="N140">
         <v>50.83268204406</v>
       </c>
-      <c r="N140">
+      <c r="O140">
         <v>6.9440666795614296</v>
       </c>
-      <c r="O140" t="s">
+      <c r="P140" t="s">
         <v>98</v>
       </c>
-      <c r="P140" t="s">
+      <c r="Q140" t="s">
         <v>99</v>
       </c>
-      <c r="Q140" t="s">
+      <c r="R140" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>44061</v>
       </c>
@@ -11792,39 +12355,43 @@
         <v>1820000000</v>
       </c>
       <c r="G141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.82</v>
       </c>
-      <c r="H141" s="5">
-        <f t="shared" si="5"/>
+      <c r="H141">
+        <f t="shared" si="8"/>
+        <v>0.50132087628865984</v>
+      </c>
+      <c r="I141" s="5">
+        <f t="shared" si="7"/>
         <v>501.32087628865986</v>
       </c>
-      <c r="I141" t="s">
+      <c r="J141" t="s">
         <v>95</v>
       </c>
-      <c r="K141" t="s">
+      <c r="L141" t="s">
         <v>723</v>
       </c>
-      <c r="L141" t="s">
+      <c r="M141" t="s">
         <v>97</v>
       </c>
-      <c r="M141">
+      <c r="N141">
         <v>50.814110423486802</v>
       </c>
-      <c r="N141">
+      <c r="O141">
         <v>7.0057562786813197</v>
       </c>
-      <c r="O141" t="s">
+      <c r="P141" t="s">
         <v>139</v>
       </c>
-      <c r="P141" t="s">
+      <c r="Q141" t="s">
         <v>140</v>
       </c>
-      <c r="Q141" t="s">
+      <c r="R141" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>44090</v>
       </c>
@@ -11844,39 +12411,43 @@
         <v>168000000</v>
       </c>
       <c r="G142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.16800000000000001</v>
       </c>
-      <c r="H142" s="5">
-        <f t="shared" si="5"/>
+      <c r="H142">
+        <f t="shared" si="8"/>
+        <v>4.6275773195876307E-2</v>
+      </c>
+      <c r="I142" s="5">
+        <f t="shared" si="7"/>
         <v>46.275773195876305</v>
       </c>
-      <c r="I142" t="s">
+      <c r="J142" t="s">
         <v>231</v>
       </c>
-      <c r="K142" t="s">
+      <c r="L142" t="s">
         <v>721</v>
       </c>
-      <c r="L142" t="s">
+      <c r="M142" t="s">
         <v>337</v>
       </c>
-      <c r="M142">
+      <c r="N142">
         <v>50.834099903336501</v>
       </c>
-      <c r="N142">
+      <c r="O142">
         <v>6.9762864616685798</v>
       </c>
-      <c r="O142" t="s">
+      <c r="P142" t="s">
         <v>98</v>
       </c>
-      <c r="P142" t="s">
+      <c r="Q142" t="s">
         <v>99</v>
       </c>
-      <c r="Q142" t="s">
+      <c r="R142" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>44142</v>
       </c>
@@ -11896,39 +12467,43 @@
         <v>267000000</v>
       </c>
       <c r="G143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.26700000000000002</v>
       </c>
-      <c r="H143" s="5">
-        <f t="shared" si="5"/>
+      <c r="H143">
+        <f t="shared" si="8"/>
+        <v>7.3545425257731958E-2</v>
+      </c>
+      <c r="I143" s="5">
+        <f t="shared" si="7"/>
         <v>73.545425257731964</v>
       </c>
-      <c r="I143" t="s">
+      <c r="J143" t="s">
         <v>231</v>
       </c>
-      <c r="K143" t="s">
+      <c r="L143" t="s">
         <v>728</v>
       </c>
-      <c r="L143" t="s">
+      <c r="M143" t="s">
         <v>556</v>
       </c>
-      <c r="M143">
+      <c r="N143">
         <v>51.006973874123801</v>
       </c>
-      <c r="N143">
+      <c r="O143">
         <v>6.95076623048607</v>
       </c>
-      <c r="O143" t="s">
+      <c r="P143" t="s">
         <v>107</v>
       </c>
-      <c r="P143" t="s">
+      <c r="Q143" t="s">
         <v>108</v>
       </c>
-      <c r="Q143" t="s">
+      <c r="R143" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>74015</v>
       </c>
@@ -11948,39 +12523,43 @@
         <v>2980000000</v>
       </c>
       <c r="G144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.98</v>
       </c>
-      <c r="H144" s="5">
-        <f t="shared" si="5"/>
+      <c r="H144">
+        <f t="shared" si="8"/>
+        <v>0.82084407216494859</v>
+      </c>
+      <c r="I144" s="5">
+        <f t="shared" si="7"/>
         <v>820.84407216494856</v>
       </c>
-      <c r="I144" t="s">
+      <c r="J144" t="s">
         <v>95</v>
       </c>
-      <c r="K144" t="s">
+      <c r="L144" t="s">
         <v>731</v>
       </c>
-      <c r="L144" t="s">
+      <c r="M144" t="s">
         <v>732</v>
       </c>
-      <c r="M144">
+      <c r="N144">
         <v>51.067636023807701</v>
       </c>
-      <c r="N144">
+      <c r="O144">
         <v>6.846742503362</v>
       </c>
-      <c r="O144" t="s">
+      <c r="P144" t="s">
         <v>98</v>
       </c>
-      <c r="P144" t="s">
+      <c r="Q144" t="s">
         <v>99</v>
       </c>
-      <c r="Q144" t="s">
+      <c r="R144" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>44060</v>
       </c>
@@ -12000,39 +12579,43 @@
         <v>1390000000</v>
       </c>
       <c r="G145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.39</v>
       </c>
-      <c r="H145" s="5">
-        <f t="shared" si="5"/>
+      <c r="H145">
+        <f t="shared" si="8"/>
+        <v>0.38287693298969078</v>
+      </c>
+      <c r="I145" s="5">
+        <f t="shared" si="7"/>
         <v>382.87693298969077</v>
       </c>
-      <c r="I145" t="s">
+      <c r="J145" t="s">
         <v>125</v>
       </c>
-      <c r="K145" t="s">
+      <c r="L145" t="s">
         <v>735</v>
       </c>
-      <c r="L145" t="s">
+      <c r="M145" t="s">
         <v>736</v>
       </c>
-      <c r="M145">
+      <c r="N145">
         <v>50.8549933741484</v>
       </c>
-      <c r="N145">
+      <c r="O145">
         <v>6.9768455364430304</v>
       </c>
-      <c r="O145" t="s">
+      <c r="P145" t="s">
         <v>139</v>
       </c>
-      <c r="P145" t="s">
+      <c r="Q145" t="s">
         <v>140</v>
       </c>
-      <c r="Q145" t="s">
+      <c r="R145" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>200990</v>
       </c>
@@ -12052,42 +12635,46 @@
         <v>297000000</v>
       </c>
       <c r="G146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.29699999999999999</v>
       </c>
-      <c r="H146" s="5">
-        <f t="shared" si="5"/>
+      <c r="H146">
+        <f t="shared" si="8"/>
+        <v>8.1808956185567008E-2</v>
+      </c>
+      <c r="I146" s="5">
+        <f t="shared" si="7"/>
         <v>81.808956185567013</v>
       </c>
-      <c r="I146" t="s">
+      <c r="J146" t="s">
         <v>125</v>
       </c>
-      <c r="K146" t="s">
+      <c r="L146" t="s">
         <v>738</v>
       </c>
-      <c r="L146" t="s">
+      <c r="M146" t="s">
         <v>97</v>
       </c>
-      <c r="M146">
+      <c r="N146">
         <v>50.873501056946601</v>
       </c>
-      <c r="N146">
+      <c r="O146">
         <v>6.9184614261972603</v>
       </c>
-      <c r="O146" t="s">
+      <c r="P146" t="s">
         <v>150</v>
       </c>
-      <c r="P146" t="s">
+      <c r="Q146" t="s">
         <v>99</v>
       </c>
-      <c r="Q146" t="s">
+      <c r="R146" t="s">
         <v>151</v>
       </c>
-      <c r="R146" t="s">
+      <c r="S146" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>110205</v>
       </c>
@@ -12107,39 +12694,43 @@
         <v>222000000</v>
       </c>
       <c r="G147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.222</v>
       </c>
-      <c r="H147" s="5">
-        <f t="shared" si="5"/>
+      <c r="H147">
+        <f t="shared" si="8"/>
+        <v>6.115012886597939E-2</v>
+      </c>
+      <c r="I147" s="5">
+        <f t="shared" si="7"/>
         <v>61.15012886597939</v>
       </c>
-      <c r="I147" t="s">
+      <c r="J147" t="s">
         <v>742</v>
       </c>
-      <c r="K147" t="s">
+      <c r="L147" t="s">
         <v>743</v>
       </c>
-      <c r="L147" t="s">
+      <c r="M147" t="s">
         <v>97</v>
       </c>
-      <c r="M147">
+      <c r="N147">
         <v>51.041409915130998</v>
       </c>
-      <c r="N147">
+      <c r="O147">
         <v>6.9682345553985003</v>
       </c>
-      <c r="O147" t="s">
+      <c r="P147" t="s">
         <v>120</v>
       </c>
-      <c r="P147" t="s">
+      <c r="Q147" t="s">
         <v>108</v>
       </c>
-      <c r="Q147" t="s">
+      <c r="R147" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>44138</v>
       </c>
@@ -12159,42 +12750,46 @@
         <v>205000000</v>
       </c>
       <c r="G148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.20499999999999999</v>
       </c>
-      <c r="H148" s="5">
-        <f t="shared" si="5"/>
+      <c r="H148">
+        <f t="shared" si="8"/>
+        <v>5.6467461340206193E-2</v>
+      </c>
+      <c r="I148" s="5">
+        <f t="shared" si="7"/>
         <v>56.467461340206192</v>
       </c>
-      <c r="I148" t="s">
+      <c r="J148" t="s">
         <v>231</v>
       </c>
-      <c r="K148" t="s">
+      <c r="L148" t="s">
         <v>364</v>
       </c>
-      <c r="L148" t="s">
+      <c r="M148" t="s">
         <v>166</v>
       </c>
-      <c r="M148">
+      <c r="N148">
         <v>51.0131869022795</v>
       </c>
-      <c r="N148">
+      <c r="O148">
         <v>6.9868764025282104</v>
       </c>
-      <c r="O148" t="s">
+      <c r="P148" t="s">
         <v>98</v>
       </c>
-      <c r="P148" t="s">
+      <c r="Q148" t="s">
         <v>99</v>
       </c>
-      <c r="Q148" t="s">
+      <c r="R148" t="s">
         <v>100</v>
       </c>
-      <c r="R148" t="s">
+      <c r="S148" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>44098</v>
       </c>
@@ -12214,39 +12809,43 @@
         <v>162000000</v>
       </c>
       <c r="G149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.16200000000000001</v>
       </c>
-      <c r="H149" s="5">
-        <f t="shared" si="5"/>
+      <c r="H149">
+        <f t="shared" si="8"/>
+        <v>4.4623067010309284E-2</v>
+      </c>
+      <c r="I149" s="5">
+        <f t="shared" si="7"/>
         <v>44.623067010309285</v>
       </c>
-      <c r="I149" t="s">
+      <c r="J149" t="s">
         <v>172</v>
       </c>
-      <c r="K149" t="s">
+      <c r="L149" t="s">
         <v>748</v>
       </c>
-      <c r="L149" t="s">
+      <c r="M149" t="s">
         <v>242</v>
       </c>
-      <c r="M149">
+      <c r="N149">
         <v>51.042317687884903</v>
       </c>
-      <c r="N149">
+      <c r="O149">
         <v>7.0042022259999204</v>
       </c>
-      <c r="O149" t="s">
+      <c r="P149" t="s">
         <v>107</v>
       </c>
-      <c r="P149" t="s">
+      <c r="Q149" t="s">
         <v>108</v>
       </c>
-      <c r="Q149" t="s">
+      <c r="R149" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>44067</v>
       </c>
@@ -12266,39 +12865,43 @@
         <v>122000000</v>
       </c>
       <c r="G150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.122</v>
       </c>
-      <c r="H150" s="5">
-        <f t="shared" si="5"/>
+      <c r="H150">
+        <f t="shared" si="8"/>
+        <v>3.3605025773195879E-2</v>
+      </c>
+      <c r="I150" s="5">
+        <f t="shared" si="7"/>
         <v>33.605025773195877</v>
       </c>
-      <c r="I150" t="s">
+      <c r="J150" t="s">
         <v>125</v>
       </c>
-      <c r="K150" t="s">
+      <c r="L150" t="s">
         <v>752</v>
       </c>
-      <c r="L150" t="s">
+      <c r="M150" t="s">
         <v>187</v>
       </c>
-      <c r="M150">
+      <c r="N150">
         <v>50.9889072569676</v>
       </c>
-      <c r="N150">
+      <c r="O150">
         <v>7.1270734658298798</v>
       </c>
-      <c r="O150" t="s">
+      <c r="P150" t="s">
         <v>132</v>
       </c>
-      <c r="P150" t="s">
+      <c r="Q150" t="s">
         <v>133</v>
       </c>
-      <c r="Q150" t="s">
+      <c r="R150" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>70868</v>
       </c>
@@ -12318,39 +12921,43 @@
         <v>106000000</v>
       </c>
       <c r="G151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.106</v>
       </c>
-      <c r="H151" s="5">
-        <f t="shared" si="5"/>
+      <c r="H151">
+        <f t="shared" si="8"/>
+        <v>2.9197809278350518E-2</v>
+      </c>
+      <c r="I151" s="5">
+        <f t="shared" si="7"/>
         <v>29.197809278350519</v>
       </c>
-      <c r="I151" t="s">
+      <c r="J151" t="s">
         <v>219</v>
       </c>
-      <c r="K151" t="s">
+      <c r="L151" t="s">
         <v>756</v>
       </c>
-      <c r="L151" t="s">
+      <c r="M151" t="s">
         <v>97</v>
       </c>
-      <c r="M151">
+      <c r="N151">
         <v>50.784838568942597</v>
       </c>
-      <c r="N151">
+      <c r="O151">
         <v>6.2200416876035396</v>
       </c>
-      <c r="O151" t="s">
+      <c r="P151" t="s">
         <v>207</v>
       </c>
-      <c r="P151" t="s">
+      <c r="Q151" t="s">
         <v>168</v>
       </c>
-      <c r="Q151" t="s">
+      <c r="R151" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>44162</v>
       </c>
@@ -12370,39 +12977,43 @@
         <v>364000000</v>
       </c>
       <c r="G152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.36399999999999999</v>
       </c>
-      <c r="H152" s="5">
-        <f t="shared" si="5"/>
+      <c r="H152">
+        <f t="shared" si="8"/>
+        <v>0.10026417525773196</v>
+      </c>
+      <c r="I152" s="5">
+        <f t="shared" si="7"/>
         <v>100.26417525773196</v>
       </c>
-      <c r="I152" t="s">
+      <c r="J152" t="s">
         <v>172</v>
       </c>
-      <c r="K152" t="s">
+      <c r="L152" t="s">
         <v>760</v>
       </c>
-      <c r="L152" t="s">
+      <c r="M152" t="s">
         <v>761</v>
       </c>
-      <c r="M152">
+      <c r="N152">
         <v>50.837994063132598</v>
       </c>
-      <c r="N152">
+      <c r="O152">
         <v>6.3095845649781497</v>
       </c>
-      <c r="O152" t="s">
+      <c r="P152" t="s">
         <v>107</v>
       </c>
-      <c r="P152" t="s">
+      <c r="Q152" t="s">
         <v>108</v>
       </c>
-      <c r="Q152" t="s">
+      <c r="R152" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>44123</v>
       </c>
@@ -12422,39 +13033,43 @@
         <v>145000000</v>
       </c>
       <c r="G153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.14499999999999999</v>
       </c>
-      <c r="H153" s="5">
-        <f t="shared" si="5"/>
+      <c r="H153">
+        <f t="shared" si="8"/>
+        <v>3.9940399484536093E-2</v>
+      </c>
+      <c r="I153" s="5">
+        <f t="shared" si="7"/>
         <v>39.940399484536094</v>
       </c>
-      <c r="I153" t="s">
+      <c r="J153" t="s">
         <v>125</v>
       </c>
-      <c r="K153" t="s">
+      <c r="L153" t="s">
         <v>765</v>
       </c>
-      <c r="L153" t="s">
+      <c r="M153" t="s">
         <v>766</v>
       </c>
-      <c r="M153">
+      <c r="N153">
         <v>50.776516545992799</v>
       </c>
-      <c r="N153">
+      <c r="O153">
         <v>6.4894912803828504</v>
       </c>
-      <c r="O153" t="s">
+      <c r="P153" t="s">
         <v>132</v>
       </c>
-      <c r="P153" t="s">
+      <c r="Q153" t="s">
         <v>133</v>
       </c>
-      <c r="Q153" t="s">
+      <c r="R153" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>44128</v>
       </c>
@@ -12474,42 +13089,46 @@
         <v>202000000</v>
       </c>
       <c r="G154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.20200000000000001</v>
       </c>
-      <c r="H154" s="5">
-        <f t="shared" si="5"/>
+      <c r="H154">
+        <f t="shared" si="8"/>
+        <v>5.5641108247422695E-2</v>
+      </c>
+      <c r="I154" s="5">
+        <f t="shared" si="7"/>
         <v>55.641108247422693</v>
       </c>
-      <c r="I154" t="s">
+      <c r="J154" t="s">
         <v>231</v>
       </c>
-      <c r="K154" t="s">
+      <c r="L154" t="s">
         <v>770</v>
       </c>
-      <c r="L154" t="s">
+      <c r="M154" t="s">
         <v>193</v>
       </c>
-      <c r="M154">
+      <c r="N154">
         <v>50.916616351470502</v>
       </c>
-      <c r="N154">
+      <c r="O154">
         <v>6.3731212015687904</v>
       </c>
-      <c r="O154" t="s">
+      <c r="P154" t="s">
         <v>180</v>
       </c>
-      <c r="P154" t="s">
+      <c r="Q154" t="s">
         <v>181</v>
       </c>
-      <c r="Q154" t="s">
+      <c r="R154" t="s">
         <v>182</v>
       </c>
-      <c r="R154" t="s">
+      <c r="S154" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>45063</v>
       </c>
@@ -12529,42 +13148,46 @@
         <v>126000000</v>
       </c>
       <c r="G155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.126</v>
       </c>
-      <c r="H155" s="5">
-        <f t="shared" si="5"/>
+      <c r="H155">
+        <f t="shared" si="8"/>
+        <v>3.4706829896907224E-2</v>
+      </c>
+      <c r="I155" s="5">
+        <f t="shared" si="7"/>
         <v>34.706829896907223</v>
       </c>
-      <c r="I155" t="s">
+      <c r="J155" t="s">
         <v>125</v>
       </c>
-      <c r="K155" t="s">
+      <c r="L155" t="s">
         <v>774</v>
       </c>
-      <c r="L155" t="s">
+      <c r="M155" t="s">
         <v>166</v>
       </c>
-      <c r="M155">
+      <c r="N155">
         <v>50.511210221532103</v>
       </c>
-      <c r="N155">
+      <c r="O155">
         <v>7.3161484772213603</v>
       </c>
-      <c r="O155" t="s">
+      <c r="P155" t="s">
         <v>150</v>
       </c>
-      <c r="P155" t="s">
+      <c r="Q155" t="s">
         <v>99</v>
       </c>
-      <c r="Q155" t="s">
+      <c r="R155" t="s">
         <v>151</v>
       </c>
-      <c r="R155" t="s">
+      <c r="S155" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>44037</v>
       </c>
@@ -12584,39 +13207,43 @@
         <v>258000000</v>
       </c>
       <c r="G156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.25800000000000001</v>
       </c>
-      <c r="H156" s="5">
-        <f t="shared" si="5"/>
+      <c r="H156">
+        <f t="shared" si="8"/>
+        <v>7.1066365979381443E-2</v>
+      </c>
+      <c r="I156" s="5">
+        <f t="shared" si="7"/>
         <v>71.066365979381445</v>
       </c>
-      <c r="I156" t="s">
+      <c r="J156" t="s">
         <v>231</v>
       </c>
-      <c r="K156" t="s">
+      <c r="L156" t="s">
         <v>778</v>
       </c>
-      <c r="L156" t="s">
+      <c r="M156" t="s">
         <v>97</v>
       </c>
-      <c r="M156">
+      <c r="N156">
         <v>50.706591847105699</v>
       </c>
-      <c r="N156">
+      <c r="O156">
         <v>6.6530059121098102</v>
       </c>
-      <c r="O156" t="s">
+      <c r="P156" t="s">
         <v>132</v>
       </c>
-      <c r="P156" t="s">
+      <c r="Q156" t="s">
         <v>133</v>
       </c>
-      <c r="Q156" t="s">
+      <c r="R156" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>45110</v>
       </c>
@@ -12636,42 +13263,46 @@
         <v>175000000</v>
       </c>
       <c r="G157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="H157" s="5">
-        <f t="shared" si="5"/>
+      <c r="H157">
+        <f t="shared" si="8"/>
+        <v>4.8203930412371136E-2</v>
+      </c>
+      <c r="I157" s="5">
+        <f t="shared" si="7"/>
         <v>48.203930412371136</v>
       </c>
-      <c r="I157" t="s">
+      <c r="J157" t="s">
         <v>231</v>
       </c>
-      <c r="K157" t="s">
+      <c r="L157" t="s">
         <v>782</v>
       </c>
-      <c r="L157" t="s">
+      <c r="M157" t="s">
         <v>97</v>
       </c>
-      <c r="M157">
+      <c r="N157">
         <v>50.333990058874903</v>
       </c>
-      <c r="N157">
+      <c r="O157">
         <v>6.7668281365085399</v>
       </c>
-      <c r="O157" t="s">
+      <c r="P157" t="s">
         <v>167</v>
       </c>
-      <c r="P157" t="s">
+      <c r="Q157" t="s">
         <v>168</v>
       </c>
-      <c r="Q157" t="s">
+      <c r="R157" t="s">
         <v>169</v>
       </c>
-      <c r="R157" t="s">
+      <c r="S157" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>71925</v>
       </c>
@@ -12691,39 +13322,43 @@
         <v>317000000</v>
       </c>
       <c r="G158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.317</v>
       </c>
-      <c r="H158" s="5">
-        <f t="shared" si="5"/>
+      <c r="H158">
+        <f t="shared" si="8"/>
+        <v>8.7317976804123718E-2</v>
+      </c>
+      <c r="I158" s="5">
+        <f t="shared" si="7"/>
         <v>87.317976804123717</v>
       </c>
-      <c r="I158" t="s">
+      <c r="J158" t="s">
         <v>125</v>
       </c>
-      <c r="K158" t="s">
+      <c r="L158" t="s">
         <v>786</v>
       </c>
-      <c r="L158" t="s">
+      <c r="M158" t="s">
         <v>97</v>
       </c>
-      <c r="M158">
+      <c r="N158">
         <v>50.025313167508401</v>
       </c>
-      <c r="N158">
+      <c r="O158">
         <v>8.2383958452120396</v>
       </c>
-      <c r="O158" t="s">
+      <c r="P158" t="s">
         <v>107</v>
       </c>
-      <c r="P158" t="s">
+      <c r="Q158" t="s">
         <v>108</v>
       </c>
-      <c r="Q158" t="s">
+      <c r="R158" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>45143</v>
       </c>
@@ -12743,39 +13378,43 @@
         <v>103000000</v>
       </c>
       <c r="G159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.10299999999999999</v>
       </c>
-      <c r="H159" s="5">
-        <f t="shared" si="5"/>
+      <c r="H159">
+        <f t="shared" si="8"/>
+        <v>2.8371456185567016E-2</v>
+      </c>
+      <c r="I159" s="5">
+        <f t="shared" si="7"/>
         <v>28.371456185567016</v>
       </c>
-      <c r="I159" t="s">
+      <c r="J159" t="s">
         <v>125</v>
       </c>
-      <c r="K159" t="s">
+      <c r="L159" t="s">
         <v>790</v>
       </c>
-      <c r="L159" t="s">
+      <c r="M159" t="s">
         <v>791</v>
       </c>
-      <c r="M159">
+      <c r="N159">
         <v>49.975603410275397</v>
       </c>
-      <c r="N159">
+      <c r="O159">
         <v>8.0441372679257395</v>
       </c>
-      <c r="O159" t="s">
+      <c r="P159" t="s">
         <v>792</v>
       </c>
-      <c r="P159" t="s">
+      <c r="Q159" t="s">
         <v>99</v>
       </c>
-      <c r="Q159" t="s">
+      <c r="R159" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>45091</v>
       </c>
@@ -12795,39 +13434,43 @@
         <v>105000000</v>
       </c>
       <c r="G160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.105</v>
       </c>
-      <c r="H160" s="5">
-        <f t="shared" si="5"/>
+      <c r="H160">
+        <f t="shared" si="8"/>
+        <v>2.8922358247422685E-2</v>
+      </c>
+      <c r="I160" s="5">
+        <f t="shared" si="7"/>
         <v>28.922358247422686</v>
       </c>
-      <c r="I160" t="s">
+      <c r="J160" t="s">
         <v>95</v>
       </c>
-      <c r="K160" t="s">
+      <c r="L160" t="s">
         <v>797</v>
       </c>
-      <c r="L160" t="s">
+      <c r="M160" t="s">
         <v>119</v>
       </c>
-      <c r="M160">
+      <c r="N160">
         <v>49.603496074151501</v>
       </c>
-      <c r="N160">
+      <c r="O160">
         <v>7.17140668462104</v>
       </c>
-      <c r="O160" t="s">
+      <c r="P160" t="s">
         <v>120</v>
       </c>
-      <c r="P160" t="s">
+      <c r="Q160" t="s">
         <v>108</v>
       </c>
-      <c r="Q160" t="s">
+      <c r="R160" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>56260</v>
       </c>
@@ -12847,39 +13490,43 @@
         <v>123000000</v>
       </c>
       <c r="G161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.123</v>
       </c>
-      <c r="H161" s="5">
-        <f t="shared" si="5"/>
+      <c r="H161">
+        <f t="shared" si="8"/>
+        <v>3.3880476804123719E-2</v>
+      </c>
+      <c r="I161" s="5">
+        <f t="shared" si="7"/>
         <v>33.880476804123717</v>
       </c>
-      <c r="I161" t="s">
+      <c r="J161" t="s">
         <v>95</v>
       </c>
-      <c r="K161" t="s">
+      <c r="L161" t="s">
         <v>801</v>
       </c>
-      <c r="L161" t="s">
+      <c r="M161" t="s">
         <v>337</v>
       </c>
-      <c r="M161">
+      <c r="N161">
         <v>50.702416578351801</v>
       </c>
-      <c r="N161">
+      <c r="O161">
         <v>8.0731821024339006</v>
       </c>
-      <c r="O161" t="s">
+      <c r="P161" t="s">
         <v>120</v>
       </c>
-      <c r="P161" t="s">
+      <c r="Q161" t="s">
         <v>108</v>
       </c>
-      <c r="Q161" t="s">
+      <c r="R161" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>110284</v>
       </c>
@@ -12899,39 +13546,43 @@
         <v>183000000</v>
       </c>
       <c r="G162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.183</v>
       </c>
-      <c r="H162" s="5">
-        <f t="shared" si="5"/>
+      <c r="H162">
+        <f t="shared" si="8"/>
+        <v>5.0407538659793812E-2</v>
+      </c>
+      <c r="I162" s="5">
+        <f t="shared" si="7"/>
         <v>50.407538659793815</v>
       </c>
-      <c r="I162" t="s">
+      <c r="J162" t="s">
         <v>95</v>
       </c>
-      <c r="K162" t="s">
+      <c r="L162" t="s">
         <v>532</v>
       </c>
-      <c r="L162" t="s">
+      <c r="M162" t="s">
         <v>805</v>
       </c>
-      <c r="M162">
+      <c r="N162">
         <v>50.4320179048255</v>
       </c>
-      <c r="N162">
+      <c r="O162">
         <v>7.4081632475814203</v>
       </c>
-      <c r="O162" t="s">
+      <c r="P162" t="s">
         <v>120</v>
       </c>
-      <c r="P162" t="s">
+      <c r="Q162" t="s">
         <v>108</v>
       </c>
-      <c r="Q162" t="s">
+      <c r="R162" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>45040</v>
       </c>
@@ -12951,39 +13602,43 @@
         <v>265000000</v>
       </c>
       <c r="G163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.26500000000000001</v>
       </c>
-      <c r="H163" s="5">
-        <f t="shared" si="5"/>
+      <c r="H163">
+        <f t="shared" si="8"/>
+        <v>7.2994523195876293E-2</v>
+      </c>
+      <c r="I163" s="5">
+        <f t="shared" si="7"/>
         <v>72.994523195876297</v>
       </c>
-      <c r="I163" t="s">
+      <c r="J163" t="s">
         <v>219</v>
       </c>
-      <c r="K163" t="s">
+      <c r="L163" t="s">
         <v>809</v>
       </c>
-      <c r="L163" t="s">
+      <c r="M163" t="s">
         <v>810</v>
       </c>
-      <c r="M163">
+      <c r="N163">
         <v>50.3135652224111</v>
       </c>
-      <c r="N163">
+      <c r="O163">
         <v>7.2208290852366801</v>
       </c>
-      <c r="O163" t="s">
+      <c r="P163" t="s">
         <v>132</v>
       </c>
-      <c r="P163" t="s">
+      <c r="Q163" t="s">
         <v>133</v>
       </c>
-      <c r="Q163" t="s">
+      <c r="R163" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>44670</v>
       </c>
@@ -13003,39 +13658,43 @@
         <v>107000000</v>
       </c>
       <c r="G164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.107</v>
       </c>
-      <c r="H164" s="5">
-        <f t="shared" si="5"/>
+      <c r="H164">
+        <f t="shared" si="8"/>
+        <v>2.9473260309278351E-2</v>
+      </c>
+      <c r="I164" s="5">
+        <f t="shared" si="7"/>
         <v>29.473260309278352</v>
       </c>
-      <c r="I164" t="s">
+      <c r="J164" t="s">
         <v>95</v>
       </c>
-      <c r="K164" t="s">
+      <c r="L164" t="s">
         <v>814</v>
       </c>
-      <c r="L164" t="s">
+      <c r="M164" t="s">
         <v>815</v>
       </c>
-      <c r="M164">
+      <c r="N164">
         <v>51.377602651201798</v>
       </c>
-      <c r="N164">
+      <c r="O164">
         <v>7.4706744778173704</v>
       </c>
-      <c r="O164" t="s">
+      <c r="P164" t="s">
         <v>107</v>
       </c>
-      <c r="P164" t="s">
+      <c r="Q164" t="s">
         <v>108</v>
       </c>
-      <c r="Q164" t="s">
+      <c r="R164" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>44684</v>
       </c>
@@ -13055,39 +13714,43 @@
         <v>106000000</v>
       </c>
       <c r="G165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.106</v>
       </c>
-      <c r="H165" s="5">
-        <f t="shared" si="5"/>
+      <c r="H165">
+        <f t="shared" si="8"/>
+        <v>2.9197809278350518E-2</v>
+      </c>
+      <c r="I165" s="5">
+        <f t="shared" si="7"/>
         <v>29.197809278350519</v>
       </c>
-      <c r="I165" t="s">
+      <c r="J165" t="s">
         <v>95</v>
       </c>
-      <c r="K165" t="s">
+      <c r="L165" t="s">
         <v>819</v>
       </c>
-      <c r="L165" t="s">
+      <c r="M165" t="s">
         <v>332</v>
       </c>
-      <c r="M165">
+      <c r="N165">
         <v>51.396294709939397</v>
       </c>
-      <c r="N165">
+      <c r="O165">
         <v>7.69411350475717</v>
       </c>
-      <c r="O165" t="s">
+      <c r="P165" t="s">
         <v>107</v>
       </c>
-      <c r="P165" t="s">
+      <c r="Q165" t="s">
         <v>108</v>
       </c>
-      <c r="Q165" t="s">
+      <c r="R165" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>44668</v>
       </c>
@@ -13107,42 +13770,46 @@
         <v>806000000</v>
       </c>
       <c r="G166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.80600000000000005</v>
       </c>
-      <c r="H166" s="5">
-        <f t="shared" si="5"/>
+      <c r="H166">
+        <f t="shared" si="8"/>
+        <v>0.22201353092783507</v>
+      </c>
+      <c r="I166" s="5">
+        <f t="shared" si="7"/>
         <v>222.01353092783506</v>
       </c>
-      <c r="I166" t="s">
+      <c r="J166" t="s">
         <v>125</v>
       </c>
-      <c r="K166" t="s">
+      <c r="L166" t="s">
         <v>823</v>
       </c>
-      <c r="L166" t="s">
+      <c r="M166" t="s">
         <v>824</v>
       </c>
-      <c r="M166">
+      <c r="N166">
         <v>51.397702369138401</v>
       </c>
-      <c r="N166">
+      <c r="O166">
         <v>7.8416774941148004</v>
       </c>
-      <c r="O166" t="s">
+      <c r="P166" t="s">
         <v>167</v>
       </c>
-      <c r="P166" t="s">
+      <c r="Q166" t="s">
         <v>168</v>
       </c>
-      <c r="Q166" t="s">
+      <c r="R166" t="s">
         <v>169</v>
       </c>
-      <c r="R166" t="s">
+      <c r="S166" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>44705</v>
       </c>
@@ -13162,35 +13829,39 @@
         <v>255000000</v>
       </c>
       <c r="G167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.255</v>
       </c>
-      <c r="H167" s="5">
-        <f t="shared" si="5"/>
+      <c r="H167">
+        <f t="shared" si="8"/>
+        <v>7.0240012886597952E-2</v>
+      </c>
+      <c r="I167" s="5">
+        <f t="shared" si="7"/>
         <v>70.240012886597953</v>
       </c>
-      <c r="I167" t="s">
+      <c r="J167" t="s">
         <v>261</v>
       </c>
-      <c r="K167" t="s">
+      <c r="L167" t="s">
         <v>828</v>
       </c>
-      <c r="L167" t="s">
+      <c r="M167" t="s">
         <v>337</v>
       </c>
-      <c r="M167">
+      <c r="N167">
         <v>51.680056449757203</v>
       </c>
-      <c r="N167">
+      <c r="O167">
         <v>7.7447930491470798</v>
       </c>
-      <c r="O167" t="s">
+      <c r="P167" t="s">
         <v>120</v>
       </c>
-      <c r="P167" t="s">
+      <c r="Q167" t="s">
         <v>108</v>
       </c>
-      <c r="Q167" t="s">
+      <c r="R167" t="s">
         <v>121</v>
       </c>
     </row>
@@ -13204,7 +13875,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13245,10 +13916,10 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>0.03</v>
       </c>
       <c r="E2">
-        <v>400</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -3331,8 +3331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,7 +3375,7 @@
         <v>27</v>
       </c>
       <c r="E2">
-        <v>858</v>
+        <v>850008</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3457,7 +3457,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13874,7 +13874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -3214,7 +3214,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>9999999</v>
+        <v>99999999</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>9999999</v>
+        <v>99999999</v>
       </c>
     </row>
   </sheetData>
@@ -3331,7 +3331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -3456,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="G8" t="s">
         <v>29</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="G11" t="s">
         <v>29</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>999999</v>
+        <v>99999999</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -267,6 +267,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+For hydrogen fuel transformers only
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D10" authorId="0">
       <text>
         <r>
@@ -330,7 +355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="834">
   <si>
     <t>Name</t>
   </si>
@@ -575,6 +600,9 @@
     <t>[Mt CO2/a]</t>
   </si>
   <si>
+    <t>Plant size [MW]</t>
+  </si>
+  <si>
     <t>MethodTypeName</t>
   </si>
   <si>
@@ -2828,14 +2856,14 @@
     <t>MinCO2PlantSize</t>
   </si>
   <si>
-    <t>Plant Size [MW]</t>
+    <t>CO2 Kg/MJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2863,6 +2891,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3372,7 +3413,7 @@
         <v>27</v>
       </c>
       <c r="E2">
-        <v>850008</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3451,10 +3492,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,24 +3505,24 @@
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3501,37 +3542,40 @@
         <v>71</v>
       </c>
       <c r="G1" t="s">
+        <v>833</v>
+      </c>
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3550,26 +3594,29 @@
       <c r="F2" s="2">
         <v>99999999</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.33</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.67</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3588,20 +3635,23 @@
       <c r="F3" s="2">
         <v>99999999</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>29</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3620,20 +3670,23 @@
       <c r="F4" s="2">
         <v>99999999</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>8</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -3652,20 +3705,23 @@
       <c r="F5" s="2">
         <v>99999999</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>29</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3684,20 +3740,23 @@
       <c r="F6" s="2">
         <v>99999999</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>8</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -3717,20 +3776,23 @@
       <c r="F7" s="2">
         <v>99999999</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>8</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>27</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -3750,20 +3812,23 @@
       <c r="F8" s="2">
         <v>99999999</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
         <v>29</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>27</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -3783,20 +3848,23 @@
       <c r="F9" s="2">
         <v>99999999</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>29</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>28</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -3816,20 +3884,23 @@
       <c r="F10" s="2">
         <v>99999999</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>29</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>28</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -3849,20 +3920,23 @@
       <c r="F11" s="2">
         <v>99999999</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>29</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>28</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -3882,16 +3956,19 @@
       <c r="F12" s="2">
         <v>99999999</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
         <v>29</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>28</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1</v>
       </c>
     </row>
@@ -4318,7 +4395,7 @@
   <dimension ref="A1:R167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4364,37 +4441,37 @@
         <v>80</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>832</v>
+        <v>81</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -4402,13 +4479,13 @@
         <v>74679</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2">
         <v>450</v>
@@ -4425,13 +4502,13 @@
         <v>27.820554123711347</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M2">
         <v>51.294178784737198</v>
@@ -4440,16 +4517,16 @@
         <v>13.4001113756474</v>
       </c>
       <c r="O2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -4457,13 +4534,13 @@
         <v>74373</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3">
         <v>450</v>
@@ -4480,13 +4557,13 @@
         <v>60.874677835051557</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M3">
         <v>51.581963170143801</v>
@@ -4495,13 +4572,13 @@
         <v>13.977446475568099</v>
       </c>
       <c r="O3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -4509,13 +4586,13 @@
         <v>74374</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E4">
         <v>450</v>
@@ -4532,13 +4609,13 @@
         <v>116.79123711340208</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4">
         <v>51.478473409552997</v>
@@ -4547,16 +4624,16 @@
         <v>13.8893715283799</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -4564,13 +4641,13 @@
         <v>74683</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E5">
         <v>450</v>
@@ -4587,13 +4664,13 @@
         <v>48.479381443298969</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M5">
         <v>51.450436872298702</v>
@@ -4602,13 +4679,13 @@
         <v>14.112097841254601</v>
       </c>
       <c r="O5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -4616,13 +4693,13 @@
         <v>74742</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E6">
         <v>350</v>
@@ -4639,13 +4716,13 @@
         <v>311.25966494845363</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M6">
         <v>51.1914252047494</v>
@@ -4654,16 +4731,16 @@
         <v>12.3560994005555</v>
       </c>
       <c r="O6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -4671,13 +4748,13 @@
         <v>74758</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>350</v>
@@ -4694,13 +4771,13 @@
         <v>55.641108247422693</v>
       </c>
       <c r="I7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M7">
         <v>51.464619305976598</v>
@@ -4709,13 +4786,13 @@
         <v>12.5913417810146</v>
       </c>
       <c r="O7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -4723,13 +4800,13 @@
         <v>46982</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E8">
         <v>350</v>
@@ -4746,13 +4823,13 @@
         <v>128.36018041237116</v>
       </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8">
         <v>51.461614296796697</v>
@@ -4761,13 +4838,13 @@
         <v>11.717906668617401</v>
       </c>
       <c r="O8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -4775,13 +4852,13 @@
         <v>73639</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E9">
         <v>350</v>
@@ -4798,13 +4875,13 @@
         <v>561.92010309278362</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9">
         <v>51.2896773043148</v>
@@ -4813,13 +4890,13 @@
         <v>11.9905821539726</v>
       </c>
       <c r="O9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -4827,13 +4904,13 @@
         <v>74855</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E10">
         <v>350</v>
@@ -4850,13 +4927,13 @@
         <v>122.30025773195878</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M10">
         <v>51.322599854938296</v>
@@ -4865,16 +4942,16 @@
         <v>12.002098596645499</v>
       </c>
       <c r="O10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -4882,13 +4959,13 @@
         <v>46914</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E11">
         <v>350</v>
@@ -4905,13 +4982,13 @@
         <v>114.5876288659794</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M11">
         <v>51.329938987218597</v>
@@ -4920,13 +4997,13 @@
         <v>11.995801503132499</v>
       </c>
       <c r="O11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -4934,13 +5011,13 @@
         <v>110066</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E12">
         <v>350</v>
@@ -4957,13 +5034,13 @@
         <v>53.162048969072174</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M12">
         <v>51.290101416072197</v>
@@ -4972,16 +5049,16 @@
         <v>11.9958026383124</v>
       </c>
       <c r="O12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -4989,13 +5066,13 @@
         <v>46834</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E13">
         <v>350</v>
@@ -5012,13 +5089,13 @@
         <v>46.826675257731971</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13">
         <v>51.400987112374899</v>
@@ -5027,16 +5104,16 @@
         <v>11.9340106629727</v>
       </c>
       <c r="O13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -5044,13 +5121,13 @@
         <v>46837</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E14">
         <v>350</v>
@@ -5067,13 +5144,13 @@
         <v>177.11501288659798</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14">
         <v>51.816375212631499</v>
@@ -5082,13 +5159,13 @@
         <v>11.7496465999851</v>
       </c>
       <c r="O14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -5096,13 +5173,13 @@
         <v>46949</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E15">
         <v>350</v>
@@ -5119,13 +5196,13 @@
         <v>91.725193298969074</v>
       </c>
       <c r="I15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15">
         <v>51.801144115843897</v>
@@ -5134,16 +5211,16 @@
         <v>11.7506195932938</v>
       </c>
       <c r="O15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -5151,13 +5228,13 @@
         <v>46830</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E16">
         <v>350</v>
@@ -5174,13 +5251,13 @@
         <v>28.371456185567016</v>
       </c>
       <c r="I16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16">
         <v>51.695957393098098</v>
@@ -5189,13 +5266,13 @@
         <v>11.7569547595901</v>
       </c>
       <c r="O16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -5203,13 +5280,13 @@
         <v>46897</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E17">
         <v>350</v>
@@ -5226,13 +5303,13 @@
         <v>240.19329896907217</v>
       </c>
       <c r="I17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17">
         <v>51.270219602169199</v>
@@ -5241,16 +5318,16 @@
         <v>11.660337780700599</v>
       </c>
       <c r="O17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -5258,13 +5335,13 @@
         <v>46944</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E18">
         <v>350</v>
@@ -5281,13 +5358,13 @@
         <v>82.359858247422679</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18">
         <v>51.181555468296999</v>
@@ -5296,13 +5373,13 @@
         <v>12.019452916434</v>
       </c>
       <c r="O18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -5310,13 +5387,13 @@
         <v>46956</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E19">
         <v>350</v>
@@ -5333,13 +5410,13 @@
         <v>104.39594072164951</v>
       </c>
       <c r="I19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M19">
         <v>51.054381557725399</v>
@@ -5348,16 +5425,16 @@
         <v>12.1181514505625</v>
       </c>
       <c r="O19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -5365,13 +5442,13 @@
         <v>46955</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E20">
         <v>350</v>
@@ -5388,13 +5465,13 @@
         <v>48.754832474226816</v>
       </c>
       <c r="I20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M20">
         <v>51.026991924447898</v>
@@ -5403,16 +5480,16 @@
         <v>12.0883403042306</v>
       </c>
       <c r="O20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -5420,13 +5497,13 @@
         <v>46869</v>
       </c>
       <c r="B21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E21">
         <v>350</v>
@@ -5443,13 +5520,13 @@
         <v>33.054123711340203</v>
       </c>
       <c r="I21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M21">
         <v>51.651232675239697</v>
@@ -5458,13 +5535,13 @@
         <v>12.243387588332</v>
       </c>
       <c r="O21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -5472,13 +5549,13 @@
         <v>46945</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E22">
         <v>350</v>
@@ -5495,13 +5572,13 @@
         <v>652.8189432989692</v>
       </c>
       <c r="I22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M22">
         <v>51.878593369807902</v>
@@ -5510,13 +5587,13 @@
         <v>12.575128547133501</v>
       </c>
       <c r="O22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -5524,13 +5601,13 @@
         <v>46236</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E23">
         <v>310</v>
@@ -5547,13 +5624,13 @@
         <v>109.62951030927837</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M23">
         <v>52.5290382462859</v>
@@ -5562,13 +5639,13 @@
         <v>13.237915493370901</v>
       </c>
       <c r="O23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -5576,13 +5653,13 @@
         <v>110415</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E24">
         <v>270</v>
@@ -5599,13 +5676,13 @@
         <v>38.012242268041248</v>
       </c>
       <c r="I24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M24">
         <v>52.5276913202364</v>
@@ -5614,13 +5691,13 @@
         <v>12.359030724397901</v>
       </c>
       <c r="O24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -5628,13 +5705,13 @@
         <v>46317</v>
       </c>
       <c r="B25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E25">
         <v>340</v>
@@ -5651,13 +5728,13 @@
         <v>407.66752577319591</v>
       </c>
       <c r="I25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M25">
         <v>52.489069264681298</v>
@@ -5666,16 +5743,16 @@
         <v>13.8369291710776</v>
       </c>
       <c r="O25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -5683,13 +5760,13 @@
         <v>110413</v>
       </c>
       <c r="B26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E26">
         <v>340</v>
@@ -5706,13 +5783,13 @@
         <v>68.311855670103085</v>
       </c>
       <c r="I26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26">
         <v>52.490654045305099</v>
@@ -5721,13 +5798,13 @@
         <v>13.8307896044107</v>
       </c>
       <c r="O26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -5735,13 +5812,13 @@
         <v>46322</v>
       </c>
       <c r="B27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E27">
         <v>340</v>
@@ -5758,13 +5835,13 @@
         <v>62.251932989690722</v>
       </c>
       <c r="I27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M27">
         <v>52.486448050105402</v>
@@ -5773,16 +5850,16 @@
         <v>13.8300469517844</v>
       </c>
       <c r="O27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -5790,13 +5867,13 @@
         <v>46378</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E28">
         <v>340</v>
@@ -5813,13 +5890,13 @@
         <v>115.13853092783505</v>
       </c>
       <c r="I28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M28">
         <v>52.079298457823199</v>
@@ -5828,13 +5905,13 @@
         <v>13.5082293309937</v>
       </c>
       <c r="O28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -5842,13 +5919,13 @@
         <v>74359</v>
       </c>
       <c r="B29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E29">
         <v>400</v>
@@ -5865,13 +5942,13 @@
         <v>92.276095360824755</v>
       </c>
       <c r="I29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M29">
         <v>52.181261270441702</v>
@@ -5880,13 +5957,13 @@
         <v>14.2557528609744</v>
       </c>
       <c r="O29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -5894,13 +5971,13 @@
         <v>46328</v>
       </c>
       <c r="B30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E30">
         <v>415</v>
@@ -5917,13 +5994,13 @@
         <v>526.11146907216505</v>
       </c>
       <c r="I30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M30">
         <v>52.166140522248902</v>
@@ -5932,13 +6009,13 @@
         <v>14.6176822369296</v>
       </c>
       <c r="O30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -5946,13 +6023,13 @@
         <v>74350</v>
       </c>
       <c r="B31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E31">
         <v>360</v>
@@ -5969,13 +6046,13 @@
         <v>1107.3131443298969</v>
       </c>
       <c r="I31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M31">
         <v>53.087585291388201</v>
@@ -5984,13 +6061,13 @@
         <v>14.238121533328099</v>
       </c>
       <c r="O31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -5998,13 +6075,13 @@
         <v>57513</v>
       </c>
       <c r="B32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E32">
         <v>360</v>
@@ -6021,13 +6098,13 @@
         <v>100.5396262886598</v>
       </c>
       <c r="I32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K32" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M32">
         <v>53.079099428239097</v>
@@ -6036,13 +6113,13 @@
         <v>14.3197657762307</v>
       </c>
       <c r="O32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -6050,13 +6127,13 @@
         <v>43246</v>
       </c>
       <c r="B33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C33" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E33">
         <v>75</v>
@@ -6073,13 +6150,13 @@
         <v>42.144007731958759</v>
       </c>
       <c r="I33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M33">
         <v>53.534504413905204</v>
@@ -6088,13 +6165,13 @@
         <v>9.9429255649444706</v>
       </c>
       <c r="O33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -6102,13 +6179,13 @@
         <v>73883</v>
       </c>
       <c r="B34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C34" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E34">
         <v>75</v>
@@ -6125,13 +6202,13 @@
         <v>47.102126288659797</v>
       </c>
       <c r="I34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K34" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M34">
         <v>53.517985331910403</v>
@@ -6140,16 +6217,16 @@
         <v>10.0349698471196</v>
       </c>
       <c r="O34" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P34" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -6157,13 +6234,13 @@
         <v>43203</v>
       </c>
       <c r="B35" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C35" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E35">
         <v>75</v>
@@ -6180,13 +6257,13 @@
         <v>212.09729381443302</v>
       </c>
       <c r="I35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K35" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M35">
         <v>53.477085862413098</v>
@@ -6195,13 +6272,13 @@
         <v>9.9515818942464396</v>
       </c>
       <c r="O35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -6209,13 +6286,13 @@
         <v>54392</v>
       </c>
       <c r="B36" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D36" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E36">
         <v>75</v>
@@ -6232,13 +6309,13 @@
         <v>88.695231958762903</v>
       </c>
       <c r="I36" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K36" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M36">
         <v>53.486590082136203</v>
@@ -6247,13 +6324,13 @@
         <v>9.9702420341148805</v>
       </c>
       <c r="O36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -6261,13 +6338,13 @@
         <v>220711</v>
       </c>
       <c r="B37" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C37" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E37">
         <v>75</v>
@@ -6284,13 +6361,13 @@
         <v>61.425579896907223</v>
       </c>
       <c r="I37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K37" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L37" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M37">
         <v>53.518694432629403</v>
@@ -6299,16 +6376,16 @@
         <v>9.9529212725690197</v>
       </c>
       <c r="O37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -6316,13 +6393,13 @@
         <v>43243</v>
       </c>
       <c r="B38" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C38" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E38">
         <v>75</v>
@@ -6339,13 +6416,13 @@
         <v>88.970682989690744</v>
       </c>
       <c r="I38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K38" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M38">
         <v>53.521166226395202</v>
@@ -6354,13 +6431,13 @@
         <v>9.9347254971451004</v>
       </c>
       <c r="O38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -6368,13 +6445,13 @@
         <v>43205</v>
       </c>
       <c r="B39" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C39" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E39">
         <v>75</v>
@@ -6391,13 +6468,13 @@
         <v>61.976481958762903</v>
       </c>
       <c r="I39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K39" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M39">
         <v>53.512395480537698</v>
@@ -6406,16 +6483,16 @@
         <v>9.8872098015512808</v>
       </c>
       <c r="O39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P39" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q39" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R39" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -6423,13 +6500,13 @@
         <v>73896</v>
       </c>
       <c r="B40" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D40" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E40">
         <v>75</v>
@@ -6446,13 +6523,13 @@
         <v>164.16881443298971</v>
       </c>
       <c r="I40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K40" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M40">
         <v>53.632479486695203</v>
@@ -6461,16 +6538,16 @@
         <v>9.5073096455793902</v>
       </c>
       <c r="O40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -6478,13 +6555,13 @@
         <v>43348</v>
       </c>
       <c r="B41" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C41" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D41" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E41">
         <v>75</v>
@@ -6501,13 +6578,13 @@
         <v>114.03672680412372</v>
       </c>
       <c r="I41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K41" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M41">
         <v>53.644293858703101</v>
@@ -6516,16 +6593,16 @@
         <v>9.4979364432588191</v>
       </c>
       <c r="O41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R41" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -6533,13 +6610,13 @@
         <v>69944</v>
       </c>
       <c r="B42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C42" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D42" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E42">
         <v>75</v>
@@ -6556,13 +6633,13 @@
         <v>134.69555412371136</v>
       </c>
       <c r="I42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K42" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L42" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M42">
         <v>53.532164059482803</v>
@@ -6571,13 +6648,13 @@
         <v>10.074377703343901</v>
       </c>
       <c r="O42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -6585,13 +6662,13 @@
         <v>105004</v>
       </c>
       <c r="B43" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D43" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E43">
         <v>80</v>
@@ -6608,13 +6685,13 @@
         <v>88.970682989690744</v>
       </c>
       <c r="I43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K43" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L43" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M43">
         <v>53.619281669895798</v>
@@ -6623,13 +6700,13 @@
         <v>10.224542630666599</v>
       </c>
       <c r="O43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -6637,13 +6714,13 @@
         <v>104958</v>
       </c>
       <c r="B44" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C44" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D44" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E44">
         <v>80</v>
@@ -6660,13 +6737,13 @@
         <v>36.084085051546403</v>
       </c>
       <c r="I44" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K44" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M44">
         <v>54.307325357642902</v>
@@ -6675,13 +6752,13 @@
         <v>10.111066950361399</v>
       </c>
       <c r="O44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -6689,13 +6766,13 @@
         <v>104967</v>
       </c>
       <c r="B45" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C45" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D45" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E45">
         <v>70</v>
@@ -6712,13 +6789,13 @@
         <v>110.18041237113405</v>
       </c>
       <c r="I45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K45" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L45" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M45">
         <v>54.082960084593601</v>
@@ -6727,13 +6804,13 @@
         <v>9.9910249758907597</v>
       </c>
       <c r="O45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -6741,13 +6818,13 @@
         <v>43104</v>
       </c>
       <c r="B46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D46" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -6764,13 +6841,13 @@
         <v>51.509342783505161</v>
       </c>
       <c r="I46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K46" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M46">
         <v>53.912877499535398</v>
@@ -6779,16 +6856,16 @@
         <v>9.1579628979056107</v>
       </c>
       <c r="O46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -6796,13 +6873,13 @@
         <v>43106</v>
       </c>
       <c r="B47" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C47" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D47" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -6819,13 +6896,13 @@
         <v>45.724871134020617</v>
       </c>
       <c r="I47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K47" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L47" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M47">
         <v>53.901960856324798</v>
@@ -6834,16 +6911,16 @@
         <v>9.1865960412220407</v>
       </c>
       <c r="O47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R47" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -6851,13 +6928,13 @@
         <v>43127</v>
       </c>
       <c r="B48" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C48" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D48" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E48">
         <v>20</v>
@@ -6874,13 +6951,13 @@
         <v>322.27770618556701</v>
       </c>
       <c r="I48" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K48" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L48" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M48">
         <v>53.8741649175332</v>
@@ -6889,16 +6966,16 @@
         <v>9.5832685959914503</v>
       </c>
       <c r="O48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -6906,13 +6983,13 @@
         <v>43123</v>
       </c>
       <c r="B49" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C49" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D49" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E49">
         <v>10</v>
@@ -6929,13 +7006,13 @@
         <v>235.78608247422682</v>
       </c>
       <c r="I49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K49" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M49">
         <v>53.9106443443535</v>
@@ -6944,16 +7021,16 @@
         <v>9.2078709439190103</v>
       </c>
       <c r="O49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -6961,13 +7038,13 @@
         <v>43110</v>
       </c>
       <c r="B50" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C50" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D50" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E50">
         <v>10</v>
@@ -6984,13 +7061,13 @@
         <v>268.01385309278356</v>
       </c>
       <c r="I50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K50" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L50" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M50">
         <v>54.160831208766602</v>
@@ -6999,13 +7076,13 @@
         <v>9.0797744318790397</v>
       </c>
       <c r="O50" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -7013,13 +7090,13 @@
         <v>70343</v>
       </c>
       <c r="B51" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C51" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D51" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -7036,13 +7113,13 @@
         <v>325.03221649484539</v>
       </c>
       <c r="I51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L51" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M51">
         <v>52.956195920197203</v>
@@ -7051,13 +7128,13 @@
         <v>8.2274223920978393</v>
       </c>
       <c r="O51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -7065,13 +7142,13 @@
         <v>43581</v>
       </c>
       <c r="B52" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C52" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D52" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E52">
         <v>20</v>
@@ -7088,13 +7165,13 @@
         <v>81.808956185567013</v>
       </c>
       <c r="I52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K52" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L52" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M52">
         <v>53.403055981142501</v>
@@ -7103,13 +7180,13 @@
         <v>8.1328158702132995</v>
       </c>
       <c r="O52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -7117,13 +7194,13 @@
         <v>70297</v>
       </c>
       <c r="B53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C53" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D53" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E53">
         <v>10</v>
@@ -7140,13 +7217,13 @@
         <v>40.49130154639176</v>
       </c>
       <c r="I53" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K53" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L53" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M53">
         <v>53.6263046765485</v>
@@ -7155,16 +7232,16 @@
         <v>8.0704225115173092</v>
       </c>
       <c r="O53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -7172,13 +7249,13 @@
         <v>43366</v>
       </c>
       <c r="B54" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C54" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D54" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E54">
         <v>50</v>
@@ -7195,13 +7272,13 @@
         <v>74.92268041237115</v>
       </c>
       <c r="I54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K54" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L54" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M54">
         <v>52.977748722659399</v>
@@ -7210,13 +7287,13 @@
         <v>7.3623602809325996</v>
       </c>
       <c r="O54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -7224,13 +7301,13 @@
         <v>43561</v>
       </c>
       <c r="B55" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C55" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D55" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E55">
         <v>20</v>
@@ -7247,13 +7324,13 @@
         <v>34.982280927835056</v>
       </c>
       <c r="I55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K55" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M55">
         <v>53.530684365046397</v>
@@ -7262,16 +7339,16 @@
         <v>8.5467410445113607</v>
       </c>
       <c r="O55" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R55" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -7279,13 +7356,13 @@
         <v>43735</v>
       </c>
       <c r="B56" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C56" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D56" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E56">
         <v>20</v>
@@ -7302,13 +7379,13 @@
         <v>78.503543814432987</v>
       </c>
       <c r="I56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K56" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L56" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M56">
         <v>53.5478948752883</v>
@@ -7317,13 +7394,13 @@
         <v>8.6180060058053893</v>
       </c>
       <c r="O56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -7331,13 +7408,13 @@
         <v>43721</v>
       </c>
       <c r="B57" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C57" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D57" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E57">
         <v>80</v>
@@ -7354,13 +7431,13 @@
         <v>804.31701030927843</v>
       </c>
       <c r="I57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K57" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L57" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M57">
         <v>53.124930440425203</v>
@@ -7369,13 +7446,13 @@
         <v>8.6867285296002308</v>
       </c>
       <c r="O57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q57" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -7383,13 +7460,13 @@
         <v>73960</v>
       </c>
       <c r="B58" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C58" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D58" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E58">
         <v>80</v>
@@ -7406,13 +7483,13 @@
         <v>151.22261597938149</v>
       </c>
       <c r="I58" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K58" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M58">
         <v>53.124930440425203</v>
@@ -7421,16 +7498,16 @@
         <v>8.6867285296002308</v>
       </c>
       <c r="O58" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q58" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="R58" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -7438,13 +7515,13 @@
         <v>110171</v>
       </c>
       <c r="B59" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C59" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D59" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E59">
         <v>80</v>
@@ -7461,13 +7538,13 @@
         <v>74.09632731958763</v>
       </c>
       <c r="I59" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K59" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L59" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M59">
         <v>53.124751404933903</v>
@@ -7476,13 +7553,13 @@
         <v>8.7272131023140407</v>
       </c>
       <c r="O59" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -7490,13 +7567,13 @@
         <v>43505</v>
       </c>
       <c r="B60" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C60" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D60" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E60">
         <v>140</v>
@@ -7513,13 +7590,13 @@
         <v>45.449420103092791</v>
       </c>
       <c r="I60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K60" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L60" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M60">
         <v>52.978367373705403</v>
@@ -7528,16 +7605,16 @@
         <v>10.5595538731268</v>
       </c>
       <c r="O60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -7545,13 +7622,13 @@
         <v>43407</v>
       </c>
       <c r="B61" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C61" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D61" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E61">
         <v>170</v>
@@ -7568,13 +7645,13 @@
         <v>67.760953608247434</v>
       </c>
       <c r="I61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L61" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M61">
         <v>52.4108236515819</v>
@@ -7583,13 +7660,13 @@
         <v>9.8603980079154798</v>
       </c>
       <c r="O61" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P61" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -7597,13 +7674,13 @@
         <v>43479</v>
       </c>
       <c r="B62" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C62" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D62" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E62">
         <v>210</v>
@@ -7620,13 +7697,13 @@
         <v>91.174291237113408</v>
       </c>
       <c r="I62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K62" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L62" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M62">
         <v>51.985962565496003</v>
@@ -7635,13 +7712,13 @@
         <v>9.8207632037041694</v>
       </c>
       <c r="O62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -7649,13 +7726,13 @@
         <v>43484</v>
       </c>
       <c r="B63" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C63" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D63" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E63">
         <v>190</v>
@@ -7672,13 +7749,13 @@
         <v>33.329574742268044</v>
       </c>
       <c r="I63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K63" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L63" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M63">
         <v>52.170904915907798</v>
@@ -7687,16 +7764,16 @@
         <v>9.7950633215402494</v>
       </c>
       <c r="O63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P63" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R63" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -7704,13 +7781,13 @@
         <v>43306</v>
       </c>
       <c r="B64" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C64" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D64" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E64">
         <v>190</v>
@@ -7727,13 +7804,13 @@
         <v>45.173969072164951</v>
       </c>
       <c r="I64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K64" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L64" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M64">
         <v>52.316356455016198</v>
@@ -7742,13 +7819,13 @@
         <v>10.238186117918801</v>
       </c>
       <c r="O64" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P64" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q64" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -7756,13 +7833,13 @@
         <v>43428</v>
       </c>
       <c r="B65" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C65" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D65" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E65">
         <v>190</v>
@@ -7779,13 +7856,13 @@
         <v>169.95328608247422</v>
       </c>
       <c r="I65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K65" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L65" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M65">
         <v>52.349831304100199</v>
@@ -7794,16 +7871,16 @@
         <v>9.8859338711907707</v>
       </c>
       <c r="O65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q65" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -7811,13 +7888,13 @@
         <v>43455</v>
       </c>
       <c r="B66" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C66" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D66" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E66">
         <v>190</v>
@@ -7834,13 +7911,13 @@
         <v>114.5876288659794</v>
       </c>
       <c r="I66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K66" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M66">
         <v>52.098869427878</v>
@@ -7849,13 +7926,13 @@
         <v>9.3883994113938503</v>
       </c>
       <c r="O66" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P66" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -7863,13 +7940,13 @@
         <v>44389</v>
       </c>
       <c r="B67" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C67" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D67" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E67">
         <v>230</v>
@@ -7886,13 +7963,13 @@
         <v>63.629188144329916</v>
       </c>
       <c r="I67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K67" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L67" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M67">
         <v>51.698988473224198</v>
@@ -7901,16 +7978,16 @@
         <v>8.7470409073864008</v>
       </c>
       <c r="O67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P67" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q67" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -7918,13 +7995,13 @@
         <v>44419</v>
       </c>
       <c r="B68" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C68" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D68" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E68">
         <v>230</v>
@@ -7941,13 +8018,13 @@
         <v>71.066365979381445</v>
       </c>
       <c r="I68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K68" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L68" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M68">
         <v>51.915454926183003</v>
@@ -7956,13 +8033,13 @@
         <v>8.4000246978093802</v>
       </c>
       <c r="O68" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -7970,13 +8047,13 @@
         <v>44435</v>
       </c>
       <c r="B69" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C69" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D69" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E69">
         <v>230</v>
@@ -7993,13 +8070,13 @@
         <v>106.87500000000001</v>
       </c>
       <c r="I69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K69" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L69" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M69">
         <v>52.042568657573199</v>
@@ -8008,13 +8085,13 @@
         <v>8.6062566081345597</v>
       </c>
       <c r="O69" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P69" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q69" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -8022,13 +8099,13 @@
         <v>44820</v>
       </c>
       <c r="B70" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C70" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D70" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E70">
         <v>330</v>
@@ -8045,13 +8122,13 @@
         <v>59.77287371134021</v>
       </c>
       <c r="I70" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K70" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L70" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M70">
         <v>50.8189066798328</v>
@@ -8060,13 +8137,13 @@
         <v>9.0111438573788902</v>
       </c>
       <c r="O70" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P70" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q70" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -8074,13 +8151,13 @@
         <v>44882</v>
       </c>
       <c r="B71" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C71" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D71" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E71">
         <v>360</v>
@@ -8097,13 +8174,13 @@
         <v>30.299613402061855</v>
       </c>
       <c r="I71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K71" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M71">
         <v>50.574941180031203</v>
@@ -8112,13 +8189,13 @@
         <v>8.4892286862910797</v>
       </c>
       <c r="O71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q71" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -8126,13 +8203,13 @@
         <v>45027</v>
       </c>
       <c r="B72" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C72" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D72" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E72">
         <v>360</v>
@@ -8149,13 +8226,13 @@
         <v>53.98840206185568</v>
       </c>
       <c r="I72" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K72" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L72" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M72">
         <v>50.567510560429902</v>
@@ -8164,13 +8241,13 @@
         <v>9.6816192592900698</v>
       </c>
       <c r="O72" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q72" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -8178,13 +8255,13 @@
         <v>45034</v>
       </c>
       <c r="B73" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C73" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D73" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E73">
         <v>360</v>
@@ -8201,13 +8278,13 @@
         <v>56.192010309278359</v>
       </c>
       <c r="I73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K73" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L73" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M73">
         <v>50.584524444772804</v>
@@ -8216,16 +8293,16 @@
         <v>9.5095189265472406</v>
       </c>
       <c r="O73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R73" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -8233,13 +8310,13 @@
         <v>189271</v>
       </c>
       <c r="B74" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C74" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D74" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E74">
         <v>360</v>
@@ -8256,13 +8333,13 @@
         <v>81.258054123711347</v>
       </c>
       <c r="I74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K74" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L74" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M74">
         <v>50.893299752155798</v>
@@ -8271,13 +8348,13 @@
         <v>9.9981132715770098</v>
       </c>
       <c r="O74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -8285,13 +8362,13 @@
         <v>71806</v>
       </c>
       <c r="B75" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C75" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D75" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E75">
         <v>360</v>
@@ -8308,13 +8385,13 @@
         <v>58.946520618556704</v>
       </c>
       <c r="I75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K75" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M75">
         <v>50.893588796566803</v>
@@ -8323,13 +8400,13 @@
         <v>9.9958586092397095</v>
       </c>
       <c r="O75" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q75" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -8337,13 +8414,13 @@
         <v>71805</v>
       </c>
       <c r="B76" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C76" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D76" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E76">
         <v>360</v>
@@ -8360,13 +8437,13 @@
         <v>77.677190721649481</v>
       </c>
       <c r="I76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K76" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L76" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M76">
         <v>50.839191445937999</v>
@@ -8375,13 +8452,13 @@
         <v>9.9808527457531309</v>
       </c>
       <c r="O76" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P76" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q76" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
@@ -8389,13 +8466,13 @@
         <v>73702</v>
       </c>
       <c r="B77" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C77" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D77" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E77">
         <v>360</v>
@@ -8412,13 +8489,13 @@
         <v>39.114046391752574</v>
       </c>
       <c r="I77" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K77" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M77">
         <v>50.812188264295202</v>
@@ -8427,13 +8504,13 @@
         <v>9.9772920431167496</v>
       </c>
       <c r="O77" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P77" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q77" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -8441,13 +8518,13 @@
         <v>110279</v>
       </c>
       <c r="B78" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C78" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D78" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E78">
         <v>270</v>
@@ -8464,13 +8541,13 @@
         <v>103.01868556701032</v>
       </c>
       <c r="I78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K78" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L78" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M78">
         <v>51.3180987716012</v>
@@ -8479,13 +8556,13 @@
         <v>9.8491974316904702</v>
       </c>
       <c r="O78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -8493,13 +8570,13 @@
         <v>47048</v>
       </c>
       <c r="B79" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C79" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D79" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E79">
         <v>290</v>
@@ -8516,13 +8593,13 @@
         <v>280.96005154639181</v>
       </c>
       <c r="I79" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K79" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L79" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M79">
         <v>51.362759732841099</v>
@@ -8531,16 +8608,16 @@
         <v>10.483568267980599</v>
       </c>
       <c r="O79" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P79" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q79" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -8548,13 +8625,13 @@
         <v>43283</v>
       </c>
       <c r="B80" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C80" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D80" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E80">
         <v>200</v>
@@ -8571,13 +8648,13 @@
         <v>2046.6011597938145</v>
       </c>
       <c r="I80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K80" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L80" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M80">
         <v>52.154764924298803</v>
@@ -8586,13 +8663,13 @@
         <v>10.4030753147256</v>
       </c>
       <c r="O80" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P80" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q80" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -8600,13 +8677,13 @@
         <v>43257</v>
       </c>
       <c r="B81" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C81" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D81" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E81">
         <v>230</v>
@@ -8623,13 +8700,13 @@
         <v>123.1266108247423</v>
       </c>
       <c r="I81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K81" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L81" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M81">
         <v>52.170050085929297</v>
@@ -8638,13 +8715,13 @@
         <v>10.9777511752996</v>
       </c>
       <c r="O81" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P81" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -8652,13 +8729,13 @@
         <v>43298</v>
       </c>
       <c r="B82" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C82" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D82" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E82">
         <v>230</v>
@@ -8675,13 +8752,13 @@
         <v>92.551546391752609</v>
       </c>
       <c r="I82" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K82" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L82" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M82">
         <v>51.843585147378299</v>
@@ -8690,16 +8767,16 @@
         <v>10.1908974492968</v>
       </c>
       <c r="O82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P82" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q82" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R82" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
@@ -8707,13 +8784,13 @@
         <v>46988</v>
       </c>
       <c r="B83" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C83" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D83" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E83">
         <v>360</v>
@@ -8730,13 +8807,13 @@
         <v>126.15657216494847</v>
       </c>
       <c r="I83" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K83" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L83" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M83">
         <v>51.770605401066497</v>
@@ -8745,16 +8822,16 @@
         <v>10.834020408372799</v>
       </c>
       <c r="O83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P83" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q83" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
@@ -8762,13 +8839,13 @@
         <v>46989</v>
       </c>
       <c r="B84" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C84" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D84" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E84">
         <v>360</v>
@@ -8785,13 +8862,13 @@
         <v>54.263853092783521</v>
       </c>
       <c r="I84" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K84" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L84" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M84">
         <v>51.759997649476396</v>
@@ -8800,16 +8877,16 @@
         <v>10.7639040421949</v>
       </c>
       <c r="O84" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
@@ -8817,13 +8894,13 @@
         <v>46987</v>
       </c>
       <c r="B85" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C85" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D85" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E85">
         <v>360</v>
@@ -8840,13 +8917,13 @@
         <v>72.168170103092805</v>
       </c>
       <c r="I85" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K85" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L85" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M85">
         <v>51.753007285927197</v>
@@ -8855,16 +8932,16 @@
         <v>10.827671198259599</v>
       </c>
       <c r="O85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P85" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q85" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R85" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
@@ -8872,13 +8949,13 @@
         <v>46915</v>
       </c>
       <c r="B86" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C86" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D86" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E86">
         <v>250</v>
@@ -8895,13 +8972,13 @@
         <v>33.329574742268044</v>
       </c>
       <c r="I86" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K86" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L86" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M86">
         <v>52.074240164089403</v>
@@ -8910,16 +8987,16 @@
         <v>11.385188940936301</v>
       </c>
       <c r="O86" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q86" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
@@ -8927,13 +9004,13 @@
         <v>74832</v>
       </c>
       <c r="B87" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C87" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D87" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E87">
         <v>250</v>
@@ -8950,13 +9027,13 @@
         <v>39.389497422680421</v>
       </c>
       <c r="I87" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K87" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L87" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M87">
         <v>52.057572158152198</v>
@@ -8965,13 +9042,13 @@
         <v>11.580779610431501</v>
       </c>
       <c r="O87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P87" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
@@ -8979,13 +9056,13 @@
         <v>46986</v>
       </c>
       <c r="B88" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C88" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D88" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E88">
         <v>250</v>
@@ -9002,13 +9079,13 @@
         <v>70.240012886597953</v>
       </c>
       <c r="I88" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K88" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L88" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M88">
         <v>52.298529632007302</v>
@@ -9017,13 +9094,13 @@
         <v>11.6792321844038</v>
       </c>
       <c r="O88" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P88" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q88" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
@@ -9031,13 +9108,13 @@
         <v>46849</v>
       </c>
       <c r="B89" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C89" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D89" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E89">
         <v>250</v>
@@ -9054,13 +9131,13 @@
         <v>32.77867268041237</v>
       </c>
       <c r="I89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K89" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L89" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M89">
         <v>52.274424658412698</v>
@@ -9069,13 +9146,13 @@
         <v>11.440183092722201</v>
       </c>
       <c r="O89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P89" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q89" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
@@ -9083,13 +9160,13 @@
         <v>46947</v>
       </c>
       <c r="B90" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C90" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D90" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E90">
         <v>250</v>
@@ -9106,13 +9183,13 @@
         <v>53.98840206185568</v>
       </c>
       <c r="I90" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K90" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L90" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M90">
         <v>51.889718501090897</v>
@@ -9121,16 +9198,16 @@
         <v>11.564549152354999</v>
       </c>
       <c r="O90" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q90" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R90" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
@@ -9138,13 +9215,13 @@
         <v>46977</v>
       </c>
       <c r="B91" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C91" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D91" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E91">
         <v>230</v>
@@ -9161,13 +9238,13 @@
         <v>537.12951030927843</v>
       </c>
       <c r="I91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K91" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L91" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M91">
         <v>52.690618245051901</v>
@@ -9176,13 +9253,13 @@
         <v>11.985898328142801</v>
       </c>
       <c r="O91" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P91" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q91" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
@@ -9190,13 +9267,13 @@
         <v>43878</v>
       </c>
       <c r="B92" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C92" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D92" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E92">
         <v>320</v>
@@ -9213,13 +9290,13 @@
         <v>107.70135309278352</v>
       </c>
       <c r="I92" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K92" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L92" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M92">
         <v>51.2256732427172</v>
@@ -9228,13 +9305,13 @@
         <v>6.8230018785117901</v>
       </c>
       <c r="O92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q92" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
@@ -9242,13 +9319,13 @@
         <v>43784</v>
       </c>
       <c r="B93" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C93" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D93" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E93">
         <v>320</v>
@@ -9265,13 +9342,13 @@
         <v>84.288015463917517</v>
       </c>
       <c r="I93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K93" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L93" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M93">
         <v>51.148876549974901</v>
@@ -9280,16 +9357,16 @@
         <v>6.7818334370016498</v>
       </c>
       <c r="O93" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P93" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q93" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R93" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
@@ -9297,13 +9374,13 @@
         <v>43804</v>
       </c>
       <c r="B94" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C94" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D94" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E94">
         <v>320</v>
@@ -9320,13 +9397,13 @@
         <v>41.593105670103093</v>
       </c>
       <c r="I94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K94" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L94" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M94">
         <v>51.150489726469402</v>
@@ -9335,16 +9412,16 @@
         <v>6.7697156550606001</v>
       </c>
       <c r="O94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P94" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q94" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R94" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
@@ -9352,13 +9429,13 @@
         <v>44199</v>
       </c>
       <c r="B95" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C95" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D95" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E95">
         <v>320</v>
@@ -9375,13 +9452,13 @@
         <v>28.646907216494849</v>
       </c>
       <c r="I95" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K95" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L95" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M95">
         <v>51.075230015744197</v>
@@ -9390,13 +9467,13 @@
         <v>6.8376670305999898</v>
       </c>
       <c r="O95" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P95" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q95" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
@@ -9404,13 +9481,13 @@
         <v>43913</v>
       </c>
       <c r="B96" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C96" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D96" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E96">
         <v>320</v>
@@ -9427,13 +9504,13 @@
         <v>71.892719072164965</v>
       </c>
       <c r="I96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K96" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L96" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M96">
         <v>51.248148796489602</v>
@@ -9442,16 +9519,16 @@
         <v>7.0419022305934398</v>
       </c>
       <c r="O96" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P96" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q96" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R96" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
@@ -9459,13 +9536,13 @@
         <v>43794</v>
       </c>
       <c r="B97" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C97" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D97" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E97">
         <v>320</v>
@@ -9482,13 +9559,13 @@
         <v>100.81507731958763</v>
       </c>
       <c r="I97" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K97" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L97" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M97">
         <v>51.225305484450701</v>
@@ -9497,13 +9574,13 @@
         <v>7.1428134681541202</v>
       </c>
       <c r="O97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
@@ -9511,13 +9588,13 @@
         <v>43842</v>
       </c>
       <c r="B98" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C98" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D98" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E98">
         <v>320</v>
@@ -9534,13 +9611,13 @@
         <v>561.92010309278362</v>
       </c>
       <c r="I98" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K98" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L98" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M98">
         <v>51.280036222747803</v>
@@ -9549,16 +9626,16 @@
         <v>7.0224928790346599</v>
       </c>
       <c r="O98" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P98" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q98" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R98" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
@@ -9566,13 +9643,13 @@
         <v>44733</v>
       </c>
       <c r="B99" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C99" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D99" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E99">
         <v>320</v>
@@ -9589,13 +9666,13 @@
         <v>48.203930412371136</v>
       </c>
       <c r="I99" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K99" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L99" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M99">
         <v>51.606590820621598</v>
@@ -9604,16 +9681,16 @@
         <v>7.5080344543893496</v>
       </c>
       <c r="O99" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P99" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q99" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R99" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
@@ -9621,13 +9698,13 @@
         <v>44799</v>
       </c>
       <c r="B100" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C100" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D100" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E100">
         <v>320</v>
@@ -9644,13 +9721,13 @@
         <v>57.844716494845372</v>
       </c>
       <c r="I100" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K100" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L100" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M100">
         <v>51.621933920494101</v>
@@ -9659,13 +9736,13 @@
         <v>7.4691040532013604</v>
       </c>
       <c r="O100" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q100" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
@@ -9673,13 +9750,13 @@
         <v>44746</v>
       </c>
       <c r="B101" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C101" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D101" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E101">
         <v>300</v>
@@ -9696,13 +9773,13 @@
         <v>65.281894329896915</v>
       </c>
       <c r="I101" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K101" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L101" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M101">
         <v>51.475520052455103</v>
@@ -9711,16 +9788,16 @@
         <v>7.1710012768508999</v>
       </c>
       <c r="O101" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P101" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q101" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="R101" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
@@ -9728,13 +9805,13 @@
         <v>43815</v>
       </c>
       <c r="B102" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C102" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D102" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E102">
         <v>300</v>
@@ -9751,13 +9828,13 @@
         <v>170.50418814432993</v>
       </c>
       <c r="I102" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K102" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L102" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M102">
         <v>51.515430511376699</v>
@@ -9766,13 +9843,13 @@
         <v>7.0002632482255498</v>
       </c>
       <c r="O102" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P102" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q102" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
@@ -9780,13 +9857,13 @@
         <v>43860</v>
       </c>
       <c r="B103" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C103" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D103" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E103">
         <v>300</v>
@@ -9803,13 +9880,13 @@
         <v>73.820876288659804</v>
       </c>
       <c r="I103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K103" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L103" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M103">
         <v>51.490049173793203</v>
@@ -9818,16 +9895,16 @@
         <v>6.96816974780881</v>
       </c>
       <c r="O103" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P103" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q103" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R103" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
@@ -9835,13 +9912,13 @@
         <v>71068</v>
       </c>
       <c r="B104" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C104" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D104" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E104">
         <v>300</v>
@@ -9858,13 +9935,13 @@
         <v>184.27673969072171</v>
       </c>
       <c r="I104" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K104" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L104" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M104">
         <v>51.556516147920597</v>
@@ -9873,13 +9950,13 @@
         <v>7.1634255625210796</v>
       </c>
       <c r="O104" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q104" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
@@ -9887,13 +9964,13 @@
         <v>44323</v>
       </c>
       <c r="B105" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C105" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D105" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E105">
         <v>300</v>
@@ -9910,13 +9987,13 @@
         <v>724.43621134020623</v>
       </c>
       <c r="I105" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K105" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L105" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M105">
         <v>51.6783861500897</v>
@@ -9925,16 +10002,16 @@
         <v>7.10303987874825</v>
       </c>
       <c r="O105" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P105" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q105" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R105" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
@@ -9942,13 +10019,13 @@
         <v>74041</v>
       </c>
       <c r="B106" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C106" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D106" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E106">
         <v>300</v>
@@ -9965,13 +10042,13 @@
         <v>892.4613402061857</v>
       </c>
       <c r="I106" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K106" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L106" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M106">
         <v>51.596032751296597</v>
@@ -9980,13 +10057,13 @@
         <v>7.0289085057205503</v>
       </c>
       <c r="O106" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P106" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q106" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
@@ -9994,13 +10071,13 @@
         <v>44246</v>
       </c>
       <c r="B107" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C107" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D107" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E107">
         <v>300</v>
@@ -10017,13 +10094,13 @@
         <v>316.76868556701038</v>
       </c>
       <c r="I107" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K107" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L107" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M107">
         <v>51.539606950462897</v>
@@ -10032,13 +10109,13 @@
         <v>7.0372028437951704</v>
       </c>
       <c r="O107" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P107" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
@@ -10046,13 +10123,13 @@
         <v>44302</v>
       </c>
       <c r="B108" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C108" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D108" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E108">
         <v>300</v>
@@ -10069,13 +10146,13 @@
         <v>65.281894329896915</v>
       </c>
       <c r="I108" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K108" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L108" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M108">
         <v>51.566233019693797</v>
@@ -10084,13 +10161,13 @@
         <v>6.9334189678928402</v>
       </c>
       <c r="O108" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P108" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q108" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
@@ -10098,13 +10175,13 @@
         <v>43884</v>
       </c>
       <c r="B109" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C109" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D109" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E109">
         <v>300</v>
@@ -10121,13 +10198,13 @@
         <v>192.54027061855672</v>
       </c>
       <c r="I109" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K109" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L109" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M109">
         <v>51.484451559785299</v>
@@ -10136,13 +10213,13 @@
         <v>6.8333538090073098</v>
       </c>
       <c r="O109" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
@@ -10150,13 +10227,13 @@
         <v>43942</v>
       </c>
       <c r="B110" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C110" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D110" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E110">
         <v>300</v>
@@ -10173,13 +10250,13 @@
         <v>47.102126288659797</v>
       </c>
       <c r="I110" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K110" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L110" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M110">
         <v>51.525502736517801</v>
@@ -10188,13 +10265,13 @@
         <v>6.7984479320254199</v>
       </c>
       <c r="O110" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P110" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q110" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
@@ -10202,13 +10279,13 @@
         <v>157889</v>
       </c>
       <c r="B111" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C111" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D111" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E111">
         <v>300</v>
@@ -10225,13 +10302,13 @@
         <v>104.12048969072166</v>
       </c>
       <c r="I111" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K111" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L111" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M111">
         <v>51.518231572785702</v>
@@ -10240,13 +10317,13 @@
         <v>6.9732722257249904</v>
       </c>
       <c r="O111" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="P111" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q111" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
@@ -10254,13 +10331,13 @@
         <v>43870</v>
       </c>
       <c r="B112" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C112" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D112" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E112">
         <v>300</v>
@@ -10277,13 +10354,13 @@
         <v>43.521262886597945</v>
       </c>
       <c r="I112" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K112" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L112" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M112">
         <v>51.6255360467961</v>
@@ -10292,16 +10369,16 @@
         <v>6.6154085570687</v>
       </c>
       <c r="O112" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P112" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q112" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R112" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -10309,13 +10386,13 @@
         <v>43872</v>
       </c>
       <c r="B113" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C113" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D113" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E113">
         <v>300</v>
@@ -10332,13 +10409,13 @@
         <v>156.45618556701029</v>
       </c>
       <c r="I113" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K113" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L113" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M113">
         <v>51.422282975055403</v>
@@ -10347,13 +10424,13 @@
         <v>6.7419912778190003</v>
       </c>
       <c r="O113" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q113" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
@@ -10361,13 +10438,13 @@
         <v>43938</v>
       </c>
       <c r="B114" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C114" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D114" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E114">
         <v>300</v>
@@ -10384,13 +10461,13 @@
         <v>66.934600515463927</v>
       </c>
       <c r="I114" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K114" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L114" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M114">
         <v>51.460831804252898</v>
@@ -10399,13 +10476,13 @@
         <v>6.74917290245173</v>
       </c>
       <c r="O114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q114" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
@@ -10413,13 +10490,13 @@
         <v>43818</v>
       </c>
       <c r="B115" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C115" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D115" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E115">
         <v>300</v>
@@ -10436,13 +10513,13 @@
         <v>1341.4465206185569</v>
       </c>
       <c r="I115" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K115" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L115" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M115">
         <v>51.503690300069401</v>
@@ -10451,13 +10528,13 @@
         <v>6.7359074837084698</v>
       </c>
       <c r="O115" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q115" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
@@ -10465,13 +10542,13 @@
         <v>43941</v>
       </c>
       <c r="B116" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C116" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D116" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E116">
         <v>300</v>
@@ -10488,13 +10565,13 @@
         <v>550.90206185567024</v>
       </c>
       <c r="I116" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K116" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L116" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M116">
         <v>51.500991282168599</v>
@@ -10503,13 +10580,13 @@
         <v>6.7288798114717201</v>
       </c>
       <c r="O116" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="P116" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q116" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
@@ -10517,13 +10594,13 @@
         <v>43822</v>
       </c>
       <c r="B117" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C117" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D117" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E117">
         <v>300</v>
@@ -10540,13 +10617,13 @@
         <v>349.82280927835052</v>
       </c>
       <c r="I117" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K117" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L117" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M117">
         <v>51.491250023673899</v>
@@ -10555,13 +10632,13 @@
         <v>6.7264828416599798</v>
       </c>
       <c r="O117" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q117" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
@@ -10569,13 +10646,13 @@
         <v>43820</v>
       </c>
       <c r="B118" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C118" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D118" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E118">
         <v>300</v>
@@ -10592,13 +10669,13 @@
         <v>261.40302835051546</v>
       </c>
       <c r="I118" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K118" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L118" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M118">
         <v>51.485516041468301</v>
@@ -10607,13 +10684,13 @@
         <v>6.7091225511247199</v>
       </c>
       <c r="O118" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P118" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q118" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
@@ -10621,13 +10698,13 @@
         <v>43819</v>
       </c>
       <c r="B119" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C119" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D119" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E119">
         <v>300</v>
@@ -10644,13 +10721,13 @@
         <v>134.69555412371136</v>
       </c>
       <c r="I119" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K119" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L119" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M119">
         <v>51.4925124264362</v>
@@ -10659,13 +10736,13 @@
         <v>6.7406106568805297</v>
       </c>
       <c r="O119" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P119" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q119" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
@@ -10673,13 +10750,13 @@
         <v>43917</v>
       </c>
       <c r="B120" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C120" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D120" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E120">
         <v>300</v>
@@ -10696,13 +10773,13 @@
         <v>108.25225515463919</v>
       </c>
       <c r="I120" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K120" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L120" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M120">
         <v>51.439528486671101</v>
@@ -10711,16 +10788,16 @@
         <v>6.7052229735461104</v>
       </c>
       <c r="O120" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P120" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q120" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R120" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
@@ -10728,13 +10805,13 @@
         <v>43779</v>
       </c>
       <c r="B121" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C121" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D121" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E121">
         <v>300</v>
@@ -10751,13 +10828,13 @@
         <v>1330.4284793814431</v>
       </c>
       <c r="I121" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K121" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L121" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M121">
         <v>51.368231167702803</v>
@@ -10766,13 +10843,13 @@
         <v>6.7122673320951698</v>
       </c>
       <c r="O121" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P121" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
@@ -10780,13 +10857,13 @@
         <v>43935</v>
       </c>
       <c r="B122" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C122" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D122" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E122">
         <v>300</v>
@@ -10803,13 +10880,13 @@
         <v>49.856636597938149</v>
       </c>
       <c r="I122" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K122" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L122" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M122">
         <v>51.469692972283497</v>
@@ -10818,13 +10895,13 @@
         <v>6.64674413437411</v>
       </c>
       <c r="O122" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q122" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
@@ -10832,13 +10909,13 @@
         <v>43895</v>
       </c>
       <c r="B123" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C123" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D123" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E123">
         <v>300</v>
@@ -10855,13 +10932,13 @@
         <v>60.59922680412371</v>
       </c>
       <c r="I123" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K123" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="L123" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M123">
         <v>51.518884359310398</v>
@@ -10870,13 +10947,13 @@
         <v>6.5764130737649698</v>
       </c>
       <c r="O123" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P123" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q123" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
@@ -10884,13 +10961,13 @@
         <v>43934</v>
       </c>
       <c r="B124" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C124" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D124" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E124">
         <v>300</v>
@@ -10907,13 +10984,13 @@
         <v>222.01353092783506</v>
       </c>
       <c r="I124" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K124" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="L124" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M124">
         <v>51.564664684331902</v>
@@ -10922,13 +10999,13 @@
         <v>6.5778890987793996</v>
       </c>
       <c r="O124" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P124" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q124" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -10936,13 +11013,13 @@
         <v>43847</v>
       </c>
       <c r="B125" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C125" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D125" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E125">
         <v>300</v>
@@ -10959,13 +11036,13 @@
         <v>88.695231958762903</v>
       </c>
       <c r="I125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K125" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L125" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M125">
         <v>51.378906532190697</v>
@@ -10974,13 +11051,13 @@
         <v>6.6344038166940296</v>
       </c>
       <c r="O125" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P125" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q125" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
@@ -10988,13 +11065,13 @@
         <v>43971</v>
       </c>
       <c r="B126" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C126" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D126" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E126">
         <v>300</v>
@@ -11011,13 +11088,13 @@
         <v>52.060244845360828</v>
       </c>
       <c r="I126" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K126" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L126" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M126">
         <v>51.368190415310899</v>
@@ -11026,16 +11103,16 @@
         <v>6.6623845315366097</v>
       </c>
       <c r="O126" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P126" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q126" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R126" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
@@ -11043,13 +11120,13 @@
         <v>43614</v>
       </c>
       <c r="B127" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C127" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D127" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E127">
         <v>180</v>
@@ -11066,13 +11143,13 @@
         <v>30.299613402061855</v>
       </c>
       <c r="I127" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K127" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L127" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M127">
         <v>52.274591778929597</v>
@@ -11081,13 +11158,13 @@
         <v>8.1206237026605095</v>
       </c>
       <c r="O127" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q127" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
@@ -11095,13 +11172,13 @@
         <v>43611</v>
       </c>
       <c r="B128" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C128" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D128" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E128">
         <v>180</v>
@@ -11118,13 +11195,13 @@
         <v>40.21585051546392</v>
       </c>
       <c r="I128" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K128" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L128" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M128">
         <v>52.209144397156301</v>
@@ -11133,13 +11210,13 @@
         <v>8.0495011070373099</v>
       </c>
       <c r="O128" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P128" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q128" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
@@ -11147,13 +11224,13 @@
         <v>44489</v>
       </c>
       <c r="B129" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C129" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D129" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E129">
         <v>180</v>
@@ -11170,13 +11247,13 @@
         <v>29.748711340206189</v>
       </c>
       <c r="I129" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K129" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L129" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M129">
         <v>52.287155127529303</v>
@@ -11185,13 +11262,13 @@
         <v>7.7415451496542396</v>
       </c>
       <c r="O129" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P129" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q129" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
@@ -11199,13 +11276,13 @@
         <v>44251</v>
       </c>
       <c r="B130" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C130" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D130" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E130">
         <v>180</v>
@@ -11222,13 +11299,13 @@
         <v>278.20554123711344</v>
       </c>
       <c r="I130" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K130" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="L130" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M130">
         <v>52.174985890675202</v>
@@ -11237,16 +11314,16 @@
         <v>7.8878276405479104</v>
       </c>
       <c r="O130" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P130" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q130" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R130" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
@@ -11254,13 +11331,13 @@
         <v>44252</v>
       </c>
       <c r="B131" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C131" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D131" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E131">
         <v>180</v>
@@ -11277,13 +11354,13 @@
         <v>41.042203608247426</v>
       </c>
       <c r="I131" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K131" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L131" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M131">
         <v>52.162740627713099</v>
@@ -11292,16 +11369,16 @@
         <v>7.9690559301535702</v>
       </c>
       <c r="O131" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P131" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q131" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R131" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
@@ -11309,13 +11386,13 @@
         <v>43600</v>
       </c>
       <c r="B132" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C132" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D132" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E132">
         <v>180</v>
@@ -11332,13 +11409,13 @@
         <v>314.01417525773195</v>
       </c>
       <c r="I132" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K132" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L132" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M132">
         <v>52.561854280893698</v>
@@ -11347,13 +11424,13 @@
         <v>7.31181464088802</v>
       </c>
       <c r="O132" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P132" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q132" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
@@ -11361,13 +11438,13 @@
         <v>110145</v>
       </c>
       <c r="B133" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C133" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D133" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E133">
         <v>180</v>
@@ -11384,13 +11461,13 @@
         <v>106.04864690721651</v>
       </c>
       <c r="I133" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K133" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L133" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M133">
         <v>52.643591157646597</v>
@@ -11399,13 +11476,13 @@
         <v>6.7431930823961803</v>
       </c>
       <c r="O133" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P133" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q133" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
@@ -11413,13 +11490,13 @@
         <v>43597</v>
       </c>
       <c r="B134" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C134" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D134" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E134">
         <v>180</v>
@@ -11436,13 +11513,13 @@
         <v>44.072164948453612</v>
       </c>
       <c r="I134" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K134" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L134" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M134">
         <v>52.619341239770002</v>
@@ -11451,13 +11528,13 @@
         <v>6.8734482637758703</v>
       </c>
       <c r="O134" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P134" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q134" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
@@ -11465,13 +11542,13 @@
         <v>44053</v>
       </c>
       <c r="B135" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C135" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D135" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E135">
         <v>350</v>
@@ -11488,13 +11565,13 @@
         <v>72.443621134020631</v>
       </c>
       <c r="I135" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K135" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L135" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M135">
         <v>50.945933627858501</v>
@@ -11503,13 +11580,13 @@
         <v>6.6666520565427003</v>
       </c>
       <c r="O135" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P135" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q135" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
@@ -11517,13 +11594,13 @@
         <v>44485</v>
       </c>
       <c r="B136" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C136" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D136" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E136">
         <v>350</v>
@@ -11540,13 +11617,13 @@
         <v>116.24033505154641</v>
       </c>
       <c r="I136" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K136" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L136" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M136">
         <v>50.9869454451972</v>
@@ -11555,13 +11632,13 @@
         <v>6.6580548701080904</v>
       </c>
       <c r="O136" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="P136" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q136" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
@@ -11569,13 +11646,13 @@
         <v>44486</v>
       </c>
       <c r="B137" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C137" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D137" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E137">
         <v>350</v>
@@ -11592,13 +11669,13 @@
         <v>429.70360824742272</v>
       </c>
       <c r="I137" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K137" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L137" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M137">
         <v>50.894246191596203</v>
@@ -11607,13 +11684,13 @@
         <v>6.7910555927371199</v>
       </c>
       <c r="O137" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="P137" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q137" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
@@ -11621,13 +11698,13 @@
         <v>44484</v>
       </c>
       <c r="B138" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C138" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D138" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E138">
         <v>350</v>
@@ -11644,13 +11721,13 @@
         <v>297.48711340206188</v>
       </c>
       <c r="I138" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K138" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L138" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M138">
         <v>50.867145039151701</v>
@@ -11659,13 +11736,13 @@
         <v>6.8360555937152503</v>
       </c>
       <c r="O138" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="P138" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q138" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
@@ -11673,13 +11750,13 @@
         <v>110204</v>
       </c>
       <c r="B139" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C139" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D139" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E139">
         <v>350</v>
@@ -11696,13 +11773,13 @@
         <v>91.174291237113408</v>
       </c>
       <c r="I139" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K139" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L139" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M139">
         <v>50.856573789010497</v>
@@ -11711,13 +11788,13 @@
         <v>6.8436498087509499</v>
       </c>
       <c r="O139" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P139" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q139" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
@@ -11725,13 +11802,13 @@
         <v>74009</v>
       </c>
       <c r="B140" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C140" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D140" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E140">
         <v>350</v>
@@ -11748,13 +11825,13 @@
         <v>630.78286082474233</v>
       </c>
       <c r="I140" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K140" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L140" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M140">
         <v>50.83268204406</v>
@@ -11763,13 +11840,13 @@
         <v>6.9440666795614296</v>
       </c>
       <c r="O140" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P140" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q140" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
@@ -11777,13 +11854,13 @@
         <v>44061</v>
       </c>
       <c r="B141" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C141" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D141" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E141">
         <v>350</v>
@@ -11800,13 +11877,13 @@
         <v>501.32087628865986</v>
       </c>
       <c r="I141" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K141" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="L141" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M141">
         <v>50.814110423486802</v>
@@ -11815,13 +11892,13 @@
         <v>7.0057562786813197</v>
       </c>
       <c r="O141" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P141" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
@@ -11829,13 +11906,13 @@
         <v>44090</v>
       </c>
       <c r="B142" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C142" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D142" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E142">
         <v>350</v>
@@ -11852,13 +11929,13 @@
         <v>46.275773195876305</v>
       </c>
       <c r="I142" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K142" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L142" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M142">
         <v>50.834099903336501</v>
@@ -11867,13 +11944,13 @@
         <v>6.9762864616685798</v>
       </c>
       <c r="O142" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P142" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q142" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
@@ -11881,13 +11958,13 @@
         <v>44142</v>
       </c>
       <c r="B143" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C143" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D143" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E143">
         <v>350</v>
@@ -11904,13 +11981,13 @@
         <v>73.545425257731964</v>
       </c>
       <c r="I143" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K143" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="L143" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M143">
         <v>51.006973874123801</v>
@@ -11919,13 +11996,13 @@
         <v>6.95076623048607</v>
       </c>
       <c r="O143" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P143" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q143" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
@@ -11933,13 +12010,13 @@
         <v>74015</v>
       </c>
       <c r="B144" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C144" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D144" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E144">
         <v>350</v>
@@ -11956,13 +12033,13 @@
         <v>820.84407216494856</v>
       </c>
       <c r="I144" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K144" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L144" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M144">
         <v>51.067636023807701</v>
@@ -11971,13 +12048,13 @@
         <v>6.846742503362</v>
       </c>
       <c r="O144" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P144" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q144" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
@@ -11985,13 +12062,13 @@
         <v>44060</v>
       </c>
       <c r="B145" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C145" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D145" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E145">
         <v>350</v>
@@ -12008,13 +12085,13 @@
         <v>382.87693298969077</v>
       </c>
       <c r="I145" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K145" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L145" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M145">
         <v>50.8549933741484</v>
@@ -12023,13 +12100,13 @@
         <v>6.9768455364430304</v>
       </c>
       <c r="O145" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P145" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q145" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
@@ -12037,13 +12114,13 @@
         <v>200990</v>
       </c>
       <c r="B146" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C146" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D146" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E146">
         <v>350</v>
@@ -12060,13 +12137,13 @@
         <v>81.808956185567013</v>
       </c>
       <c r="I146" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K146" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="L146" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M146">
         <v>50.873501056946601</v>
@@ -12075,16 +12152,16 @@
         <v>6.9184614261972603</v>
       </c>
       <c r="O146" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P146" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q146" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R146" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
@@ -12092,13 +12169,13 @@
         <v>110205</v>
       </c>
       <c r="B147" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C147" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D147" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E147">
         <v>350</v>
@@ -12115,13 +12192,13 @@
         <v>61.15012886597939</v>
       </c>
       <c r="I147" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="K147" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L147" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M147">
         <v>51.041409915130998</v>
@@ -12130,13 +12207,13 @@
         <v>6.9682345553985003</v>
       </c>
       <c r="O147" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P147" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q147" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
@@ -12144,13 +12221,13 @@
         <v>44138</v>
       </c>
       <c r="B148" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C148" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D148" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E148">
         <v>350</v>
@@ -12167,13 +12244,13 @@
         <v>56.467461340206192</v>
       </c>
       <c r="I148" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K148" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L148" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M148">
         <v>51.0131869022795</v>
@@ -12182,16 +12259,16 @@
         <v>6.9868764025282104</v>
       </c>
       <c r="O148" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P148" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q148" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R148" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
@@ -12199,13 +12276,13 @@
         <v>44098</v>
       </c>
       <c r="B149" t="s">
+        <v>746</v>
+      </c>
+      <c r="C149" t="s">
         <v>745</v>
       </c>
-      <c r="C149" t="s">
-        <v>744</v>
-      </c>
       <c r="D149" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E149">
         <v>350</v>
@@ -12222,13 +12299,13 @@
         <v>44.623067010309285</v>
       </c>
       <c r="I149" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K149" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L149" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M149">
         <v>51.042317687884903</v>
@@ -12237,13 +12314,13 @@
         <v>7.0042022259999204</v>
       </c>
       <c r="O149" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P149" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q149" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
@@ -12251,13 +12328,13 @@
         <v>44067</v>
       </c>
       <c r="B150" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C150" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D150" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E150">
         <v>350</v>
@@ -12274,13 +12351,13 @@
         <v>33.605025773195877</v>
       </c>
       <c r="I150" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K150" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L150" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M150">
         <v>50.9889072569676</v>
@@ -12289,13 +12366,13 @@
         <v>7.1270734658298798</v>
       </c>
       <c r="O150" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P150" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q150" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
@@ -12303,13 +12380,13 @@
         <v>70868</v>
       </c>
       <c r="B151" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C151" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D151" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E151">
         <v>350</v>
@@ -12326,13 +12403,13 @@
         <v>29.197809278350519</v>
       </c>
       <c r="I151" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K151" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="L151" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M151">
         <v>50.784838568942597</v>
@@ -12341,13 +12418,13 @@
         <v>6.2200416876035396</v>
       </c>
       <c r="O151" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P151" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q151" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
@@ -12355,13 +12432,13 @@
         <v>44162</v>
       </c>
       <c r="B152" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C152" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D152" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E152">
         <v>350</v>
@@ -12378,13 +12455,13 @@
         <v>100.26417525773196</v>
       </c>
       <c r="I152" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K152" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L152" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M152">
         <v>50.837994063132598</v>
@@ -12393,13 +12470,13 @@
         <v>6.3095845649781497</v>
       </c>
       <c r="O152" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P152" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q152" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
@@ -12407,13 +12484,13 @@
         <v>44123</v>
       </c>
       <c r="B153" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C153" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D153" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E153">
         <v>350</v>
@@ -12430,13 +12507,13 @@
         <v>39.940399484536094</v>
       </c>
       <c r="I153" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K153" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L153" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M153">
         <v>50.776516545992799</v>
@@ -12445,13 +12522,13 @@
         <v>6.4894912803828504</v>
       </c>
       <c r="O153" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P153" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q153" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
@@ -12459,13 +12536,13 @@
         <v>44128</v>
       </c>
       <c r="B154" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C154" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D154" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E154">
         <v>350</v>
@@ -12482,13 +12559,13 @@
         <v>55.641108247422693</v>
       </c>
       <c r="I154" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K154" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="L154" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M154">
         <v>50.916616351470502</v>
@@ -12497,16 +12574,16 @@
         <v>6.3731212015687904</v>
       </c>
       <c r="O154" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q154" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R154" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
@@ -12514,13 +12591,13 @@
         <v>45063</v>
       </c>
       <c r="B155" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C155" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D155" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E155">
         <v>380</v>
@@ -12537,13 +12614,13 @@
         <v>34.706829896907223</v>
       </c>
       <c r="I155" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K155" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="L155" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M155">
         <v>50.511210221532103</v>
@@ -12552,16 +12629,16 @@
         <v>7.3161484772213603</v>
       </c>
       <c r="O155" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P155" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q155" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R155" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
@@ -12569,13 +12646,13 @@
         <v>44037</v>
       </c>
       <c r="B156" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C156" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D156" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E156">
         <v>380</v>
@@ -12592,13 +12669,13 @@
         <v>71.066365979381445</v>
       </c>
       <c r="I156" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K156" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="L156" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M156">
         <v>50.706591847105699</v>
@@ -12607,13 +12684,13 @@
         <v>6.6530059121098102</v>
       </c>
       <c r="O156" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P156" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q156" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
@@ -12621,13 +12698,13 @@
         <v>45110</v>
       </c>
       <c r="B157" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C157" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D157" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E157">
         <v>400</v>
@@ -12644,13 +12721,13 @@
         <v>48.203930412371136</v>
       </c>
       <c r="I157" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K157" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L157" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M157">
         <v>50.333990058874903</v>
@@ -12659,16 +12736,16 @@
         <v>6.7668281365085399</v>
       </c>
       <c r="O157" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P157" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q157" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R157" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
@@ -12676,13 +12753,13 @@
         <v>71925</v>
       </c>
       <c r="B158" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C158" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D158" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E158">
         <v>425</v>
@@ -12699,13 +12776,13 @@
         <v>87.317976804123717</v>
       </c>
       <c r="I158" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K158" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L158" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M158">
         <v>50.025313167508401</v>
@@ -12714,13 +12791,13 @@
         <v>8.2383958452120396</v>
       </c>
       <c r="O158" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P158" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q158" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
@@ -12728,13 +12805,13 @@
         <v>45143</v>
       </c>
       <c r="B159" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C159" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D159" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E159">
         <v>425</v>
@@ -12751,13 +12828,13 @@
         <v>28.371456185567016</v>
       </c>
       <c r="I159" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K159" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="L159" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M159">
         <v>49.975603410275397</v>
@@ -12766,13 +12843,13 @@
         <v>8.0441372679257395</v>
       </c>
       <c r="O159" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="P159" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q159" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
@@ -12780,13 +12857,13 @@
         <v>45091</v>
       </c>
       <c r="B160" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C160" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D160" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E160">
         <v>480</v>
@@ -12803,13 +12880,13 @@
         <v>28.922358247422686</v>
       </c>
       <c r="I160" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K160" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L160" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M160">
         <v>49.603496074151501</v>
@@ -12818,13 +12895,13 @@
         <v>7.17140668462104</v>
       </c>
       <c r="O160" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P160" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q160" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
@@ -12832,13 +12909,13 @@
         <v>56260</v>
       </c>
       <c r="B161" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C161" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D161" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E161">
         <v>370</v>
@@ -12855,13 +12932,13 @@
         <v>33.880476804123717</v>
       </c>
       <c r="I161" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K161" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="L161" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M161">
         <v>50.702416578351801</v>
@@ -12870,13 +12947,13 @@
         <v>8.0731821024339006</v>
       </c>
       <c r="O161" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P161" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q161" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
@@ -12884,13 +12961,13 @@
         <v>110284</v>
       </c>
       <c r="B162" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C162" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D162" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E162">
         <v>390</v>
@@ -12907,13 +12984,13 @@
         <v>50.407538659793815</v>
       </c>
       <c r="I162" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K162" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L162" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M162">
         <v>50.4320179048255</v>
@@ -12922,13 +12999,13 @@
         <v>7.4081632475814203</v>
       </c>
       <c r="O162" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P162" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q162" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
@@ -12936,13 +13013,13 @@
         <v>45040</v>
       </c>
       <c r="B163" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C163" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D163" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E163">
         <v>400</v>
@@ -12959,13 +13036,13 @@
         <v>72.994523195876297</v>
       </c>
       <c r="I163" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K163" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L163" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M163">
         <v>50.3135652224111</v>
@@ -12974,13 +13051,13 @@
         <v>7.2208290852366801</v>
       </c>
       <c r="O163" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P163" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q163" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
@@ -12988,13 +13065,13 @@
         <v>44670</v>
       </c>
       <c r="B164" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C164" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D164" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E164">
         <v>290</v>
@@ -13011,13 +13088,13 @@
         <v>29.473260309278352</v>
       </c>
       <c r="I164" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K164" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L164" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M164">
         <v>51.377602651201798</v>
@@ -13026,13 +13103,13 @@
         <v>7.4706744778173704</v>
       </c>
       <c r="O164" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P164" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q164" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
@@ -13040,13 +13117,13 @@
         <v>44684</v>
       </c>
       <c r="B165" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C165" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D165" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E165">
         <v>280</v>
@@ -13063,13 +13140,13 @@
         <v>29.197809278350519</v>
       </c>
       <c r="I165" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K165" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="L165" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M165">
         <v>51.396294709939397</v>
@@ -13078,13 +13155,13 @@
         <v>7.69411350475717</v>
       </c>
       <c r="O165" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P165" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q165" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
@@ -13092,13 +13169,13 @@
         <v>44668</v>
       </c>
       <c r="B166" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C166" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D166" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E166">
         <v>250</v>
@@ -13115,13 +13192,13 @@
         <v>222.01353092783506</v>
       </c>
       <c r="I166" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K166" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="L166" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M166">
         <v>51.397702369138401</v>
@@ -13130,16 +13207,16 @@
         <v>7.8416774941148004</v>
       </c>
       <c r="O166" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P166" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q166" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R166" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
@@ -13147,13 +13224,13 @@
         <v>44705</v>
       </c>
       <c r="B167" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C167" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D167" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E167">
         <v>250</v>
@@ -13170,13 +13247,13 @@
         <v>70.240012886597953</v>
       </c>
       <c r="I167" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K167" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="L167" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M167">
         <v>51.680056449757203</v>
@@ -13185,13 +13262,13 @@
         <v>7.7447930491470798</v>
       </c>
       <c r="O167" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P167" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q167" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -13204,7 +13281,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13221,16 +13298,16 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E1" t="s">
         <v>831</v>
-      </c>
-      <c r="E1" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -13245,10 +13322,10 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>0.03</v>
       </c>
       <c r="E2">
-        <v>400</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -3311,7 +3311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3554,8 +3554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3801,7 +3801,7 @@
         <v>99999999</v>
       </c>
       <c r="G6" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -4454,8 +4454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4764,7 +4764,7 @@
         <v>141</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -4822,7 +4822,7 @@
         <v>114</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">

--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -3311,8 +3311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02</v>
+        <v>2000</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -3430,7 +3430,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3554,8 +3554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3766,7 +3766,7 @@
         <v>99999999</v>
       </c>
       <c r="G5" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -3801,7 +3801,7 @@
         <v>99999999</v>
       </c>
       <c r="G6" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -4455,7 +4455,7 @@
   <dimension ref="A1:S167"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4593,7 +4593,7 @@
         <v>199</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -4651,7 +4651,7 @@
         <v>327</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -4709,7 +4709,7 @@
         <v>152</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -4764,7 +4764,7 @@
         <v>141</v>
       </c>
       <c r="S5">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -4822,7 +4822,7 @@
         <v>114</v>
       </c>
       <c r="S6">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -4880,7 +4880,7 @@
         <v>188</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -4935,7 +4935,7 @@
         <v>134</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -4993,7 +4993,7 @@
         <v>300</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -5048,7 +5048,7 @@
         <v>109</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -5103,7 +5103,7 @@
         <v>134</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -5158,7 +5158,7 @@
         <v>109</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -5213,7 +5213,7 @@
         <v>109</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -5271,7 +5271,7 @@
         <v>275</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -5326,7 +5326,7 @@
         <v>141</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -5381,7 +5381,7 @@
         <v>141</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -5439,7 +5439,7 @@
         <v>199</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -5494,7 +5494,7 @@
         <v>109</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -5552,7 +5552,7 @@
         <v>275</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -5610,7 +5610,7 @@
         <v>152</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -5668,7 +5668,7 @@
         <v>300</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -5723,7 +5723,7 @@
         <v>109</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -5778,7 +5778,7 @@
         <v>109</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -5833,7 +5833,7 @@
         <v>109</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -5888,7 +5888,7 @@
         <v>254</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -5946,7 +5946,7 @@
         <v>376</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -6001,7 +6001,7 @@
         <v>121</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -6056,7 +6056,7 @@
         <v>151</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -6114,7 +6114,7 @@
         <v>202</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -6169,7 +6169,7 @@
         <v>109</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -6224,7 +6224,7 @@
         <v>134</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -6279,7 +6279,7 @@
         <v>254</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -6334,7 +6334,7 @@
         <v>450</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -6392,7 +6392,7 @@
         <v>188</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -6450,7 +6450,7 @@
         <v>236</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -6505,7 +6505,7 @@
         <v>141</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -6560,7 +6560,7 @@
         <v>109</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -6615,7 +6615,7 @@
         <v>121</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -6673,7 +6673,7 @@
         <v>202</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -6728,7 +6728,7 @@
         <v>254</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -6786,7 +6786,7 @@
         <v>188</v>
       </c>
       <c r="S41">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -6841,7 +6841,7 @@
         <v>109</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -6896,7 +6896,7 @@
         <v>254</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -6951,7 +6951,7 @@
         <v>134</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -7009,7 +7009,7 @@
         <v>188</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -7064,7 +7064,7 @@
         <v>134</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -7119,7 +7119,7 @@
         <v>109</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -7174,7 +7174,7 @@
         <v>109</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -7232,7 +7232,7 @@
         <v>236</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -7287,7 +7287,7 @@
         <v>524</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -7345,7 +7345,7 @@
         <v>202</v>
       </c>
       <c r="S51">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -7400,7 +7400,7 @@
         <v>208</v>
       </c>
       <c r="S52">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -7455,7 +7455,7 @@
         <v>450</v>
       </c>
       <c r="S53">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -7510,7 +7510,7 @@
         <v>208</v>
       </c>
       <c r="S54">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
@@ -7568,7 +7568,7 @@
         <v>518</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -7626,7 +7626,7 @@
         <v>552</v>
       </c>
       <c r="S56">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -7681,7 +7681,7 @@
         <v>121</v>
       </c>
       <c r="S57">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -7736,7 +7736,7 @@
         <v>109</v>
       </c>
       <c r="S58">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -7791,7 +7791,7 @@
         <v>109</v>
       </c>
       <c r="S59">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -7846,7 +7846,7 @@
         <v>109</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -7904,7 +7904,7 @@
         <v>188</v>
       </c>
       <c r="S61">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -7959,7 +7959,7 @@
         <v>109</v>
       </c>
       <c r="S62">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -8017,7 +8017,7 @@
         <v>376</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -8072,7 +8072,7 @@
         <v>109</v>
       </c>
       <c r="S64">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -8130,7 +8130,7 @@
         <v>275</v>
       </c>
       <c r="S65">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -8185,7 +8185,7 @@
         <v>109</v>
       </c>
       <c r="S66">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -8243,7 +8243,7 @@
         <v>114</v>
       </c>
       <c r="S67">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -8298,7 +8298,7 @@
         <v>141</v>
       </c>
       <c r="S68">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -8353,7 +8353,7 @@
         <v>141</v>
       </c>
       <c r="S69">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -8408,7 +8408,7 @@
         <v>208</v>
       </c>
       <c r="S70">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -8463,7 +8463,7 @@
         <v>109</v>
       </c>
       <c r="S71">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -8518,7 +8518,7 @@
         <v>100</v>
       </c>
       <c r="S72">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -8573,7 +8573,7 @@
         <v>609</v>
       </c>
       <c r="S73">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -8631,7 +8631,7 @@
         <v>275</v>
       </c>
       <c r="S74">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -8686,7 +8686,7 @@
         <v>254</v>
       </c>
       <c r="S75">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -8741,7 +8741,7 @@
         <v>254</v>
       </c>
       <c r="S76">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
@@ -8796,7 +8796,7 @@
         <v>254</v>
       </c>
       <c r="S77">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
@@ -8851,7 +8851,7 @@
         <v>609</v>
       </c>
       <c r="S78">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
@@ -8906,7 +8906,7 @@
         <v>254</v>
       </c>
       <c r="S79">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -8961,7 +8961,7 @@
         <v>254</v>
       </c>
       <c r="S80">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
@@ -9016,7 +9016,7 @@
         <v>254</v>
       </c>
       <c r="S81">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -9074,7 +9074,7 @@
         <v>635</v>
       </c>
       <c r="S82">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
@@ -9129,7 +9129,7 @@
         <v>254</v>
       </c>
       <c r="S83">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
@@ -9184,7 +9184,7 @@
         <v>100</v>
       </c>
       <c r="S84">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
@@ -9239,7 +9239,7 @@
         <v>109</v>
       </c>
       <c r="S85">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
@@ -9294,7 +9294,7 @@
         <v>151</v>
       </c>
       <c r="S86">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
@@ -9349,7 +9349,7 @@
         <v>121</v>
       </c>
       <c r="S87">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
@@ -9407,7 +9407,7 @@
         <v>300</v>
       </c>
       <c r="S88">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -9462,7 +9462,7 @@
         <v>109</v>
       </c>
       <c r="S89">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -9517,7 +9517,7 @@
         <v>109</v>
       </c>
       <c r="S90">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
@@ -9575,7 +9575,7 @@
         <v>275</v>
       </c>
       <c r="S91">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
@@ -9633,7 +9633,7 @@
         <v>536</v>
       </c>
       <c r="S92">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
@@ -9688,7 +9688,7 @@
         <v>121</v>
       </c>
       <c r="S93">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
@@ -9746,7 +9746,7 @@
         <v>236</v>
       </c>
       <c r="S94">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -9801,7 +9801,7 @@
         <v>109</v>
       </c>
       <c r="S95">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
@@ -9859,7 +9859,7 @@
         <v>552</v>
       </c>
       <c r="S96">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
@@ -9917,7 +9917,7 @@
         <v>275</v>
       </c>
       <c r="S97">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
@@ -9972,7 +9972,7 @@
         <v>121</v>
       </c>
       <c r="S98">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
@@ -10027,7 +10027,7 @@
         <v>430</v>
       </c>
       <c r="S99">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
@@ -10085,7 +10085,7 @@
         <v>188</v>
       </c>
       <c r="S100">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
@@ -10140,7 +10140,7 @@
         <v>109</v>
       </c>
       <c r="S101">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
@@ -10198,7 +10198,7 @@
         <v>236</v>
       </c>
       <c r="S102">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
@@ -10253,7 +10253,7 @@
         <v>121</v>
       </c>
       <c r="S103">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
@@ -10311,7 +10311,7 @@
         <v>127</v>
       </c>
       <c r="S104">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
@@ -10366,7 +10366,7 @@
         <v>134</v>
       </c>
       <c r="S105">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
@@ -10421,7 +10421,7 @@
         <v>141</v>
       </c>
       <c r="S106">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
@@ -10476,7 +10476,7 @@
         <v>141</v>
       </c>
       <c r="S107">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
@@ -10534,7 +10534,7 @@
         <v>152</v>
       </c>
       <c r="S108">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
@@ -10589,7 +10589,7 @@
         <v>109</v>
       </c>
       <c r="S109">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
@@ -10647,7 +10647,7 @@
         <v>152</v>
       </c>
       <c r="S110">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
@@ -10705,7 +10705,7 @@
         <v>114</v>
       </c>
       <c r="S111">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
@@ -10760,7 +10760,7 @@
         <v>169</v>
       </c>
       <c r="S112">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
@@ -10818,7 +10818,7 @@
         <v>175</v>
       </c>
       <c r="S113">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
@@ -10873,7 +10873,7 @@
         <v>182</v>
       </c>
       <c r="S114">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
@@ -10931,7 +10931,7 @@
         <v>188</v>
       </c>
       <c r="S115">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
@@ -10986,7 +10986,7 @@
         <v>109</v>
       </c>
       <c r="S116">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
@@ -11044,7 +11044,7 @@
         <v>199</v>
       </c>
       <c r="S117">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
@@ -11102,7 +11102,7 @@
         <v>202</v>
       </c>
       <c r="S118">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
@@ -11157,7 +11157,7 @@
         <v>208</v>
       </c>
       <c r="S119">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
@@ -11212,7 +11212,7 @@
         <v>215</v>
       </c>
       <c r="S120">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
@@ -11267,7 +11267,7 @@
         <v>151</v>
       </c>
       <c r="S121">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
@@ -11322,7 +11322,7 @@
         <v>706</v>
       </c>
       <c r="S122">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
@@ -11377,7 +11377,7 @@
         <v>706</v>
       </c>
       <c r="S123">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
@@ -11432,7 +11432,7 @@
         <v>706</v>
       </c>
       <c r="S124">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
@@ -11487,7 +11487,7 @@
         <v>109</v>
       </c>
       <c r="S125">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
@@ -11542,7 +11542,7 @@
         <v>100</v>
       </c>
       <c r="S126">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
@@ -11597,7 +11597,7 @@
         <v>141</v>
       </c>
       <c r="S127">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
@@ -11652,7 +11652,7 @@
         <v>100</v>
       </c>
       <c r="S128">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
@@ -11707,7 +11707,7 @@
         <v>109</v>
       </c>
       <c r="S129">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
@@ -11762,7 +11762,7 @@
         <v>100</v>
       </c>
       <c r="S130">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
@@ -11817,7 +11817,7 @@
         <v>141</v>
       </c>
       <c r="S131">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
@@ -11875,7 +11875,7 @@
         <v>300</v>
       </c>
       <c r="S132">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
@@ -11930,7 +11930,7 @@
         <v>121</v>
       </c>
       <c r="S133">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
@@ -11988,7 +11988,7 @@
         <v>635</v>
       </c>
       <c r="S134">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
@@ -12043,7 +12043,7 @@
         <v>109</v>
       </c>
       <c r="S135">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
@@ -12098,7 +12098,7 @@
         <v>134</v>
       </c>
       <c r="S136">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
@@ -12153,7 +12153,7 @@
         <v>208</v>
       </c>
       <c r="S137">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
@@ -12208,7 +12208,7 @@
         <v>109</v>
       </c>
       <c r="S138">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
@@ -12263,7 +12263,7 @@
         <v>134</v>
       </c>
       <c r="S139">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
@@ -12321,7 +12321,7 @@
         <v>202</v>
       </c>
       <c r="S140">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
@@ -12376,7 +12376,7 @@
         <v>141</v>
       </c>
       <c r="S141">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
@@ -12431,7 +12431,7 @@
         <v>134</v>
       </c>
       <c r="S142">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
@@ -12486,7 +12486,7 @@
         <v>254</v>
       </c>
       <c r="S143">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
@@ -12541,7 +12541,7 @@
         <v>134</v>
       </c>
       <c r="S144">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
@@ -12599,7 +12599,7 @@
         <v>188</v>
       </c>
       <c r="S145">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
@@ -12654,7 +12654,7 @@
         <v>109</v>
       </c>
       <c r="S146">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
@@ -12709,7 +12709,7 @@
         <v>450</v>
       </c>
       <c r="S147">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
@@ -12764,7 +12764,7 @@
         <v>450</v>
       </c>
       <c r="S148">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
@@ -12819,7 +12819,7 @@
         <v>450</v>
       </c>
       <c r="S149">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
@@ -12877,7 +12877,7 @@
         <v>236</v>
       </c>
       <c r="S150">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
@@ -12935,7 +12935,7 @@
         <v>236</v>
       </c>
       <c r="S151">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
@@ -12993,7 +12993,7 @@
         <v>236</v>
       </c>
       <c r="S152">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
@@ -13048,7 +13048,7 @@
         <v>121</v>
       </c>
       <c r="S153">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
@@ -13106,7 +13106,7 @@
         <v>175</v>
       </c>
       <c r="S154">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
@@ -13161,7 +13161,7 @@
         <v>134</v>
       </c>
       <c r="S155">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
@@ -13216,7 +13216,7 @@
         <v>121</v>
       </c>
       <c r="S156">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
@@ -13271,7 +13271,7 @@
         <v>134</v>
       </c>
       <c r="S157">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
@@ -13329,7 +13329,7 @@
         <v>188</v>
       </c>
       <c r="S158">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
@@ -13384,7 +13384,7 @@
         <v>134</v>
       </c>
       <c r="S159">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
@@ -13439,7 +13439,7 @@
         <v>254</v>
       </c>
       <c r="S160">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
@@ -13494,7 +13494,7 @@
         <v>109</v>
       </c>
       <c r="S161">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
@@ -13549,7 +13549,7 @@
         <v>793</v>
       </c>
       <c r="S162">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
@@ -13607,7 +13607,7 @@
         <v>101</v>
       </c>
       <c r="S163">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
@@ -13662,7 +13662,7 @@
         <v>109</v>
       </c>
       <c r="S164">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
@@ -13720,7 +13720,7 @@
         <v>114</v>
       </c>
       <c r="S165">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
@@ -13775,7 +13775,7 @@
         <v>121</v>
       </c>
       <c r="S166">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
@@ -13830,7 +13830,7 @@
         <v>121</v>
       </c>
       <c r="S167">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -13,7 +13,8 @@
     <sheet name="Connectors" sheetId="4" r:id="rId4"/>
     <sheet name="Hubs" sheetId="5" r:id="rId5"/>
     <sheet name="CO2Locations" sheetId="7" r:id="rId6"/>
-    <sheet name="Restrictions" sheetId="6" r:id="rId7"/>
+    <sheet name="FuelCharacteristics" sheetId="8" r:id="rId7"/>
+    <sheet name="Restrictions" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -355,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="836">
   <si>
     <t>Name</t>
   </si>
@@ -2860,6 +2861,9 @@
   </si>
   <si>
     <t>CO2 Cost pkg</t>
+  </si>
+  <si>
+    <t>EnergyDensity</t>
   </si>
 </sst>
 </file>
@@ -3312,7 +3316,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3555,7 +3559,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4455,7 +4459,7 @@
   <dimension ref="A1:S167"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4477,6 +4481,7 @@
     <col min="16" max="16" width="20.42578125" customWidth="1"/>
     <col min="17" max="17" width="21.5703125" customWidth="1"/>
     <col min="18" max="18" width="24.85546875" customWidth="1"/>
+    <col min="19" max="19" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -13842,11 +13847,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -283,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="856">
   <si>
     <t>Name</t>
   </si>
@@ -2845,6 +2845,12 @@
   </si>
   <si>
     <t>4-ker</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -3304,10 +3310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3321,7 +3327,7 @@
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3343,8 +3349,14 @@
       <c r="G1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>854</v>
+      </c>
+      <c r="I1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -3366,8 +3378,14 @@
       <c r="G2" s="5">
         <v>999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -3389,8 +3407,14 @@
       <c r="G3" s="5">
         <v>400</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -3412,8 +3436,14 @@
       <c r="G4" s="5">
         <v>999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>829</v>
       </c>
@@ -3434,6 +3464,12 @@
       </c>
       <c r="G5" s="5">
         <v>999999</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3445,10 +3481,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3460,7 +3496,7 @@
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3476,8 +3512,14 @@
       <c r="E1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>854</v>
+      </c>
+      <c r="G1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -3493,8 +3535,14 @@
       <c r="E2" s="6">
         <v>858</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="12">
+        <v>320</v>
+      </c>
+      <c r="G2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>54</v>
       </c>
@@ -3510,8 +3558,14 @@
       <c r="E3" s="6">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="12">
+        <v>320</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>55</v>
       </c>
@@ -3527,8 +3581,14 @@
       <c r="E4" s="6">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="12">
+        <v>320</v>
+      </c>
+      <c r="G4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>56</v>
       </c>
@@ -3544,8 +3604,14 @@
       <c r="E5" s="6">
         <v>130.30000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="12">
+        <v>320</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>57</v>
       </c>
@@ -3561,8 +3627,14 @@
       <c r="E6" s="6">
         <v>414.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="12">
+        <v>320</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>831</v>
       </c>
@@ -3577,6 +3649,12 @@
       </c>
       <c r="E7" s="6">
         <v>120</v>
+      </c>
+      <c r="F7" s="12">
+        <v>320</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3587,10 +3665,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H2" sqref="H2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3601,23 +3679,24 @@
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" customWidth="1"/>
     <col min="6" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="9.42578125" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3639,38 +3718,44 @@
       <c r="G1" t="s">
         <v>827</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -3692,34 +3777,40 @@
       <c r="G2" s="8">
         <v>0</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8">
+        <v>80</v>
+      </c>
+      <c r="I2" s="8">
+        <v>300</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7">
+      <c r="K2" s="7">
         <v>1</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="10">
+      <c r="O2" s="10">
         <v>0.27956989247311831</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="10">
+      <c r="Q2" s="10">
         <v>0.58064516129032262</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="S2" s="10">
         <v>0.13978494623655915</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>832</v>
       </c>
@@ -3741,30 +3832,36 @@
       <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8">
+        <v>80</v>
+      </c>
+      <c r="I3" s="8">
+        <v>250</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="7">
+      <c r="K3" s="7">
         <v>1</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="10">
+      <c r="O3" s="10">
         <v>0.32520325203252037</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="10">
+      <c r="Q3" s="10">
         <v>0.67479674796747968</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
@@ -3786,26 +3883,32 @@
       <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8">
+        <v>80</v>
+      </c>
+      <c r="I4" s="8">
+        <v>150</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="7">
+      <c r="K4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="7">
+      <c r="O4" s="7">
         <v>1</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
@@ -3827,26 +3930,32 @@
       <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8">
+        <v>80</v>
+      </c>
+      <c r="I5" s="8">
+        <v>200</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="7">
+      <c r="K5" s="7">
         <v>1</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="7">
+      <c r="O5" s="7">
         <v>1</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -3868,30 +3977,36 @@
       <c r="G6" s="8">
         <v>0.1</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="8">
+        <v>80</v>
+      </c>
+      <c r="I6" s="8">
+        <v>100</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="10">
+      <c r="K6" s="10">
         <v>0.92636284614429409</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="K6" s="10">
+      <c r="M6" s="10">
         <v>7.3637153855705906E-2</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="7">
+      <c r="O6" s="7">
         <v>1</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>833</v>
       </c>
@@ -3913,34 +4028,40 @@
       <c r="G7" s="8">
         <v>0.1</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8">
+        <v>80</v>
+      </c>
+      <c r="I7" s="8">
+        <v>50</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="10">
+      <c r="K7" s="10">
         <v>0.90716180371352784</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="K7" s="10">
+      <c r="M7" s="10">
         <v>9.2838196286472163E-2</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="10">
+      <c r="O7" s="10">
         <v>0.30902777777777785</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="10">
+      <c r="Q7" s="10">
         <v>0.6909722222222221</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>834</v>
       </c>
@@ -3962,38 +4083,44 @@
       <c r="G8" s="8">
         <v>0.1</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8">
+        <v>80</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="10">
+      <c r="K8" s="10">
         <v>0.90716180371352784</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="K8" s="10">
+      <c r="M8" s="10">
         <v>9.2838196286472163E-2</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="10">
+      <c r="O8" s="10">
         <v>0.245</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="10">
+      <c r="Q8" s="10">
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="R8" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="S8" s="10">
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
@@ -4015,26 +4142,32 @@
       <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8">
+        <v>240</v>
+      </c>
+      <c r="I9" s="8">
+        <v>300</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="7">
+      <c r="K9" s="7">
         <v>1</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="7">
+      <c r="O9" s="7">
         <v>1</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>51</v>
       </c>
@@ -4056,26 +4189,32 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8">
+        <v>240</v>
+      </c>
+      <c r="I10" s="8">
+        <v>250</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="7">
+      <c r="K10" s="7">
         <v>1</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="7">
+      <c r="O10" s="7">
         <v>1</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>44</v>
       </c>
@@ -4097,26 +4236,32 @@
       <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8">
+        <v>240</v>
+      </c>
+      <c r="I11" s="8">
+        <v>200</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="7">
+      <c r="K11" s="7">
         <v>1</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="7">
+      <c r="O11" s="7">
         <v>1</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>45</v>
       </c>
@@ -4138,22 +4283,28 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8">
+        <v>240</v>
+      </c>
+      <c r="I12" s="8">
+        <v>150</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="7">
+      <c r="K12" s="7">
         <v>1</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="7">
+      <c r="O12" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>58</v>
       </c>
@@ -4175,22 +4326,28 @@
       <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="8">
+        <v>240</v>
+      </c>
+      <c r="I13" s="8">
+        <v>100</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="7">
+      <c r="K13" s="7">
         <v>1</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="7">
+      <c r="O13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>59</v>
       </c>
@@ -4212,18 +4369,24 @@
       <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8">
+        <v>240</v>
+      </c>
+      <c r="I14" s="8">
+        <v>50</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="7">
+      <c r="K14" s="7">
         <v>1</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="7">
+      <c r="O14" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4238,7 +4401,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4773,15 +4936,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4794,8 +4957,14 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>35</v>
       </c>
@@ -4808,8 +4977,14 @@
       <c r="D2" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>160</v>
+      </c>
+      <c r="F2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>36</v>
       </c>
@@ -4822,8 +4997,14 @@
       <c r="D3" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="12">
+        <v>160</v>
+      </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>845</v>
       </c>
@@ -4835,6 +5016,12 @@
       </c>
       <c r="D4" s="12">
         <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>160</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Hubs" sheetId="5" r:id="rId5"/>
     <sheet name="CO2Locations" sheetId="7" r:id="rId6"/>
     <sheet name="Restrictions" sheetId="6" r:id="rId7"/>
+    <sheet name="EnergyTypes" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -282,8 +283,43 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+In MJ/kg
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="857">
   <si>
     <t>Name</t>
   </si>
@@ -2851,6 +2887,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>EnergyDensity</t>
   </si>
 </sst>
 </file>
@@ -2860,7 +2899,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2896,6 +2935,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3312,7 +3364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -3668,7 +3720,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H8"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14475,4 +14527,56 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B4">
+        <v>42.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="858">
   <si>
     <t>Name</t>
   </si>
@@ -2890,6 +2890,9 @@
   </si>
   <si>
     <t>EnergyDensity</t>
+  </si>
+  <si>
+    <t>OutputSpecEnergy</t>
   </si>
 </sst>
 </file>
@@ -3717,10 +3720,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3730,25 +3733,28 @@
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="9" width="11.85546875" style="12" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="9.42578125" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="9.42578125" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3767,47 +3773,50 @@
       <c r="F1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="H1" t="s">
         <v>827</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>854</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>855</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>42</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -3830,39 +3839,42 @@
         <v>0</v>
       </c>
       <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
         <v>80</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>300</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>1</v>
       </c>
-      <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="10">
+      <c r="P2" s="10">
         <v>0.27956989247311831</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="R2" s="10">
         <v>0.58064516129032262</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="S2" s="10">
+      <c r="T2" s="10">
         <v>0.13978494623655915</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>832</v>
       </c>
@@ -3881,39 +3893,42 @@
       <c r="F3" s="7">
         <v>999999</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="12">
         <v>0</v>
       </c>
       <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
         <v>80</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>250</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <v>1</v>
       </c>
-      <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="10">
+      <c r="P3" s="10">
         <v>0.32520325203252037</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="R3" s="10">
         <v>0.67479674796747968</v>
       </c>
-      <c r="R3" s="7"/>
       <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
@@ -3936,31 +3951,34 @@
         <v>0</v>
       </c>
       <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
         <v>80</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="8">
         <v>150</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="7">
         <v>1</v>
       </c>
-      <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="7">
+      <c r="P4" s="7">
         <v>1</v>
       </c>
-      <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
@@ -3983,31 +4001,34 @@
         <v>0</v>
       </c>
       <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
         <v>80</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>200</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="7">
+      <c r="L5" s="7">
         <v>1</v>
       </c>
-      <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="7">
+      <c r="P5" s="7">
         <v>1</v>
       </c>
-      <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -4027,38 +4048,41 @@
         <v>999999</v>
       </c>
       <c r="G6" s="8">
+        <v>43.1</v>
+      </c>
+      <c r="H6" s="8">
         <v>0.1</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>80</v>
       </c>
-      <c r="I6" s="8">
-        <v>100</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="8">
+        <v>100</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="10">
         <v>0.92636284614429409</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="M6" s="10">
+      <c r="N6" s="10">
         <v>7.3637153855705906E-2</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <v>1</v>
       </c>
-      <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>833</v>
       </c>
@@ -4078,42 +4102,45 @@
         <v>999999</v>
       </c>
       <c r="G7" s="8">
+        <v>43.1</v>
+      </c>
+      <c r="H7" s="8">
         <v>0.1</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>80</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>50</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="10">
         <v>0.90716180371352784</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="M7" s="10">
+      <c r="N7" s="10">
         <v>9.2838196286472163E-2</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="O7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="10">
+      <c r="P7" s="10">
         <v>0.30902777777777785</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="R7" s="10">
         <v>0.6909722222222221</v>
       </c>
-      <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>834</v>
       </c>
@@ -4133,46 +4160,49 @@
         <v>999999</v>
       </c>
       <c r="G8" s="8">
+        <v>43.1</v>
+      </c>
+      <c r="H8" s="8">
         <v>0.1</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="8">
         <v>80</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
         <v>0</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="10">
+      <c r="L8" s="10">
         <v>0.90716180371352784</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="M8" s="10">
+      <c r="N8" s="10">
         <v>9.2838196286472163E-2</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="O8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="10">
+      <c r="P8" s="10">
         <v>0.245</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="R8" s="10">
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="S8" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="S8" s="10">
+      <c r="T8" s="10">
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
@@ -4195,31 +4225,34 @@
         <v>0</v>
       </c>
       <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
         <v>240</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="8">
         <v>300</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="7">
+      <c r="L9" s="7">
         <v>1</v>
       </c>
-      <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="7">
+      <c r="P9" s="7">
         <v>1</v>
       </c>
-      <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>51</v>
       </c>
@@ -4242,31 +4275,34 @@
         <v>0</v>
       </c>
       <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
         <v>240</v>
       </c>
-      <c r="I10" s="8">
+      <c r="J10" s="8">
         <v>250</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="7">
+      <c r="L10" s="7">
         <v>1</v>
       </c>
-      <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="7">
+      <c r="P10" s="7">
         <v>1</v>
       </c>
-      <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>44</v>
       </c>
@@ -4289,31 +4325,34 @@
         <v>0</v>
       </c>
       <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
         <v>240</v>
       </c>
-      <c r="I11" s="8">
+      <c r="J11" s="8">
         <v>200</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="7">
+      <c r="L11" s="7">
         <v>1</v>
       </c>
-      <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="7">
+      <c r="P11" s="7">
         <v>1</v>
       </c>
-      <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>45</v>
       </c>
@@ -4336,27 +4375,30 @@
         <v>0</v>
       </c>
       <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
         <v>240</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <v>150</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="7">
+      <c r="L12" s="7">
         <v>1</v>
       </c>
-      <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="7">
+      <c r="P12" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>58</v>
       </c>
@@ -4379,27 +4421,30 @@
         <v>0</v>
       </c>
       <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
         <v>240</v>
       </c>
-      <c r="I13" s="8">
-        <v>100</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="8">
+        <v>100</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="7">
+      <c r="L13" s="7">
         <v>1</v>
       </c>
-      <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="7">
+      <c r="P13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>59</v>
       </c>
@@ -4422,23 +4467,26 @@
         <v>0</v>
       </c>
       <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
         <v>240</v>
       </c>
-      <c r="I14" s="8">
+      <c r="J14" s="8">
         <v>50</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="7">
+      <c r="L14" s="7">
         <v>1</v>
       </c>
-      <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="7">
+      <c r="P14" s="7">
         <v>1</v>
       </c>
     </row>
@@ -14533,8 +14581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="887">
   <si>
     <t>Name</t>
   </si>
@@ -2893,6 +2893,93 @@
   </si>
   <si>
     <t>OutputSpecEnergy</t>
+  </si>
+  <si>
+    <t>NatGas</t>
+  </si>
+  <si>
+    <t>natgas</t>
+  </si>
+  <si>
+    <t>NGCond</t>
+  </si>
+  <si>
+    <t>cng</t>
+  </si>
+  <si>
+    <t>BM-Meth</t>
+  </si>
+  <si>
+    <t>PtF-Meth</t>
+  </si>
+  <si>
+    <t>PVcng</t>
+  </si>
+  <si>
+    <t>TruckN1_ng</t>
+  </si>
+  <si>
+    <t>TruckN2_ng</t>
+  </si>
+  <si>
+    <t>TruckN3_ng</t>
+  </si>
+  <si>
+    <t>TruckSZM_ng</t>
+  </si>
+  <si>
+    <t>1-ng</t>
+  </si>
+  <si>
+    <t>1-bm_Meth</t>
+  </si>
+  <si>
+    <t>1-h2_Meth</t>
+  </si>
+  <si>
+    <t>2-cond</t>
+  </si>
+  <si>
+    <t>MethaneHub</t>
+  </si>
+  <si>
+    <t>2-bm_Meth</t>
+  </si>
+  <si>
+    <t>2-h2_Meth</t>
+  </si>
+  <si>
+    <t>3-cng_PV</t>
+  </si>
+  <si>
+    <t>3-TrN1_ng</t>
+  </si>
+  <si>
+    <t>3-TrN2_ng</t>
+  </si>
+  <si>
+    <t>3-TrN3_ng</t>
+  </si>
+  <si>
+    <t>3-TrSZM_ng</t>
+  </si>
+  <si>
+    <t>4-cngPV</t>
+  </si>
+  <si>
+    <t>4-TrN1_ng</t>
+  </si>
+  <si>
+    <t>4-TrN2_ng</t>
+  </si>
+  <si>
+    <t>4-TrN3_ng</t>
+  </si>
+  <si>
+    <t>4-TrSZM_ng</t>
+  </si>
+  <si>
+    <t>1-EC_4</t>
   </si>
 </sst>
 </file>
@@ -2988,7 +3075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3000,6 +3087,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -3365,13 +3476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -3440,47 +3551,47 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="B3" s="12">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C3" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="E3" s="12">
+        <v>5.62E-2</v>
+      </c>
+      <c r="F3" s="12">
         <v>0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="12">
+        <v>999999</v>
+      </c>
+      <c r="H3" s="11">
         <v>0</v>
       </c>
-      <c r="G3" s="5">
-        <v>400</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>150</v>
+      <c r="I3" s="11">
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -3489,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>999999</v>
-      </c>
-      <c r="H4" s="12">
+        <v>400</v>
+      </c>
+      <c r="H4" s="11">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>829</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -3509,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>830</v>
+        <v>7</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -3520,10 +3631,39 @@
       <c r="G5" s="5">
         <v>999999</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>0</v>
       </c>
       <c r="I5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>999999</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
@@ -3590,7 +3730,7 @@
       <c r="E2" s="6">
         <v>858</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>320</v>
       </c>
       <c r="G2">
@@ -3613,7 +3753,7 @@
       <c r="E3" s="6">
         <v>7.5</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>320</v>
       </c>
       <c r="G3">
@@ -3636,7 +3776,7 @@
       <c r="E4" s="6">
         <v>24.2</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>320</v>
       </c>
       <c r="G4">
@@ -3659,7 +3799,7 @@
       <c r="E5" s="6">
         <v>130.30000000000001</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>320</v>
       </c>
       <c r="G5">
@@ -3682,7 +3822,7 @@
       <c r="E6" s="6">
         <v>414.5</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>320</v>
       </c>
       <c r="G6">
@@ -3705,7 +3845,7 @@
       <c r="E7" s="6">
         <v>120</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>320</v>
       </c>
       <c r="G7">
@@ -3720,24 +3860,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="11" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="5" style="11" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="11" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="16" width="9.42578125" customWidth="1"/>
     <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -3754,7 +3894,7 @@
     <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3773,16 +3913,16 @@
       <c r="F1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>857</v>
       </c>
       <c r="H1" t="s">
         <v>827</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>855</v>
       </c>
       <c r="K1" t="s">
@@ -3816,7 +3956,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -3874,7 +4014,7 @@
         <v>0.13978494623655915</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>832</v>
       </c>
@@ -3893,7 +4033,7 @@
       <c r="F3" s="7">
         <v>999999</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>0</v>
       </c>
       <c r="H3" s="8">
@@ -3928,59 +4068,60 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>860</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.97802197802197799</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>999999</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>80</v>
+      </c>
+      <c r="J4" s="15">
+        <v>225</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="P4" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="13"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.54</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>999999</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>80</v>
-      </c>
-      <c r="J4" s="8">
-        <v>150</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -4007,7 +4148,7 @@
         <v>80</v>
       </c>
       <c r="J5" s="8">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
@@ -4018,7 +4159,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="P5" s="7">
         <v>1</v>
@@ -4028,9 +4169,9 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -4039,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="9">
-        <v>0.80715261393269588</v>
+        <v>0.54</v>
       </c>
       <c r="E6" s="8">
         <v>0</v>
@@ -4048,29 +4189,25 @@
         <v>999999</v>
       </c>
       <c r="G6" s="8">
-        <v>43.1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="8">
         <v>80</v>
       </c>
       <c r="J6" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0.92636284614429409</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="N6" s="10">
-        <v>7.3637153855705906E-2</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
         <v>8</v>
       </c>
@@ -4082,67 +4219,59 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="B7" s="7">
+    <row r="7" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="B7" s="17">
         <v>0</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="17">
         <v>0</v>
       </c>
-      <c r="D7" s="9">
-        <v>0.76392572944297066</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="17">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="E7" s="18">
         <v>0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="18">
         <v>999999</v>
       </c>
-      <c r="G7" s="8">
-        <v>43.1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
         <v>80</v>
       </c>
-      <c r="J7" s="8">
-        <v>50</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0.90716180371352784</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="N7" s="10">
-        <v>9.2838196286472163E-2</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="10">
-        <v>0.30902777777777785</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" s="10">
-        <v>0.6909722222222221</v>
-      </c>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J7" s="18">
+        <v>175</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="17">
+        <v>1</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="P7" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>834</v>
+        <v>11</v>
       </c>
       <c r="B8" s="7">
         <v>0</v>
@@ -4151,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="9">
-        <v>0.70261437908496738</v>
+        <v>0.80715261393269588</v>
       </c>
       <c r="E8" s="8">
         <v>0</v>
@@ -4169,42 +4298,34 @@
         <v>80</v>
       </c>
       <c r="J8" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L8" s="10">
-        <v>0.90716180371352784</v>
+        <v>0.92636284614429409</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>830</v>
       </c>
       <c r="N8" s="10">
-        <v>9.2838196286472163E-2</v>
+        <v>7.3637153855705906E-2</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="10">
-        <v>0.245</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="10">
-        <v>3.0000000000000002E-2</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>831</v>
-      </c>
-      <c r="T8" s="10">
-        <v>0.72499999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>50</v>
+        <v>833</v>
       </c>
       <c r="B9" s="7">
         <v>0</v>
@@ -4213,48 +4334,56 @@
         <v>0</v>
       </c>
       <c r="D9" s="9">
-        <v>0.78947368421052633</v>
+        <v>0.76392572944297066</v>
       </c>
       <c r="E9" s="8">
         <v>0</v>
       </c>
       <c r="F9" s="8">
-        <v>400</v>
+        <v>999999</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>43.1</v>
       </c>
       <c r="H9" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I9" s="8">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="J9" s="8">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0.90716180371352784</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="N9" s="10">
+        <v>9.2838196286472163E-2</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="7">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="P9" s="10">
+        <v>0.30902777777777785</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0.6909722222222221</v>
+      </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>51</v>
+        <v>834</v>
       </c>
       <c r="B10" s="7">
         <v>0</v>
@@ -4263,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="9">
-        <v>0.83333333333333326</v>
+        <v>0.70261437908496738</v>
       </c>
       <c r="E10" s="8">
         <v>0</v>
@@ -4272,89 +4401,107 @@
         <v>999999</v>
       </c>
       <c r="G10" s="8">
+        <v>43.1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>80</v>
+      </c>
+      <c r="J10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="8">
+      <c r="K10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0.90716180371352784</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="N10" s="10">
+        <v>9.2838196286472163E-2</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0.245</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="10">
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="T10" s="10">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="B11" s="20">
         <v>0</v>
       </c>
-      <c r="I10" s="8">
-        <v>240</v>
-      </c>
-      <c r="J10" s="8">
-        <v>250</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.81270252754374595</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>999999</v>
+      </c>
+      <c r="G11" s="21">
+        <v>43.1</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="21">
+        <v>80</v>
+      </c>
+      <c r="J11" s="21">
+        <v>125</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="20">
+        <v>0.97731691510045371</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="N11" s="20">
+        <v>2.2683084899546291E-2</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>861</v>
+      </c>
+      <c r="P11" s="20">
         <v>1</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>999999</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>240</v>
-      </c>
-      <c r="J11" s="8">
-        <v>200</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="7">
-        <v>1</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="19"/>
+      <c r="W11" s="19"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B12" s="7">
         <v>0</v>
@@ -4363,13 +4510,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="9">
-        <v>0.6923076923076924</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="E12" s="8">
         <v>0</v>
       </c>
       <c r="F12" s="8">
-        <v>999999</v>
+        <v>400</v>
       </c>
       <c r="G12" s="8">
         <v>0</v>
@@ -4381,10 +4528,10 @@
         <v>240</v>
       </c>
       <c r="J12" s="8">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="L12" s="7">
         <v>1</v>
@@ -4392,15 +4539,19 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P12" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B13" s="7">
         <v>0</v>
@@ -4409,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="9">
-        <v>0.70512820512820518</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="E13" s="8">
         <v>0</v>
@@ -4427,7 +4578,7 @@
         <v>240</v>
       </c>
       <c r="J13" s="8">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>29</v>
@@ -4438,15 +4589,19 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P13" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B14" s="7">
         <v>0</v>
@@ -4455,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="9">
-        <v>1.5340909090909089</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="E14" s="8">
         <v>0</v>
@@ -4473,7 +4628,7 @@
         <v>240</v>
       </c>
       <c r="J14" s="8">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>29</v>
@@ -4487,6 +4642,386 @@
         <v>28</v>
       </c>
       <c r="P14" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.6923076923076924</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>999999</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>240</v>
+      </c>
+      <c r="J15" s="8">
+        <v>150</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.70512820512820518</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>999999</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>240</v>
+      </c>
+      <c r="J16" s="8">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1.5340909090909089</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>999999</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>240</v>
+      </c>
+      <c r="J17" s="8">
+        <v>50</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="B18" s="22">
+        <v>0</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0</v>
+      </c>
+      <c r="F18" s="23">
+        <v>86</v>
+      </c>
+      <c r="G18" s="34">
+        <v>0</v>
+      </c>
+      <c r="H18" s="34">
+        <v>0</v>
+      </c>
+      <c r="I18" s="34">
+        <v>240</v>
+      </c>
+      <c r="J18" s="23">
+        <v>75</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>861</v>
+      </c>
+      <c r="L18" s="22">
+        <v>1</v>
+      </c>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="B19" s="24">
+        <v>0</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0</v>
+      </c>
+      <c r="D19" s="26">
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="G19" s="34">
+        <v>0</v>
+      </c>
+      <c r="H19" s="34">
+        <v>0</v>
+      </c>
+      <c r="I19" s="34">
+        <v>240</v>
+      </c>
+      <c r="J19" s="25">
+        <v>125</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="L19" s="24">
+        <v>1</v>
+      </c>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>866</v>
+      </c>
+      <c r="B20" s="27">
+        <v>0</v>
+      </c>
+      <c r="C20" s="27">
+        <v>0</v>
+      </c>
+      <c r="D20" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0</v>
+      </c>
+      <c r="F20" s="28">
+        <v>2.42</v>
+      </c>
+      <c r="G20" s="34">
+        <v>0</v>
+      </c>
+      <c r="H20" s="34">
+        <v>0</v>
+      </c>
+      <c r="I20" s="34">
+        <v>240</v>
+      </c>
+      <c r="J20" s="28">
+        <v>175</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>861</v>
+      </c>
+      <c r="L20" s="27">
+        <v>1</v>
+      </c>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>867</v>
+      </c>
+      <c r="B21" s="30">
+        <v>0</v>
+      </c>
+      <c r="C21" s="30">
+        <v>0</v>
+      </c>
+      <c r="D21" s="32">
+        <v>6.1111111111111114E-3</v>
+      </c>
+      <c r="E21" s="31">
+        <v>0</v>
+      </c>
+      <c r="F21" s="31">
+        <v>13.03</v>
+      </c>
+      <c r="G21" s="34">
+        <v>0</v>
+      </c>
+      <c r="H21" s="34">
+        <v>0</v>
+      </c>
+      <c r="I21" s="34">
+        <v>240</v>
+      </c>
+      <c r="J21" s="31">
+        <v>225</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="L21" s="30">
+        <v>1</v>
+      </c>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>868</v>
+      </c>
+      <c r="B22" s="33">
+        <v>0</v>
+      </c>
+      <c r="C22" s="33">
+        <v>0</v>
+      </c>
+      <c r="D22" s="33">
+        <v>1.3235294117647061</v>
+      </c>
+      <c r="E22" s="34">
+        <v>0</v>
+      </c>
+      <c r="F22" s="34">
+        <v>41.45</v>
+      </c>
+      <c r="G22" s="34">
+        <v>0</v>
+      </c>
+      <c r="H22" s="34">
+        <v>0</v>
+      </c>
+      <c r="I22" s="34">
+        <v>240</v>
+      </c>
+      <c r="J22" s="34">
+        <v>275</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>861</v>
+      </c>
+      <c r="L22" s="33">
+        <v>1</v>
+      </c>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="33">
         <v>1</v>
       </c>
     </row>
@@ -4498,13 +5033,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
@@ -4512,520 +5047,758 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="35" t="s">
         <v>835</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="35" t="s">
         <v>836</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="35" t="s">
         <v>832</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="35" t="s">
+        <v>869</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>858</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>860</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D5" s="35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D6" s="35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>870</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>862</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D8" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>837</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B9" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C9" s="35" t="s">
         <v>833</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D9" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
         <v>838</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C10" s="35" t="s">
         <v>834</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D10" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>871</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>863</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
         <v>839</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B12" s="35" t="s">
         <v>829</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C12" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D12" s="35" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
         <v>840</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B13" s="36" t="s">
         <v>829</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C13" s="35" t="s">
         <v>833</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D13" s="35" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>841</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B14" s="36" t="s">
         <v>829</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C14" s="35" t="s">
         <v>834</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D14" s="35" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="15" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>886</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>829</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>863</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
         <v>842</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C16" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D16" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
         <v>843</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C17" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D17" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
         <v>844</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B18" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C18" s="35" t="s">
         <v>845</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D18" s="35" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
         <v>846</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B19" s="35" t="s">
         <v>832</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C19" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D19" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
         <v>847</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B20" s="35" t="s">
         <v>832</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C20" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D20" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>872</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>860</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B22" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D22" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B23" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D23" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>874</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>862</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B25" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C25" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D25" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
         <v>848</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B26" s="35" t="s">
         <v>833</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C26" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D26" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
         <v>849</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B27" s="35" t="s">
         <v>833</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C27" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D27" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
         <v>850</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B28" s="35" t="s">
         <v>834</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C28" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D28" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
         <v>851</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B29" s="35" t="s">
         <v>834</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C29" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D29" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
         <v>852</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B30" s="35" t="s">
         <v>834</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C30" s="35" t="s">
         <v>845</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D30" s="35" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>875</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>863</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B32" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C32" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D32" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B33" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C33" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D33" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
+        <v>876</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>864</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B35" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C35" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D35" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B36" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C36" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D36" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B37" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C37" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D37" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B38" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C38" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D38" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>877</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>865</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
+        <v>878</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>866</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="35" t="s">
+        <v>879</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>867</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>880</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>868</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
         <v>853</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B43" s="35" t="s">
         <v>845</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C43" s="35" t="s">
         <v>831</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D43" s="35" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B44" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C44" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D44" s="35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B45" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C45" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D45" s="35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>881</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>864</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B47" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C47" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D47" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B48" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C48" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D48" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B49" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C49" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D49" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B50" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C50" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D50" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="35" t="s">
+        <v>882</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>865</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="35" t="s">
+        <v>883</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>866</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="35" t="s">
+        <v>884</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>867</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
+        <v>885</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>868</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5036,13 +5809,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -5065,16 +5838,16 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>0</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>0</v>
       </c>
       <c r="E2">
@@ -5085,19 +5858,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>0</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>160</v>
       </c>
       <c r="F3">
@@ -5105,23 +5878,43 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>845</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>831</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>0</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>160</v>
       </c>
       <c r="F4">
         <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>873</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>861</v>
+      </c>
+      <c r="C5" s="36">
+        <v>0</v>
+      </c>
+      <c r="D5" s="36">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>160</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5133,7 +5926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S167"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J130" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>

--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -3479,7 +3479,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="11">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3862,8 +3862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3985,7 +3985,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="8">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>10</v>
@@ -4043,7 +4043,7 @@
         <v>80</v>
       </c>
       <c r="J3" s="8">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>10</v>
@@ -4097,7 +4097,7 @@
         <v>80</v>
       </c>
       <c r="J4" s="15">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>859</v>
@@ -4148,7 +4148,7 @@
         <v>80</v>
       </c>
       <c r="J5" s="8">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
@@ -4198,7 +4198,7 @@
         <v>80</v>
       </c>
       <c r="J6" s="8">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
@@ -4248,7 +4248,7 @@
         <v>80</v>
       </c>
       <c r="J7" s="18">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>19</v>
@@ -4352,7 +4352,7 @@
         <v>80</v>
       </c>
       <c r="J9" s="8">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>7</v>
@@ -4472,7 +4472,7 @@
         <v>80</v>
       </c>
       <c r="J11" s="21">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="K11" s="20" t="s">
         <v>7</v>
@@ -4578,7 +4578,7 @@
         <v>240</v>
       </c>
       <c r="J13" s="8">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>29</v>
@@ -4628,7 +4628,7 @@
         <v>240</v>
       </c>
       <c r="J14" s="8">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>29</v>
@@ -4678,7 +4678,7 @@
         <v>240</v>
       </c>
       <c r="J15" s="8">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>29</v>
@@ -4724,7 +4724,7 @@
         <v>240</v>
       </c>
       <c r="J16" s="8">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>29</v>
@@ -4770,7 +4770,7 @@
         <v>240</v>
       </c>
       <c r="J17" s="8">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>29</v>
@@ -4816,7 +4816,7 @@
         <v>240</v>
       </c>
       <c r="J18" s="23">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="K18" s="22" t="s">
         <v>861</v>
@@ -4866,7 +4866,7 @@
         <v>240</v>
       </c>
       <c r="J19" s="25">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="K19" s="24" t="s">
         <v>861</v>
@@ -4916,7 +4916,7 @@
         <v>240</v>
       </c>
       <c r="J20" s="28">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="K20" s="27" t="s">
         <v>861</v>
@@ -4962,7 +4962,7 @@
         <v>240</v>
       </c>
       <c r="J21" s="31">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="K21" s="30" t="s">
         <v>861</v>
@@ -5008,7 +5008,7 @@
         <v>240</v>
       </c>
       <c r="J22" s="34">
-        <v>275</v>
+        <v>50</v>
       </c>
       <c r="K22" s="33" t="s">
         <v>861</v>
@@ -5035,7 +5035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -3862,8 +3862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5926,8 +5926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S167"/>
   <sheetViews>
-    <sheetView topLeftCell="J130" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15317,7 +15317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="891">
   <si>
     <t>Name</t>
   </si>
@@ -2980,6 +2980,18 @@
   </si>
   <si>
     <t>1-EC_4</t>
+  </si>
+  <si>
+    <t>H2 Process</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>Meth</t>
   </si>
 </sst>
 </file>
@@ -3860,10 +3872,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3876,25 +3888,26 @@
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" style="11" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5" style="11" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="9.42578125" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="5" style="11" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="9.42578125" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3919,44 +3932,47 @@
       <c r="H1" t="s">
         <v>827</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="36" t="s">
+        <v>887</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>855</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>42</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -3981,40 +3997,43 @@
       <c r="H2" s="8">
         <v>0</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="J2" s="8">
         <v>80</v>
       </c>
-      <c r="J2" s="8">
+      <c r="K2" s="8">
         <v>250</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>1</v>
       </c>
-      <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="10">
+      <c r="Q2" s="10">
         <v>0.27956989247311831</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="10">
+      <c r="S2" s="10">
         <v>0.58064516129032262</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="T2" s="10">
+      <c r="U2" s="10">
         <v>0.13978494623655915</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>832</v>
       </c>
@@ -4039,36 +4058,39 @@
       <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="J3" s="8">
         <v>80</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>300</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>1</v>
       </c>
-      <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="7"/>
+      <c r="P3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="10">
+      <c r="Q3" s="10">
         <v>0.32520325203252037</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="10">
+      <c r="S3" s="10">
         <v>0.67479674796747968</v>
       </c>
-      <c r="S3" s="7"/>
       <c r="T3" s="7"/>
-    </row>
-    <row r="4" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>860</v>
       </c>
@@ -4093,33 +4115,36 @@
       <c r="H4" s="14">
         <v>0</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="J4" s="14">
         <v>80</v>
       </c>
-      <c r="J4" s="15">
+      <c r="K4" s="15">
         <v>130</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>859</v>
       </c>
-      <c r="L4" s="14">
+      <c r="M4" s="14">
         <v>1</v>
       </c>
-      <c r="M4" s="14"/>
       <c r="N4" s="14"/>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="14"/>
+      <c r="P4" s="14" t="s">
         <v>861</v>
       </c>
-      <c r="P4" s="14">
+      <c r="Q4" s="14">
         <v>1</v>
       </c>
-      <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
-      <c r="U4" s="13"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U4" s="14"/>
+      <c r="V4" s="13"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
@@ -4144,32 +4169,35 @@
       <c r="H5" s="8">
         <v>0</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="J5" s="8">
         <v>80</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>190</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7">
+      <c r="M5" s="7">
         <v>1</v>
       </c>
-      <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="7"/>
+      <c r="P5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="7">
+      <c r="Q5" s="7">
         <v>1</v>
       </c>
-      <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -4194,32 +4222,35 @@
       <c r="H6" s="8">
         <v>0</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="J6" s="8">
         <v>80</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>220</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <v>1</v>
       </c>
-      <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="7"/>
+      <c r="P6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="7">
+      <c r="Q6" s="7">
         <v>1</v>
       </c>
-      <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>862</v>
       </c>
@@ -4244,32 +4275,35 @@
       <c r="H7" s="18">
         <v>0</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="J7" s="18">
         <v>80</v>
       </c>
-      <c r="J7" s="18">
+      <c r="K7" s="18">
         <v>160</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="L7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="17">
+      <c r="M7" s="17">
         <v>1</v>
       </c>
-      <c r="M7" s="17"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="17"/>
+      <c r="P7" s="17" t="s">
         <v>861</v>
       </c>
-      <c r="P7" s="17">
+      <c r="Q7" s="17">
         <v>1</v>
       </c>
-      <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U7" s="17"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -4294,36 +4328,39 @@
       <c r="H8" s="8">
         <v>0.1</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="8">
         <v>80</v>
       </c>
-      <c r="J8" s="8">
-        <v>100</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8">
+        <v>100</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="10">
+      <c r="M8" s="10">
         <v>0.92636284614429409</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="N8" s="10">
+      <c r="O8" s="10">
         <v>7.3637153855705906E-2</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Q8" s="7">
         <v>1</v>
       </c>
-      <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>833</v>
       </c>
@@ -4348,40 +4385,43 @@
       <c r="H9" s="8">
         <v>0.1</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="34" t="s">
+        <v>889</v>
+      </c>
+      <c r="J9" s="8">
         <v>80</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>70</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="10">
+      <c r="M9" s="10">
         <v>0.90716180371352784</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="N9" s="10">
+      <c r="O9" s="10">
         <v>9.2838196286472163E-2</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="10">
+      <c r="Q9" s="10">
         <v>0.30902777777777785</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="R9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="10">
+      <c r="S9" s="10">
         <v>0.6909722222222221</v>
       </c>
-      <c r="S9" s="7"/>
       <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>834</v>
       </c>
@@ -4406,44 +4446,47 @@
       <c r="H10" s="8">
         <v>0.1</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="34" t="s">
+        <v>889</v>
+      </c>
+      <c r="J10" s="8">
         <v>80</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="10">
+      <c r="M10" s="10">
         <v>0.90716180371352784</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="N10" s="10">
+      <c r="O10" s="10">
         <v>9.2838196286472163E-2</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="10">
+      <c r="Q10" s="10">
         <v>0.245</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="R10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="10">
+      <c r="S10" s="10">
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="T10" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="T10" s="10">
+      <c r="U10" s="10">
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>863</v>
       </c>
@@ -4468,38 +4511,41 @@
       <c r="H11" s="21">
         <v>0.1</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="34" t="s">
+        <v>890</v>
+      </c>
+      <c r="J11" s="21">
         <v>80</v>
       </c>
-      <c r="J11" s="21">
+      <c r="K11" s="21">
         <v>40</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="L11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="20">
+      <c r="M11" s="20">
         <v>0.97731691510045371</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="N11" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="N11" s="20">
+      <c r="O11" s="20">
         <v>2.2683084899546291E-2</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="P11" s="20" t="s">
         <v>861</v>
       </c>
-      <c r="P11" s="20">
+      <c r="Q11" s="20">
         <v>1</v>
       </c>
-      <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
-      <c r="U11" s="19"/>
-      <c r="W11" s="19"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U11" s="20"/>
+      <c r="V11" s="19"/>
+      <c r="X11" s="19"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
@@ -4524,32 +4570,35 @@
       <c r="H12" s="8">
         <v>0</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="J12" s="8">
         <v>240</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <v>300</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="7">
+      <c r="M12" s="7">
         <v>1</v>
       </c>
-      <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="7"/>
+      <c r="P12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="7">
+      <c r="Q12" s="7">
         <v>1</v>
       </c>
-      <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>51</v>
       </c>
@@ -4574,32 +4623,35 @@
       <c r="H13" s="8">
         <v>0</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="J13" s="8">
         <v>240</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <v>275</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="7">
+      <c r="M13" s="7">
         <v>1</v>
       </c>
-      <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="7"/>
+      <c r="P13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="7">
+      <c r="Q13" s="7">
         <v>1</v>
       </c>
-      <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -4624,32 +4676,35 @@
       <c r="H14" s="8">
         <v>0</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="J14" s="8">
         <v>240</v>
       </c>
-      <c r="J14" s="8">
+      <c r="K14" s="8">
         <v>225</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="7">
+      <c r="M14" s="7">
         <v>1</v>
       </c>
-      <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="7"/>
+      <c r="P14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="7">
+      <c r="Q14" s="7">
         <v>1</v>
       </c>
-      <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
@@ -4674,28 +4729,31 @@
       <c r="H15" s="8">
         <v>0</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="J15" s="8">
         <v>240</v>
       </c>
-      <c r="J15" s="8">
+      <c r="K15" s="8">
         <v>175</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="7">
+      <c r="M15" s="7">
         <v>1</v>
       </c>
-      <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="7"/>
+      <c r="P15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P15" s="7">
+      <c r="Q15" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>58</v>
       </c>
@@ -4720,28 +4778,31 @@
       <c r="H16" s="8">
         <v>0</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="J16" s="8">
         <v>240</v>
       </c>
-      <c r="J16" s="8">
+      <c r="K16" s="8">
         <v>125</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="7">
+      <c r="M16" s="7">
         <v>1</v>
       </c>
-      <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="7"/>
+      <c r="P16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P16" s="7">
+      <c r="Q16" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>59</v>
       </c>
@@ -4766,28 +4827,31 @@
       <c r="H17" s="8">
         <v>0</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="J17" s="8">
         <v>240</v>
       </c>
-      <c r="J17" s="8">
+      <c r="K17" s="8">
         <v>75</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="7">
+      <c r="M17" s="7">
         <v>1</v>
       </c>
-      <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="7"/>
+      <c r="P17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="7">
+      <c r="Q17" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>864</v>
       </c>
@@ -4812,32 +4876,35 @@
       <c r="H18" s="34">
         <v>0</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="J18" s="34">
         <v>240</v>
       </c>
-      <c r="J18" s="23">
+      <c r="K18" s="23">
         <v>250</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="L18" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="L18" s="22">
+      <c r="M18" s="22">
         <v>1</v>
       </c>
-      <c r="M18" s="22"/>
       <c r="N18" s="22"/>
-      <c r="O18" s="22" t="s">
+      <c r="O18" s="22"/>
+      <c r="P18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="22">
+      <c r="Q18" s="22">
         <v>1</v>
       </c>
-      <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="22"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="22"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>865</v>
       </c>
@@ -4862,32 +4929,35 @@
       <c r="H19" s="34">
         <v>0</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="J19" s="34">
         <v>240</v>
       </c>
-      <c r="J19" s="25">
+      <c r="K19" s="25">
         <v>200</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="L19" s="24" t="s">
         <v>861</v>
       </c>
-      <c r="L19" s="24">
+      <c r="M19" s="24">
         <v>1</v>
       </c>
-      <c r="M19" s="24"/>
       <c r="N19" s="24"/>
-      <c r="O19" s="24" t="s">
+      <c r="O19" s="24"/>
+      <c r="P19" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="24">
+      <c r="Q19" s="24">
         <v>1</v>
       </c>
-      <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
       <c r="S19" s="24"/>
       <c r="T19" s="24"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="24"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>866</v>
       </c>
@@ -4912,28 +4982,31 @@
       <c r="H20" s="34">
         <v>0</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="J20" s="34">
         <v>240</v>
       </c>
-      <c r="J20" s="28">
+      <c r="K20" s="28">
         <v>150</v>
       </c>
-      <c r="K20" s="27" t="s">
+      <c r="L20" s="27" t="s">
         <v>861</v>
       </c>
-      <c r="L20" s="27">
+      <c r="M20" s="27">
         <v>1</v>
       </c>
-      <c r="M20" s="27"/>
       <c r="N20" s="27"/>
-      <c r="O20" s="27" t="s">
+      <c r="O20" s="27"/>
+      <c r="P20" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P20" s="27">
+      <c r="Q20" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>867</v>
       </c>
@@ -4958,28 +5031,31 @@
       <c r="H21" s="34">
         <v>0</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="J21" s="34">
         <v>240</v>
       </c>
-      <c r="J21" s="31">
-        <v>100</v>
-      </c>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="31">
+        <v>100</v>
+      </c>
+      <c r="L21" s="30" t="s">
         <v>861</v>
       </c>
-      <c r="L21" s="30">
+      <c r="M21" s="30">
         <v>1</v>
       </c>
-      <c r="M21" s="30"/>
       <c r="N21" s="30"/>
-      <c r="O21" s="30" t="s">
+      <c r="O21" s="30"/>
+      <c r="P21" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="P21" s="30">
+      <c r="Q21" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>868</v>
       </c>
@@ -5004,24 +5080,27 @@
       <c r="H22" s="34">
         <v>0</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="J22" s="34">
         <v>240</v>
       </c>
-      <c r="J22" s="34">
+      <c r="K22" s="34">
         <v>50</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="L22" s="33" t="s">
         <v>861</v>
       </c>
-      <c r="L22" s="33">
+      <c r="M22" s="33">
         <v>1</v>
       </c>
-      <c r="M22" s="33"/>
       <c r="N22" s="33"/>
-      <c r="O22" s="33" t="s">
+      <c r="O22" s="33"/>
+      <c r="P22" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="P22" s="33">
+      <c r="Q22" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15317,7 +15396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
